--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R636"/>
+  <dimension ref="A1:R641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45060,41 +45060,41 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>6500</v>
+        <v>130</v>
       </c>
       <c r="K621" t="n">
-        <v>2800</v>
+        <v>8500</v>
       </c>
       <c r="L621" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="M621" t="n">
-        <v>2800</v>
+        <v>8769</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>140</v>
+        <v>487</v>
       </c>
       <c r="Q621" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45137,24 +45137,24 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>5120</v>
+        <v>185</v>
       </c>
       <c r="K622" t="n">
-        <v>2300</v>
+        <v>4500</v>
       </c>
       <c r="L622" t="n">
-        <v>2300</v>
+        <v>5000</v>
       </c>
       <c r="M622" t="n">
-        <v>2300</v>
+        <v>4757</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -45163,10 +45163,10 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="Q622" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45204,41 +45204,41 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>80</v>
+        <v>11300</v>
       </c>
       <c r="K623" t="n">
-        <v>7500</v>
+        <v>4300</v>
       </c>
       <c r="L623" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M623" t="n">
-        <v>7750</v>
+        <v>4403</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>431</v>
+        <v>220</v>
       </c>
       <c r="Q623" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45281,24 +45281,24 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>9300</v>
+        <v>80</v>
       </c>
       <c r="K624" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="L624" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M624" t="n">
-        <v>2897</v>
+        <v>4000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,10 +45307,10 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="Q624" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>4500</v>
+        <v>5800</v>
       </c>
       <c r="K625" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L625" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M625" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="Q625" t="n">
         <v>20</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45425,36 +45425,36 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>55</v>
+        <v>6500</v>
       </c>
       <c r="K626" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="L626" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="M626" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>389</v>
+        <v>140</v>
       </c>
       <c r="Q626" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45492,41 +45492,41 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>105</v>
+        <v>5120</v>
       </c>
       <c r="K627" t="n">
-        <v>8000</v>
+        <v>2300</v>
       </c>
       <c r="L627" t="n">
-        <v>8500</v>
+        <v>2300</v>
       </c>
       <c r="M627" t="n">
-        <v>8262</v>
+        <v>2300</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>459</v>
+        <v>115</v>
       </c>
       <c r="Q627" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K628" t="n">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="L628" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M628" t="n">
-        <v>4900</v>
+        <v>7750</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>272</v>
+        <v>431</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>6900</v>
+        <v>9300</v>
       </c>
       <c r="K629" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L629" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M629" t="n">
-        <v>4500</v>
+        <v>2897</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="Q629" t="n">
         <v>20</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45713,24 +45713,24 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>60</v>
+        <v>4500</v>
       </c>
       <c r="K630" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L630" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M630" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
@@ -45739,10 +45739,10 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="Q630" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45785,36 +45785,36 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>6800</v>
+        <v>55</v>
       </c>
       <c r="K631" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L631" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M631" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="Q631" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45861,7 +45861,7 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K632" t="n">
         <v>8000</v>
@@ -45870,7 +45870,7 @@
         <v>8500</v>
       </c>
       <c r="M632" t="n">
-        <v>8269</v>
+        <v>8262</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K633" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="L633" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M633" t="n">
-        <v>4674</v>
+        <v>4900</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46005,7 +46005,7 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="K634" t="n">
         <v>4500</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46077,7 +46077,7 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K635" t="n">
         <v>4000</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="K636" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L636" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M636" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,12 +46171,372 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q636" t="n">
         <v>20</v>
       </c>
       <c r="R636" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>3</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D637" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E637" t="n">
+        <v>5</v>
+      </c>
+      <c r="F637" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J637" t="n">
+        <v>130</v>
+      </c>
+      <c r="K637" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L637" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M637" t="n">
+        <v>8269</v>
+      </c>
+      <c r="N637" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P637" t="n">
+        <v>459</v>
+      </c>
+      <c r="Q637" t="n">
+        <v>18</v>
+      </c>
+      <c r="R637" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>3</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D638" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E638" t="n">
+        <v>5</v>
+      </c>
+      <c r="F638" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J638" t="n">
+        <v>155</v>
+      </c>
+      <c r="K638" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L638" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M638" t="n">
+        <v>4674</v>
+      </c>
+      <c r="N638" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O638" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P638" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q638" t="n">
+        <v>18</v>
+      </c>
+      <c r="R638" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>3</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D639" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E639" t="n">
+        <v>5</v>
+      </c>
+      <c r="F639" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J639" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K639" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L639" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M639" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N639" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P639" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q639" t="n">
+        <v>20</v>
+      </c>
+      <c r="R639" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>3</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D640" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E640" t="n">
+        <v>5</v>
+      </c>
+      <c r="F640" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J640" t="n">
+        <v>70</v>
+      </c>
+      <c r="K640" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L640" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M640" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N640" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P640" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>18</v>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>3</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D641" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E641" t="n">
+        <v>5</v>
+      </c>
+      <c r="F641" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J641" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K641" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L641" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M641" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P641" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>20</v>
+      </c>
+      <c r="R641" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R641"/>
+  <dimension ref="A1:R643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41748,41 +41748,41 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K575" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L575" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M575" t="n">
-        <v>10471</v>
+        <v>8750</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>698</v>
+        <v>486</v>
       </c>
       <c r="Q575" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R575" t="inlineStr">
         <is>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41825,24 +41825,24 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>15500</v>
+        <v>170</v>
       </c>
       <c r="K576" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L576" t="n">
-        <v>2600</v>
+        <v>5000</v>
       </c>
       <c r="M576" t="n">
-        <v>2552</v>
+        <v>4765</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -41851,10 +41851,10 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="Q576" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
@@ -41897,36 +41897,36 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>7500</v>
+        <v>170</v>
       </c>
       <c r="K577" t="n">
-        <v>1900</v>
+        <v>10000</v>
       </c>
       <c r="L577" t="n">
-        <v>1900</v>
+        <v>11000</v>
       </c>
       <c r="M577" t="n">
-        <v>1900</v>
+        <v>10471</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>95</v>
+        <v>698</v>
       </c>
       <c r="Q577" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>8500</v>
+        <v>15500</v>
       </c>
       <c r="K578" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L578" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="M578" t="n">
-        <v>1400</v>
+        <v>2552</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="Q578" t="n">
         <v>20</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42036,41 +42036,41 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>135</v>
+        <v>7500</v>
       </c>
       <c r="K579" t="n">
-        <v>7500</v>
+        <v>1900</v>
       </c>
       <c r="L579" t="n">
-        <v>8000</v>
+        <v>1900</v>
       </c>
       <c r="M579" t="n">
-        <v>7759</v>
+        <v>1900</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>431</v>
+        <v>95</v>
       </c>
       <c r="Q579" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R579" t="inlineStr">
         <is>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42113,24 +42113,24 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>110</v>
+        <v>8500</v>
       </c>
       <c r="K580" t="n">
-        <v>4500</v>
+        <v>1400</v>
       </c>
       <c r="L580" t="n">
-        <v>4800</v>
+        <v>1400</v>
       </c>
       <c r="M580" t="n">
-        <v>4636</v>
+        <v>1400</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
@@ -42139,10 +42139,10 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="Q580" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R580" t="inlineStr">
         <is>
@@ -42180,41 +42180,41 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>6500</v>
+        <v>135</v>
       </c>
       <c r="K581" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L581" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M581" t="n">
-        <v>4500</v>
+        <v>7759</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>225</v>
+        <v>431</v>
       </c>
       <c r="Q581" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R581" t="inlineStr">
         <is>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K582" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L582" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M582" t="n">
-        <v>4000</v>
+        <v>4636</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="K583" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L583" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M583" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q583" t="n">
         <v>20</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42396,25 +42396,25 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K584" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L584" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M584" t="n">
-        <v>7235</v>
+        <v>4000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>402</v>
+        <v>222</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>10800</v>
+        <v>6800</v>
       </c>
       <c r="K585" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L585" t="n">
         <v>3000</v>
       </c>
       <c r="M585" t="n">
-        <v>2954</v>
+        <v>3000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q585" t="n">
         <v>20</v>
@@ -42540,41 +42540,41 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>6000</v>
+        <v>170</v>
       </c>
       <c r="K586" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L586" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M586" t="n">
-        <v>2000</v>
+        <v>7235</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>100</v>
+        <v>402</v>
       </c>
       <c r="Q586" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R586" t="inlineStr">
         <is>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>5500</v>
+        <v>10800</v>
       </c>
       <c r="K587" t="n">
-        <v>1200</v>
+        <v>2900</v>
       </c>
       <c r="L587" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M587" t="n">
-        <v>1200</v>
+        <v>2954</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="Q587" t="n">
         <v>20</v>
@@ -42689,36 +42689,36 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>80</v>
+        <v>6000</v>
       </c>
       <c r="K588" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="L588" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M588" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>361</v>
+        <v>100</v>
       </c>
       <c r="Q588" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R588" t="inlineStr">
         <is>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -42756,41 +42756,41 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>125</v>
+        <v>5500</v>
       </c>
       <c r="K589" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="L589" t="n">
-        <v>8500</v>
+        <v>1200</v>
       </c>
       <c r="M589" t="n">
-        <v>8240</v>
+        <v>1200</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>458</v>
+        <v>60</v>
       </c>
       <c r="Q589" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K590" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L590" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M590" t="n">
-        <v>4646</v>
+        <v>6500</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>258</v>
+        <v>361</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42900,25 +42900,25 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K591" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L591" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M591" t="n">
-        <v>4000</v>
+        <v>8240</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>222</v>
+        <v>458</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="K592" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L592" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="M592" t="n">
-        <v>8261</v>
+        <v>4646</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>459</v>
+        <v>258</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K593" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L593" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M593" t="n">
-        <v>4643</v>
+        <v>4000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K594" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L594" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M594" t="n">
-        <v>4000</v>
+        <v>8261</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43188,25 +43188,25 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>635</v>
+        <v>115</v>
       </c>
       <c r="K595" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L595" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="M595" t="n">
-        <v>8252</v>
+        <v>4643</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>458</v>
+        <v>258</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>925</v>
+        <v>60</v>
       </c>
       <c r="K596" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L596" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M596" t="n">
-        <v>4676</v>
+        <v>4000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43332,41 +43332,41 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>8800</v>
+        <v>635</v>
       </c>
       <c r="K597" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L597" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M597" t="n">
-        <v>4500</v>
+        <v>8252</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>225</v>
+        <v>458</v>
       </c>
       <c r="Q597" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>350</v>
+        <v>925</v>
       </c>
       <c r="K598" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L598" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M598" t="n">
-        <v>4000</v>
+        <v>4676</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="K599" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L599" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M599" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="Q599" t="n">
         <v>20</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43548,25 +43548,25 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K600" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L600" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M600" t="n">
-        <v>8184</v>
+        <v>4000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>455</v>
+        <v>222</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,36 +43625,36 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>150</v>
+        <v>8500</v>
       </c>
       <c r="K601" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L601" t="n">
-        <v>5800</v>
+        <v>3500</v>
       </c>
       <c r="M601" t="n">
-        <v>5660</v>
+        <v>3500</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="Q601" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K602" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L602" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M602" t="n">
-        <v>4500</v>
+        <v>8184</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>250</v>
+        <v>455</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43764,25 +43764,25 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K603" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L603" t="n">
-        <v>8500</v>
+        <v>5800</v>
       </c>
       <c r="M603" t="n">
-        <v>8211</v>
+        <v>5660</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>456</v>
+        <v>314</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K604" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L604" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M604" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43908,25 +43908,25 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K605" t="n">
         <v>8000</v>
       </c>
       <c r="L605" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M605" t="n">
-        <v>8000</v>
+        <v>8211</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43985,36 +43985,36 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>14050</v>
+        <v>80</v>
       </c>
       <c r="K606" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L606" t="n">
-        <v>2700</v>
+        <v>7500</v>
       </c>
       <c r="M606" t="n">
-        <v>2607</v>
+        <v>7500</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="Q606" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
@@ -44057,36 +44057,36 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>7550</v>
+        <v>120</v>
       </c>
       <c r="K607" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L607" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M607" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="Q607" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44124,41 +44124,41 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>135</v>
+        <v>14050</v>
       </c>
       <c r="K608" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L608" t="n">
-        <v>7000</v>
+        <v>2700</v>
       </c>
       <c r="M608" t="n">
-        <v>6759</v>
+        <v>2607</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>376</v>
+        <v>130</v>
       </c>
       <c r="Q608" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44201,24 +44201,24 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>280</v>
+        <v>7550</v>
       </c>
       <c r="K609" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L609" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M609" t="n">
-        <v>4639</v>
+        <v>2000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -44227,10 +44227,10 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="Q609" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K610" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L610" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M610" t="n">
-        <v>8733</v>
+        <v>6759</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>485</v>
+        <v>376</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="K611" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L611" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M611" t="n">
-        <v>6000</v>
+        <v>4639</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44412,25 +44412,25 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K612" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L612" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M612" t="n">
-        <v>5000</v>
+        <v>8733</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>278</v>
+        <v>485</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44484,25 +44484,25 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K613" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L613" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M613" t="n">
-        <v>8262</v>
+        <v>6000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K614" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="L614" t="n">
         <v>5000</v>
       </c>
       <c r="M614" t="n">
-        <v>4903</v>
+        <v>5000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K615" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L615" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M615" t="n">
-        <v>4000</v>
+        <v>8262</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44705,24 +44705,24 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>5600</v>
+        <v>145</v>
       </c>
       <c r="K616" t="n">
-        <v>2800</v>
+        <v>4800</v>
       </c>
       <c r="L616" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M616" t="n">
-        <v>2886</v>
+        <v>4903</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -44731,10 +44731,10 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="Q616" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,24 +44777,24 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>5200</v>
+        <v>50</v>
       </c>
       <c r="K617" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L617" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="M617" t="n">
-        <v>2162</v>
+        <v>4000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -44803,10 +44803,10 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="Q617" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44844,41 +44844,41 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>60</v>
+        <v>5600</v>
       </c>
       <c r="K618" t="n">
-        <v>9000</v>
+        <v>2800</v>
       </c>
       <c r="L618" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M618" t="n">
-        <v>9000</v>
+        <v>2886</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>500</v>
+        <v>144</v>
       </c>
       <c r="Q618" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44921,36 +44921,36 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>65</v>
+        <v>5200</v>
       </c>
       <c r="K619" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L619" t="n">
-        <v>5500</v>
+        <v>2300</v>
       </c>
       <c r="M619" t="n">
-        <v>5500</v>
+        <v>2162</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="Q619" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44988,25 +44988,25 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K620" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L620" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M620" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45060,25 +45060,25 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K621" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L621" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M621" t="n">
-        <v>8769</v>
+        <v>5500</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>487</v>
+        <v>306</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K622" t="n">
         <v>4500</v>
       </c>
       <c r="L622" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M622" t="n">
-        <v>4757</v>
+        <v>4500</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45204,41 +45204,41 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>11300</v>
+        <v>130</v>
       </c>
       <c r="K623" t="n">
-        <v>4300</v>
+        <v>8500</v>
       </c>
       <c r="L623" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M623" t="n">
-        <v>4403</v>
+        <v>8769</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>220</v>
+        <v>487</v>
       </c>
       <c r="Q623" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="K624" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L624" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M624" t="n">
-        <v>4000</v>
+        <v>4757</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>5800</v>
+        <v>11300</v>
       </c>
       <c r="K625" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="L625" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M625" t="n">
-        <v>3500</v>
+        <v>4403</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="Q625" t="n">
         <v>20</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45425,24 +45425,24 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>6500</v>
+        <v>80</v>
       </c>
       <c r="K626" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="L626" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M626" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -45451,10 +45451,10 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="Q626" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>5120</v>
+        <v>5800</v>
       </c>
       <c r="K627" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="L627" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M627" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="Q627" t="n">
         <v>20</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45564,41 +45564,41 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K628" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="L628" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="M628" t="n">
-        <v>7750</v>
+        <v>2800</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>431</v>
+        <v>140</v>
       </c>
       <c r="Q628" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>9300</v>
+        <v>5120</v>
       </c>
       <c r="K629" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L629" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M629" t="n">
-        <v>2897</v>
+        <v>2300</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="Q629" t="n">
         <v>20</v>
@@ -45708,41 +45708,41 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>4500</v>
+        <v>80</v>
       </c>
       <c r="K630" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L630" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M630" t="n">
-        <v>2000</v>
+        <v>7750</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="Q630" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45785,36 +45785,36 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>55</v>
+        <v>9300</v>
       </c>
       <c r="K631" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="L631" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M631" t="n">
-        <v>7000</v>
+        <v>2897</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>389</v>
+        <v>145</v>
       </c>
       <c r="Q631" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45852,41 +45852,41 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>105</v>
+        <v>4500</v>
       </c>
       <c r="K632" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="L632" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="M632" t="n">
-        <v>8262</v>
+        <v>2000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>459</v>
+        <v>100</v>
       </c>
       <c r="Q632" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="K633" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="L633" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M633" t="n">
-        <v>4900</v>
+        <v>7000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45996,41 +45996,41 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>6900</v>
+        <v>105</v>
       </c>
       <c r="K634" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L634" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M634" t="n">
-        <v>4500</v>
+        <v>8262</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>225</v>
+        <v>459</v>
       </c>
       <c r="Q634" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K635" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="L635" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M635" t="n">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="K636" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L636" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M636" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q636" t="n">
         <v>20</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46212,25 +46212,25 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K637" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L637" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M637" t="n">
-        <v>8269</v>
+        <v>4000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>459</v>
+        <v>222</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46289,24 +46289,24 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>155</v>
+        <v>6800</v>
       </c>
       <c r="K638" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L638" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="M638" t="n">
-        <v>4674</v>
+        <v>3000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -46315,10 +46315,10 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="Q638" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46356,41 +46356,41 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>7500</v>
+        <v>130</v>
       </c>
       <c r="K639" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L639" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M639" t="n">
-        <v>4500</v>
+        <v>8269</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>225</v>
+        <v>459</v>
       </c>
       <c r="Q639" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K640" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L640" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M640" t="n">
-        <v>4000</v>
+        <v>4674</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J641" t="n">
         <v>7500</v>
       </c>
       <c r="K641" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L641" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M641" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,12 +46531,156 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="Q641" t="n">
         <v>20</v>
       </c>
       <c r="R641" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>3</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E642" t="n">
+        <v>5</v>
+      </c>
+      <c r="F642" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J642" t="n">
+        <v>70</v>
+      </c>
+      <c r="K642" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L642" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M642" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P642" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>18</v>
+      </c>
+      <c r="R642" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>3</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E643" t="n">
+        <v>5</v>
+      </c>
+      <c r="F643" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J643" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K643" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L643" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M643" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P643" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>20</v>
+      </c>
+      <c r="R643" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R669"/>
+  <dimension ref="A1:R673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44928,13 +44928,13 @@
         <v>110</v>
       </c>
       <c r="K619" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L619" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M619" t="n">
-        <v>6773</v>
+        <v>8727</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>376</v>
+        <v>485</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K620" t="n">
         <v>4500</v>
       </c>
       <c r="L620" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="M620" t="n">
-        <v>4750</v>
+        <v>4548</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45060,41 +45060,41 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>185</v>
+        <v>13100</v>
       </c>
       <c r="K621" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="L621" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M621" t="n">
-        <v>7324</v>
+        <v>4399</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>407</v>
+        <v>220</v>
       </c>
       <c r="Q621" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45132,41 +45132,41 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>60</v>
+        <v>6500</v>
       </c>
       <c r="K622" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L622" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M622" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>333</v>
+        <v>175</v>
       </c>
       <c r="Q622" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45204,41 +45204,41 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>11780</v>
+        <v>110</v>
       </c>
       <c r="K623" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L623" t="n">
-        <v>3100</v>
+        <v>7000</v>
       </c>
       <c r="M623" t="n">
-        <v>3045</v>
+        <v>6773</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>152</v>
+        <v>376</v>
       </c>
       <c r="Q623" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45281,24 +45281,24 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>5800</v>
+        <v>170</v>
       </c>
       <c r="K624" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L624" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M624" t="n">
-        <v>2000</v>
+        <v>4750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,10 +45307,10 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="Q624" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K625" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L625" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M625" t="n">
-        <v>6000</v>
+        <v>7324</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45420,41 +45420,41 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>8500</v>
+        <v>60</v>
       </c>
       <c r="K626" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="L626" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="M626" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>125</v>
+        <v>333</v>
       </c>
       <c r="Q626" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45492,41 +45492,41 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>130</v>
+        <v>11780</v>
       </c>
       <c r="K627" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L627" t="n">
-        <v>8500</v>
+        <v>3100</v>
       </c>
       <c r="M627" t="n">
-        <v>8269</v>
+        <v>3045</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="Q627" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45569,24 +45569,24 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>145</v>
+        <v>5800</v>
       </c>
       <c r="K628" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="L628" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M628" t="n">
-        <v>4903</v>
+        <v>2000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
@@ -45595,10 +45595,10 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="Q628" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45641,36 +45641,36 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>17300</v>
+        <v>180</v>
       </c>
       <c r="K629" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L629" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M629" t="n">
-        <v>4246</v>
+        <v>6000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="Q629" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45713,24 +45713,24 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>60</v>
+        <v>8500</v>
       </c>
       <c r="K630" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L630" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M630" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
@@ -45739,10 +45739,10 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="Q630" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45780,41 +45780,41 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
+        <v>130</v>
+      </c>
+      <c r="K631" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L631" t="n">
         <v>8500</v>
       </c>
-      <c r="K631" t="n">
-        <v>3500</v>
-      </c>
-      <c r="L631" t="n">
-        <v>3500</v>
-      </c>
       <c r="M631" t="n">
-        <v>3500</v>
+        <v>8269</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>175</v>
+        <v>459</v>
       </c>
       <c r="Q631" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45852,25 +45852,25 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K632" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="L632" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M632" t="n">
-        <v>8500</v>
+        <v>4903</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45929,24 +45929,24 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>115</v>
+        <v>17300</v>
       </c>
       <c r="K633" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="L633" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M633" t="n">
-        <v>4896</v>
+        <v>4246</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,10 +45955,10 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="Q633" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46068,41 +46068,41 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>105</v>
+        <v>8500</v>
       </c>
       <c r="K635" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L635" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M635" t="n">
-        <v>6738</v>
+        <v>3500</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>374</v>
+        <v>175</v>
       </c>
       <c r="Q635" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46140,41 +46140,41 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>5800</v>
+        <v>50</v>
       </c>
       <c r="K636" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="L636" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="M636" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>150</v>
+        <v>472</v>
       </c>
       <c r="Q636" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46217,24 +46217,24 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>5500</v>
+        <v>115</v>
       </c>
       <c r="K637" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="L637" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M637" t="n">
-        <v>2000</v>
+        <v>4896</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -46243,10 +46243,10 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="Q637" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46284,25 +46284,25 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K638" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L638" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M638" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K639" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L639" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M639" t="n">
-        <v>6000</v>
+        <v>6738</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46433,24 +46433,24 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>50</v>
+        <v>5800</v>
       </c>
       <c r="K640" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L640" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M640" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -46459,10 +46459,10 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>389</v>
+        <v>150</v>
       </c>
       <c r="Q640" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="K641" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L641" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M641" t="n">
-        <v>2950</v>
+        <v>2000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="Q641" t="n">
         <v>20</v>
@@ -46572,41 +46572,41 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>6000</v>
+        <v>45</v>
       </c>
       <c r="K642" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="L642" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="M642" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="Q642" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46644,25 +46644,25 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K643" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L643" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M643" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K644" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L644" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M644" t="n">
-        <v>7733</v>
+        <v>7000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46793,36 +46793,36 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>160</v>
+        <v>11000</v>
       </c>
       <c r="K645" t="n">
-        <v>7500</v>
+        <v>2900</v>
       </c>
       <c r="L645" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M645" t="n">
-        <v>7750</v>
+        <v>2950</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="Q645" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>11800</v>
+        <v>6000</v>
       </c>
       <c r="K646" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="L646" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M646" t="n">
-        <v>2402</v>
+        <v>2100</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="Q646" t="n">
         <v>20</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,36 +46937,36 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
+        <v>70</v>
+      </c>
+      <c r="K647" t="n">
         <v>6500</v>
       </c>
-      <c r="K647" t="n">
-        <v>1800</v>
-      </c>
       <c r="L647" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="M647" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>90</v>
+        <v>361</v>
       </c>
       <c r="Q647" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K648" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L648" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M648" t="n">
-        <v>7239</v>
+        <v>7733</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47081,36 +47081,36 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>11520</v>
+        <v>160</v>
       </c>
       <c r="K649" t="n">
-        <v>2900</v>
+        <v>7500</v>
       </c>
       <c r="L649" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M649" t="n">
-        <v>2951</v>
+        <v>7750</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>148</v>
+        <v>431</v>
       </c>
       <c r="Q649" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>5700</v>
+        <v>11800</v>
       </c>
       <c r="K650" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L650" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M650" t="n">
-        <v>2000</v>
+        <v>2402</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q650" t="n">
         <v>20</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,36 +47225,36 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K651" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="L651" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="M651" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>389</v>
+        <v>90</v>
       </c>
       <c r="Q651" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="K652" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L652" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M652" t="n">
-        <v>6759</v>
+        <v>7239</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47369,24 +47369,24 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>280</v>
+        <v>11520</v>
       </c>
       <c r="K653" t="n">
-        <v>4500</v>
+        <v>2900</v>
       </c>
       <c r="L653" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="M653" t="n">
-        <v>4639</v>
+        <v>2951</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
@@ -47395,10 +47395,10 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="Q653" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47436,41 +47436,41 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>68</v>
+        <v>5700</v>
       </c>
       <c r="K654" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L654" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="M654" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q654" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K655" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L655" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M655" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47580,25 +47580,25 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="K656" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L656" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M656" t="n">
-        <v>4817</v>
+        <v>6759</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="K657" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L657" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M657" t="n">
-        <v>6761</v>
+        <v>4639</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>376</v>
+        <v>258</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47724,38 +47724,38 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K658" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L658" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M658" t="n">
-        <v>4769</v>
+        <v>9000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>265</v>
+        <v>500</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47796,25 +47796,25 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K659" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L659" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M659" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47868,25 +47868,25 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="K660" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L660" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M660" t="n">
-        <v>6500</v>
+        <v>4817</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>361</v>
+        <v>268</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47940,41 +47940,41 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>13300</v>
+        <v>115</v>
       </c>
       <c r="K661" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L661" t="n">
-        <v>3100</v>
+        <v>7000</v>
       </c>
       <c r="M661" t="n">
-        <v>3051</v>
+        <v>6761</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>153</v>
+        <v>376</v>
       </c>
       <c r="Q661" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48017,24 +48017,24 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>6500</v>
+        <v>130</v>
       </c>
       <c r="K662" t="n">
-        <v>2100</v>
+        <v>4500</v>
       </c>
       <c r="L662" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="M662" t="n">
-        <v>2100</v>
+        <v>4769</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
@@ -48043,10 +48043,10 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="Q662" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48084,41 +48084,41 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>1300</v>
+        <v>50</v>
       </c>
       <c r="K663" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="L663" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="M663" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="Q663" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K664" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L664" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M664" t="n">
-        <v>8761</v>
+        <v>6500</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>487</v>
+        <v>361</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48233,24 +48233,24 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>175</v>
+        <v>13300</v>
       </c>
       <c r="K665" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L665" t="n">
-        <v>4800</v>
+        <v>3100</v>
       </c>
       <c r="M665" t="n">
-        <v>4646</v>
+        <v>3051</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -48259,10 +48259,10 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="Q665" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48305,24 +48305,24 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>90</v>
+        <v>6500</v>
       </c>
       <c r="K666" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="L666" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="M666" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -48331,10 +48331,10 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="Q666" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48372,41 +48372,41 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>110</v>
+        <v>1300</v>
       </c>
       <c r="K667" t="n">
-        <v>8500</v>
+        <v>1300</v>
       </c>
       <c r="L667" t="n">
-        <v>9000</v>
+        <v>1300</v>
       </c>
       <c r="M667" t="n">
-        <v>8773</v>
+        <v>1300</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>487</v>
+        <v>65</v>
       </c>
       <c r="Q667" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K668" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L668" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M668" t="n">
-        <v>5773</v>
+        <v>8761</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>321</v>
+        <v>487</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="K669" t="n">
         <v>4500</v>
       </c>
       <c r="L669" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M669" t="n">
-        <v>4500</v>
+        <v>4646</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,12 +48547,300 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
       </c>
       <c r="R669" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>3</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D670" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E670" t="n">
+        <v>5</v>
+      </c>
+      <c r="F670" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J670" t="n">
+        <v>90</v>
+      </c>
+      <c r="K670" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L670" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M670" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N670" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O670" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P670" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q670" t="n">
+        <v>18</v>
+      </c>
+      <c r="R670" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>3</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D671" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E671" t="n">
+        <v>5</v>
+      </c>
+      <c r="F671" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J671" t="n">
+        <v>110</v>
+      </c>
+      <c r="K671" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L671" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M671" t="n">
+        <v>8773</v>
+      </c>
+      <c r="N671" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O671" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P671" t="n">
+        <v>487</v>
+      </c>
+      <c r="Q671" t="n">
+        <v>18</v>
+      </c>
+      <c r="R671" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>3</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D672" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E672" t="n">
+        <v>5</v>
+      </c>
+      <c r="F672" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J672" t="n">
+        <v>110</v>
+      </c>
+      <c r="K672" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L672" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M672" t="n">
+        <v>5773</v>
+      </c>
+      <c r="N672" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O672" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P672" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q672" t="n">
+        <v>18</v>
+      </c>
+      <c r="R672" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>3</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D673" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E673" t="n">
+        <v>5</v>
+      </c>
+      <c r="F673" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J673" t="n">
+        <v>68</v>
+      </c>
+      <c r="K673" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L673" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M673" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N673" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O673" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P673" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q673" t="n">
+        <v>18</v>
+      </c>
+      <c r="R673" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R679"/>
+  <dimension ref="A1:R683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K521" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L521" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M521" t="n">
-        <v>9000</v>
+        <v>8219</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -37937,36 +37937,36 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>13300</v>
+        <v>135</v>
       </c>
       <c r="K522" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L522" t="n">
-        <v>3300</v>
+        <v>4700</v>
       </c>
       <c r="M522" t="n">
-        <v>3147</v>
+        <v>4604</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="Q522" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J523" t="n">
         <v>6500</v>
       </c>
       <c r="K523" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L523" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M523" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q523" t="n">
         <v>20</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -38076,41 +38076,41 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>85</v>
+        <v>6500</v>
       </c>
       <c r="K524" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L524" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="M524" t="n">
-        <v>9265</v>
+        <v>3000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>515</v>
+        <v>150</v>
       </c>
       <c r="Q524" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -38148,25 +38148,25 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K525" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L525" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M525" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -38225,24 +38225,24 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>80</v>
+        <v>13300</v>
       </c>
       <c r="K526" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L526" t="n">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="M526" t="n">
-        <v>5000</v>
+        <v>3147</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -38251,10 +38251,10 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="Q526" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R526" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -38292,41 +38292,41 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>170</v>
+        <v>6500</v>
       </c>
       <c r="K527" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="L527" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M527" t="n">
-        <v>7235</v>
+        <v>2000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>402</v>
+        <v>100</v>
       </c>
       <c r="Q527" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -38364,41 +38364,41 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>10800</v>
+        <v>85</v>
       </c>
       <c r="K528" t="n">
-        <v>2900</v>
+        <v>9000</v>
       </c>
       <c r="L528" t="n">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="M528" t="n">
-        <v>2954</v>
+        <v>9265</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>148</v>
+        <v>515</v>
       </c>
       <c r="Q528" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -38441,24 +38441,24 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J529" t="n">
+        <v>80</v>
+      </c>
+      <c r="K529" t="n">
         <v>6000</v>
       </c>
-      <c r="K529" t="n">
-        <v>2000</v>
-      </c>
       <c r="L529" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M529" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -38467,10 +38467,10 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="Q529" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -38513,24 +38513,24 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>5500</v>
+        <v>80</v>
       </c>
       <c r="K530" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="L530" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="M530" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -38539,10 +38539,10 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="Q530" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38580,7 +38580,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K531" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L531" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M531" t="n">
-        <v>6500</v>
+        <v>7235</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -38652,41 +38652,41 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>76</v>
+        <v>10800</v>
       </c>
       <c r="K532" t="n">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="L532" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M532" t="n">
-        <v>7000</v>
+        <v>2954</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>389</v>
+        <v>148</v>
       </c>
       <c r="Q532" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="K533" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L533" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M533" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="Q533" t="n">
         <v>20</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>2700</v>
+        <v>5500</v>
       </c>
       <c r="K534" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L534" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M534" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="Q534" t="n">
         <v>20</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -38873,36 +38873,36 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>2800</v>
+        <v>80</v>
       </c>
       <c r="K535" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L535" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="M535" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="Q535" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38949,7 +38949,7 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="K536" t="n">
         <v>7000</v>
@@ -39017,36 +39017,36 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>87</v>
+        <v>3200</v>
       </c>
       <c r="K537" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="L537" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="M537" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>333</v>
+        <v>140</v>
       </c>
       <c r="Q537" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -39084,41 +39084,41 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>120</v>
+        <v>2700</v>
       </c>
       <c r="K538" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L538" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M538" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>389</v>
+        <v>125</v>
       </c>
       <c r="Q538" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -39156,41 +39156,41 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>80</v>
+        <v>2800</v>
       </c>
       <c r="K539" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L539" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M539" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>333</v>
+        <v>100</v>
       </c>
       <c r="Q539" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -39233,36 +39233,36 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>11300</v>
+        <v>100</v>
       </c>
       <c r="K540" t="n">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="L540" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M540" t="n">
-        <v>2949</v>
+        <v>7000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>147</v>
+        <v>389</v>
       </c>
       <c r="Q540" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -39305,36 +39305,36 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>6500</v>
+        <v>87</v>
       </c>
       <c r="K541" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L541" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M541" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="Q541" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K542" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L542" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M542" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -39444,41 +39444,41 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>3500</v>
+        <v>80</v>
       </c>
       <c r="K543" t="n">
-        <v>2700</v>
+        <v>6000</v>
       </c>
       <c r="L543" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M543" t="n">
-        <v>2854</v>
+        <v>6000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="Q543" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>2500</v>
+        <v>11300</v>
       </c>
       <c r="K544" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="L544" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M544" t="n">
-        <v>2000</v>
+        <v>2949</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="Q544" t="n">
         <v>20</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -39593,36 +39593,36 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>90</v>
+        <v>6500</v>
       </c>
       <c r="K545" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="L545" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="M545" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>472</v>
+        <v>100</v>
       </c>
       <c r="Q545" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -39660,7 +39660,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -39669,20 +39669,20 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K546" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L546" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M546" t="n">
-        <v>9235</v>
+        <v>6500</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -39691,10 +39691,10 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>616</v>
+        <v>361</v>
       </c>
       <c r="Q546" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="K547" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L547" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M547" t="n">
-        <v>2500</v>
+        <v>2854</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="Q547" t="n">
         <v>20</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="K548" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L548" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M548" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q548" t="n">
         <v>20</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -39876,7 +39876,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K549" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L549" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M549" t="n">
-        <v>7233</v>
+        <v>8500</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>402</v>
+        <v>472</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -39948,41 +39948,41 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K550" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L550" t="n">
-        <v>5300</v>
+        <v>9500</v>
       </c>
       <c r="M550" t="n">
-        <v>5138</v>
+        <v>9235</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>285</v>
+        <v>616</v>
       </c>
       <c r="Q550" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -40025,36 +40025,36 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>50</v>
+        <v>5500</v>
       </c>
       <c r="K551" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L551" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M551" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="Q551" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -40092,41 +40092,41 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>115</v>
+        <v>4500</v>
       </c>
       <c r="K552" t="n">
-        <v>8000</v>
+        <v>1900</v>
       </c>
       <c r="L552" t="n">
-        <v>8500</v>
+        <v>1900</v>
       </c>
       <c r="M552" t="n">
-        <v>8261</v>
+        <v>1900</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>459</v>
+        <v>95</v>
       </c>
       <c r="Q552" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -40164,25 +40164,25 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K553" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L553" t="n">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="M553" t="n">
-        <v>4650</v>
+        <v>7233</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K554" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L554" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="M554" t="n">
-        <v>4000</v>
+        <v>5138</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -40308,25 +40308,25 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K555" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L555" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M555" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40335,11 +40335,11 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="K556" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L556" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M556" t="n">
-        <v>6000</v>
+        <v>8261</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>333</v>
+        <v>459</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -40457,24 +40457,24 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>6300</v>
+        <v>140</v>
       </c>
       <c r="K557" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L557" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M557" t="n">
-        <v>2722</v>
+        <v>4650</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
@@ -40483,10 +40483,10 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="Q557" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R557" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -40529,24 +40529,24 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>5700</v>
+        <v>50</v>
       </c>
       <c r="K558" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L558" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M558" t="n">
-        <v>1905</v>
+        <v>4000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
@@ -40555,10 +40555,10 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="Q558" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
@@ -40596,41 +40596,41 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>2700</v>
+        <v>78</v>
       </c>
       <c r="K559" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L559" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="M559" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="Q559" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -40668,25 +40668,25 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="K560" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L560" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M560" t="n">
-        <v>4739</v>
+        <v>6000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -40740,41 +40740,41 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>60</v>
+        <v>6300</v>
       </c>
       <c r="K561" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="L561" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M561" t="n">
-        <v>9000</v>
+        <v>2722</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>500</v>
+        <v>136</v>
       </c>
       <c r="Q561" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -40817,24 +40817,24 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>120</v>
+        <v>5700</v>
       </c>
       <c r="K562" t="n">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="L562" t="n">
-        <v>5800</v>
+        <v>2000</v>
       </c>
       <c r="M562" t="n">
-        <v>5650</v>
+        <v>1905</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
@@ -40843,10 +40843,10 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="Q562" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -40884,41 +40884,41 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>150</v>
+        <v>2700</v>
       </c>
       <c r="K563" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="L563" t="n">
-        <v>9000</v>
+        <v>1500</v>
       </c>
       <c r="M563" t="n">
-        <v>8733</v>
+        <v>1500</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>485</v>
+        <v>75</v>
       </c>
       <c r="Q563" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="K564" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L564" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M564" t="n">
-        <v>6000</v>
+        <v>4739</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -41028,25 +41028,25 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K565" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L565" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M565" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -41100,25 +41100,25 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K566" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L566" t="n">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="M566" t="n">
-        <v>7739</v>
+        <v>5650</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>430</v>
+        <v>314</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -41172,25 +41172,25 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K567" t="n">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="L567" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M567" t="n">
-        <v>4897</v>
+        <v>8733</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>272</v>
+        <v>485</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -41249,24 +41249,24 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>6600</v>
+        <v>60</v>
       </c>
       <c r="K568" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L568" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M568" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
@@ -41275,10 +41275,10 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="Q568" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K569" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L569" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M569" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41388,41 +41388,41 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>6500</v>
+        <v>115</v>
       </c>
       <c r="K570" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L570" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M570" t="n">
-        <v>3500</v>
+        <v>7739</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="Q570" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -41460,25 +41460,25 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="K571" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="L571" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M571" t="n">
-        <v>7239</v>
+        <v>4897</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41537,24 +41537,24 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>70</v>
+        <v>6600</v>
       </c>
       <c r="K572" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L572" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M572" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -41563,10 +41563,10 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="Q572" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K573" t="n">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="L573" t="n">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="M573" t="n">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41676,41 +41676,41 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>150</v>
+        <v>6500</v>
       </c>
       <c r="K574" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L574" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M574" t="n">
-        <v>8767</v>
+        <v>3500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>487</v>
+        <v>175</v>
       </c>
       <c r="Q574" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R574" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K575" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L575" t="n">
         <v>7500</v>
       </c>
       <c r="M575" t="n">
-        <v>7500</v>
+        <v>7239</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="K576" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L576" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M576" t="n">
-        <v>5911</v>
+        <v>5000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K577" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="L577" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="M577" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41973,16 +41973,16 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="K578" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L578" t="n">
         <v>9000</v>
       </c>
       <c r="M578" t="n">
-        <v>9000</v>
+        <v>8767</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K579" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L579" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M579" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="K580" t="n">
+        <v>5800</v>
+      </c>
+      <c r="L580" t="n">
         <v>6000</v>
       </c>
-      <c r="L580" t="n">
-        <v>6500</v>
-      </c>
       <c r="M580" t="n">
-        <v>6225</v>
+        <v>5911</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -42189,7 +42189,7 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K581" t="n">
         <v>5000</v>
@@ -42207,7 +42207,7 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P581" t="n">
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -42261,7 +42261,7 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="K582" t="n">
         <v>9000</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K583" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L583" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M583" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42405,7 +42405,7 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>340</v>
+        <v>218</v>
       </c>
       <c r="K584" t="n">
         <v>6000</v>
@@ -42414,7 +42414,7 @@
         <v>6500</v>
       </c>
       <c r="M584" t="n">
-        <v>6279</v>
+        <v>6225</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42477,7 +42477,7 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K585" t="n">
         <v>5000</v>
@@ -42495,7 +42495,7 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P585" t="n">
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K586" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L586" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M586" t="n">
-        <v>7759</v>
+        <v>9000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K587" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L587" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M587" t="n">
-        <v>4636</v>
+        <v>7000</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>258</v>
+        <v>389</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -42689,36 +42689,36 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J588" t="n">
+        <v>340</v>
+      </c>
+      <c r="K588" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L588" t="n">
         <v>6500</v>
       </c>
-      <c r="K588" t="n">
-        <v>4500</v>
-      </c>
-      <c r="L588" t="n">
-        <v>4500</v>
-      </c>
       <c r="M588" t="n">
-        <v>4500</v>
+        <v>6279</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="Q588" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R588" t="inlineStr">
         <is>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K589" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L589" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M589" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42828,41 +42828,41 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>6800</v>
+        <v>135</v>
       </c>
       <c r="K590" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L590" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M590" t="n">
-        <v>3000</v>
+        <v>7759</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>150</v>
+        <v>431</v>
       </c>
       <c r="Q590" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42900,25 +42900,25 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K591" t="n">
-        <v>6800</v>
+        <v>4500</v>
       </c>
       <c r="L591" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M591" t="n">
-        <v>6877</v>
+        <v>4636</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>382</v>
+        <v>258</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42977,24 +42977,24 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>150</v>
+        <v>6500</v>
       </c>
       <c r="K592" t="n">
         <v>4500</v>
       </c>
       <c r="L592" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M592" t="n">
-        <v>4660</v>
+        <v>4500</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -43003,10 +43003,10 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="Q592" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R592" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43044,25 +43044,25 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K593" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L593" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M593" t="n">
-        <v>8737</v>
+        <v>4000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>485</v>
+        <v>222</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43116,41 +43116,41 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>95</v>
+        <v>6800</v>
       </c>
       <c r="K594" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L594" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M594" t="n">
-        <v>7737</v>
+        <v>3000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="Q594" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K595" t="n">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="L595" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M595" t="n">
-        <v>6500</v>
+        <v>6877</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -43265,24 +43265,24 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K596" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L596" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M596" t="n">
-        <v>6769</v>
+        <v>4660</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -43291,10 +43291,10 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>451</v>
+        <v>259</v>
       </c>
       <c r="Q596" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43332,41 +43332,41 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K597" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="L597" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="M597" t="n">
-        <v>3000</v>
+        <v>8737</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>150</v>
+        <v>485</v>
       </c>
       <c r="Q597" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K598" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L598" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M598" t="n">
-        <v>6500</v>
+        <v>7737</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="K599" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L599" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M599" t="n">
-        <v>7239</v>
+        <v>6500</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43553,24 +43553,24 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K600" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L600" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M600" t="n">
-        <v>4758</v>
+        <v>6769</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -43579,10 +43579,10 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>264</v>
+        <v>451</v>
       </c>
       <c r="Q600" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,33 +43625,33 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K601" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L601" t="n">
-        <v>12500</v>
+        <v>3000</v>
       </c>
       <c r="M601" t="n">
-        <v>12235</v>
+        <v>3000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>612</v>
+        <v>150</v>
       </c>
       <c r="Q601" t="n">
         <v>20</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43697,36 +43697,36 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>17000</v>
+        <v>80</v>
       </c>
       <c r="K602" t="n">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="L602" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="M602" t="n">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>120</v>
+        <v>361</v>
       </c>
       <c r="Q602" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43764,41 +43764,41 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>7800</v>
+        <v>115</v>
       </c>
       <c r="K603" t="n">
-        <v>1800</v>
+        <v>7000</v>
       </c>
       <c r="L603" t="n">
-        <v>1800</v>
+        <v>7500</v>
       </c>
       <c r="M603" t="n">
-        <v>1800</v>
+        <v>7239</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="Q603" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43836,25 +43836,25 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K604" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L604" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M604" t="n">
-        <v>7265</v>
+        <v>4758</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43917,32 +43917,32 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="K605" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L605" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="M605" t="n">
-        <v>5267</v>
+        <v>12235</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>293</v>
+        <v>612</v>
       </c>
       <c r="Q605" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -43980,41 +43980,41 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>185</v>
+        <v>17000</v>
       </c>
       <c r="K606" t="n">
-        <v>7000</v>
+        <v>2300</v>
       </c>
       <c r="L606" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="M606" t="n">
-        <v>7243</v>
+        <v>2400</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>402</v>
+        <v>120</v>
       </c>
       <c r="Q606" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44057,36 +44057,36 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>150</v>
+        <v>7800</v>
       </c>
       <c r="K607" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="L607" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="M607" t="n">
-        <v>4733</v>
+        <v>1800</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="Q607" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44124,41 +44124,41 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>8800</v>
+        <v>170</v>
       </c>
       <c r="K608" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L608" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M608" t="n">
-        <v>5000</v>
+        <v>7265</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>250</v>
+        <v>404</v>
       </c>
       <c r="Q608" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="K609" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L609" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M609" t="n">
-        <v>4000</v>
+        <v>5267</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44268,41 +44268,41 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>8800</v>
+        <v>185</v>
       </c>
       <c r="K610" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L610" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M610" t="n">
-        <v>3500</v>
+        <v>7243</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>175</v>
+        <v>402</v>
       </c>
       <c r="Q610" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44340,25 +44340,25 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="K611" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L611" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M611" t="n">
-        <v>9262</v>
+        <v>4733</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>515</v>
+        <v>263</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44417,24 +44417,24 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>165</v>
+        <v>8800</v>
       </c>
       <c r="K612" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L612" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M612" t="n">
-        <v>6258</v>
+        <v>5000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
@@ -44443,10 +44443,10 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="Q612" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K613" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L613" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M613" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44556,41 +44556,41 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>75</v>
+        <v>8800</v>
       </c>
       <c r="K614" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L614" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M614" t="n">
-        <v>7733</v>
+        <v>3500</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>430</v>
+        <v>175</v>
       </c>
       <c r="Q614" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="K615" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L615" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M615" t="n">
-        <v>6500</v>
+        <v>9262</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>361</v>
+        <v>515</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44705,24 +44705,24 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>12500</v>
+        <v>165</v>
       </c>
       <c r="K616" t="n">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="L616" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M616" t="n">
-        <v>2904</v>
+        <v>6258</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -44731,10 +44731,10 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>145</v>
+        <v>348</v>
       </c>
       <c r="Q616" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,24 +44777,24 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>5800</v>
+        <v>70</v>
       </c>
       <c r="K617" t="n">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="L617" t="n">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="M617" t="n">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -44803,10 +44803,10 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="Q617" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44844,41 +44844,41 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>5800</v>
+        <v>75</v>
       </c>
       <c r="K618" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="L618" t="n">
-        <v>1300</v>
+        <v>8000</v>
       </c>
       <c r="M618" t="n">
-        <v>1300</v>
+        <v>7733</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>65</v>
+        <v>430</v>
       </c>
       <c r="Q618" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
@@ -44916,25 +44916,25 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K619" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L619" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M619" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44988,41 +44988,41 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>95</v>
+        <v>12500</v>
       </c>
       <c r="K620" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="L620" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="M620" t="n">
-        <v>8211</v>
+        <v>2904</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>456</v>
+        <v>145</v>
       </c>
       <c r="Q620" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45065,36 +45065,36 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>80</v>
+        <v>5800</v>
       </c>
       <c r="K621" t="n">
-        <v>7500</v>
+        <v>2200</v>
       </c>
       <c r="L621" t="n">
-        <v>7500</v>
+        <v>2200</v>
       </c>
       <c r="M621" t="n">
-        <v>7500</v>
+        <v>2200</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>417</v>
+        <v>110</v>
       </c>
       <c r="Q621" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45137,36 +45137,36 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>120</v>
+        <v>5800</v>
       </c>
       <c r="K622" t="n">
-        <v>8000</v>
+        <v>1300</v>
       </c>
       <c r="L622" t="n">
-        <v>8000</v>
+        <v>1300</v>
       </c>
       <c r="M622" t="n">
-        <v>8000</v>
+        <v>1300</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>444</v>
+        <v>65</v>
       </c>
       <c r="Q622" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45209,36 +45209,36 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>14050</v>
+        <v>55</v>
       </c>
       <c r="K623" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L623" t="n">
-        <v>2700</v>
+        <v>7000</v>
       </c>
       <c r="M623" t="n">
-        <v>2607</v>
+        <v>7000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="Q623" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45276,41 +45276,41 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>7550</v>
+        <v>95</v>
       </c>
       <c r="K624" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L624" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="M624" t="n">
-        <v>2000</v>
+        <v>8211</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="Q624" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K625" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L625" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M625" t="n">
-        <v>8727</v>
+        <v>7500</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K626" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L626" t="n">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="M626" t="n">
-        <v>4548</v>
+        <v>8000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>13100</v>
+        <v>14050</v>
       </c>
       <c r="K627" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="L627" t="n">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="M627" t="n">
-        <v>4399</v>
+        <v>2607</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="Q627" t="n">
         <v>20</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>6500</v>
+        <v>7550</v>
       </c>
       <c r="K628" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L628" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M628" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="Q628" t="n">
         <v>20</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45648,13 +45648,13 @@
         <v>110</v>
       </c>
       <c r="K629" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L629" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M629" t="n">
-        <v>6773</v>
+        <v>8727</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>376</v>
+        <v>485</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K630" t="n">
         <v>4500</v>
       </c>
       <c r="L630" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="M630" t="n">
-        <v>4750</v>
+        <v>4548</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45780,41 +45780,41 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>185</v>
+        <v>13100</v>
       </c>
       <c r="K631" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="L631" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M631" t="n">
-        <v>7324</v>
+        <v>4399</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>407</v>
+        <v>220</v>
       </c>
       <c r="Q631" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45852,41 +45852,41 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>60</v>
+        <v>6500</v>
       </c>
       <c r="K632" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L632" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M632" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>333</v>
+        <v>175</v>
       </c>
       <c r="Q632" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45924,41 +45924,41 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>11780</v>
+        <v>110</v>
       </c>
       <c r="K633" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L633" t="n">
-        <v>3100</v>
+        <v>7000</v>
       </c>
       <c r="M633" t="n">
-        <v>3045</v>
+        <v>6773</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>152</v>
+        <v>376</v>
       </c>
       <c r="Q633" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46001,24 +46001,24 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>5800</v>
+        <v>170</v>
       </c>
       <c r="K634" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L634" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M634" t="n">
-        <v>2000</v>
+        <v>4750</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -46027,10 +46027,10 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="Q634" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K635" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L635" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M635" t="n">
-        <v>6000</v>
+        <v>7324</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46140,41 +46140,41 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>8500</v>
+        <v>60</v>
       </c>
       <c r="K636" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="L636" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="M636" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>125</v>
+        <v>333</v>
       </c>
       <c r="Q636" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46212,41 +46212,41 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>130</v>
+        <v>11780</v>
       </c>
       <c r="K637" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L637" t="n">
-        <v>8500</v>
+        <v>3100</v>
       </c>
       <c r="M637" t="n">
-        <v>8269</v>
+        <v>3045</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="Q637" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46289,24 +46289,24 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>145</v>
+        <v>5800</v>
       </c>
       <c r="K638" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="L638" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M638" t="n">
-        <v>4903</v>
+        <v>2000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -46315,10 +46315,10 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="Q638" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46361,36 +46361,36 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>17300</v>
+        <v>180</v>
       </c>
       <c r="K639" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L639" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M639" t="n">
-        <v>4246</v>
+        <v>6000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="Q639" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46433,24 +46433,24 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>60</v>
+        <v>8500</v>
       </c>
       <c r="K640" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L640" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M640" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -46459,10 +46459,10 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="Q640" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46500,41 +46500,41 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J641" t="n">
+        <v>130</v>
+      </c>
+      <c r="K641" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L641" t="n">
         <v>8500</v>
       </c>
-      <c r="K641" t="n">
-        <v>3500</v>
-      </c>
-      <c r="L641" t="n">
-        <v>3500</v>
-      </c>
       <c r="M641" t="n">
-        <v>3500</v>
+        <v>8269</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>175</v>
+        <v>459</v>
       </c>
       <c r="Q641" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46572,25 +46572,25 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K642" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="L642" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M642" t="n">
-        <v>8500</v>
+        <v>4903</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46599,11 +46599,11 @@
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="Q642" t="n">
         <v>18</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46649,24 +46649,24 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>115</v>
+        <v>17300</v>
       </c>
       <c r="K643" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="L643" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M643" t="n">
-        <v>4896</v>
+        <v>4246</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -46675,10 +46675,10 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="Q643" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46788,41 +46788,41 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>105</v>
+        <v>8500</v>
       </c>
       <c r="K645" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L645" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M645" t="n">
-        <v>6738</v>
+        <v>3500</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>374</v>
+        <v>175</v>
       </c>
       <c r="Q645" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46860,41 +46860,41 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>5800</v>
+        <v>50</v>
       </c>
       <c r="K646" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="L646" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="M646" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>150</v>
+        <v>472</v>
       </c>
       <c r="Q646" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R646" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,24 +46937,24 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>5500</v>
+        <v>115</v>
       </c>
       <c r="K647" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="L647" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M647" t="n">
-        <v>2000</v>
+        <v>4896</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
@@ -46963,10 +46963,10 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="Q647" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47004,25 +47004,25 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K648" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L648" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M648" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K649" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L649" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M649" t="n">
-        <v>6000</v>
+        <v>6738</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47153,24 +47153,24 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>50</v>
+        <v>5800</v>
       </c>
       <c r="K650" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L650" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M650" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -47179,10 +47179,10 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>389</v>
+        <v>150</v>
       </c>
       <c r="Q650" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="K651" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L651" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M651" t="n">
-        <v>2950</v>
+        <v>2000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="Q651" t="n">
         <v>20</v>
@@ -47292,41 +47292,41 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>6000</v>
+        <v>45</v>
       </c>
       <c r="K652" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="L652" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="M652" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="Q652" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47364,25 +47364,25 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K653" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L653" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M653" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47436,25 +47436,25 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K654" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L654" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M654" t="n">
-        <v>7733</v>
+        <v>7000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47513,36 +47513,36 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>160</v>
+        <v>11000</v>
       </c>
       <c r="K655" t="n">
-        <v>7500</v>
+        <v>2900</v>
       </c>
       <c r="L655" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M655" t="n">
-        <v>7750</v>
+        <v>2950</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="Q655" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>11800</v>
+        <v>6000</v>
       </c>
       <c r="K656" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="L656" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M656" t="n">
-        <v>2402</v>
+        <v>2100</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="Q656" t="n">
         <v>20</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47657,36 +47657,36 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
+        <v>70</v>
+      </c>
+      <c r="K657" t="n">
         <v>6500</v>
       </c>
-      <c r="K657" t="n">
-        <v>1800</v>
-      </c>
       <c r="L657" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="M657" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>90</v>
+        <v>361</v>
       </c>
       <c r="Q657" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K658" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L658" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M658" t="n">
-        <v>7239</v>
+        <v>7733</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47801,36 +47801,36 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>11520</v>
+        <v>160</v>
       </c>
       <c r="K659" t="n">
-        <v>2900</v>
+        <v>7500</v>
       </c>
       <c r="L659" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M659" t="n">
-        <v>2951</v>
+        <v>7750</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>148</v>
+        <v>431</v>
       </c>
       <c r="Q659" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>5700</v>
+        <v>11800</v>
       </c>
       <c r="K660" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L660" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M660" t="n">
-        <v>2000</v>
+        <v>2402</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q660" t="n">
         <v>20</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47945,36 +47945,36 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K661" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="L661" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="M661" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>389</v>
+        <v>90</v>
       </c>
       <c r="Q661" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="K662" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L662" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M662" t="n">
-        <v>6759</v>
+        <v>7239</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48089,24 +48089,24 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>280</v>
+        <v>11520</v>
       </c>
       <c r="K663" t="n">
-        <v>4500</v>
+        <v>2900</v>
       </c>
       <c r="L663" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="M663" t="n">
-        <v>4639</v>
+        <v>2951</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
@@ -48115,10 +48115,10 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="Q663" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48156,41 +48156,41 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>68</v>
+        <v>5700</v>
       </c>
       <c r="K664" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L664" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="M664" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q664" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K665" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L665" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M665" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="K666" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L666" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>4817</v>
+        <v>6759</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="K667" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L667" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M667" t="n">
-        <v>6761</v>
+        <v>4639</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>376</v>
+        <v>258</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48444,38 +48444,38 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K668" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L668" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M668" t="n">
-        <v>4769</v>
+        <v>9000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>265</v>
+        <v>500</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K669" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L669" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M669" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48588,25 +48588,25 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="K670" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L670" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M670" t="n">
-        <v>6500</v>
+        <v>4817</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>361</v>
+        <v>268</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48660,41 +48660,41 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>13300</v>
+        <v>115</v>
       </c>
       <c r="K671" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L671" t="n">
-        <v>3100</v>
+        <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>3051</v>
+        <v>6761</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>153</v>
+        <v>376</v>
       </c>
       <c r="Q671" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48737,24 +48737,24 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>6500</v>
+        <v>130</v>
       </c>
       <c r="K672" t="n">
-        <v>2100</v>
+        <v>4500</v>
       </c>
       <c r="L672" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="M672" t="n">
-        <v>2100</v>
+        <v>4769</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -48763,10 +48763,10 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="Q672" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48804,41 +48804,41 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>1300</v>
+        <v>50</v>
       </c>
       <c r="K673" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="L673" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="M673" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="Q673" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K674" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L674" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M674" t="n">
-        <v>8761</v>
+        <v>6500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>487</v>
+        <v>361</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48953,24 +48953,24 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>175</v>
+        <v>13300</v>
       </c>
       <c r="K675" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L675" t="n">
-        <v>4800</v>
+        <v>3100</v>
       </c>
       <c r="M675" t="n">
-        <v>4646</v>
+        <v>3051</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -48979,10 +48979,10 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="Q675" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49025,24 +49025,24 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>90</v>
+        <v>6500</v>
       </c>
       <c r="K676" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="L676" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="M676" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
@@ -49051,10 +49051,10 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="Q676" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49092,41 +49092,41 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>110</v>
+        <v>1300</v>
       </c>
       <c r="K677" t="n">
-        <v>8500</v>
+        <v>1300</v>
       </c>
       <c r="L677" t="n">
-        <v>9000</v>
+        <v>1300</v>
       </c>
       <c r="M677" t="n">
-        <v>8773</v>
+        <v>1300</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>487</v>
+        <v>65</v>
       </c>
       <c r="Q677" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49164,25 +49164,25 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K678" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L678" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M678" t="n">
-        <v>5773</v>
+        <v>8761</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>321</v>
+        <v>487</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="K679" t="n">
         <v>4500</v>
       </c>
       <c r="L679" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M679" t="n">
-        <v>4500</v>
+        <v>4646</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,12 +49267,300 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
       </c>
       <c r="R679" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>3</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E680" t="n">
+        <v>5</v>
+      </c>
+      <c r="F680" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J680" t="n">
+        <v>90</v>
+      </c>
+      <c r="K680" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L680" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M680" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N680" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O680" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P680" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q680" t="n">
+        <v>18</v>
+      </c>
+      <c r="R680" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>3</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D681" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E681" t="n">
+        <v>5</v>
+      </c>
+      <c r="F681" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J681" t="n">
+        <v>110</v>
+      </c>
+      <c r="K681" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L681" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M681" t="n">
+        <v>8773</v>
+      </c>
+      <c r="N681" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O681" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P681" t="n">
+        <v>487</v>
+      </c>
+      <c r="Q681" t="n">
+        <v>18</v>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>3</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E682" t="n">
+        <v>5</v>
+      </c>
+      <c r="F682" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J682" t="n">
+        <v>110</v>
+      </c>
+      <c r="K682" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L682" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M682" t="n">
+        <v>5773</v>
+      </c>
+      <c r="N682" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O682" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P682" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q682" t="n">
+        <v>18</v>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>3</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D683" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E683" t="n">
+        <v>5</v>
+      </c>
+      <c r="F683" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J683" t="n">
+        <v>68</v>
+      </c>
+      <c r="K683" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L683" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M683" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N683" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O683" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P683" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q683" t="n">
+        <v>18</v>
+      </c>
+      <c r="R683" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R693"/>
+  <dimension ref="A1:R698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="K513" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L513" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M513" t="n">
-        <v>8740</v>
+        <v>7733</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="K514" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L514" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M514" t="n">
-        <v>5229</v>
+        <v>4650</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -37433,36 +37433,36 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>130</v>
+        <v>11000</v>
       </c>
       <c r="K515" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L515" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M515" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q515" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -37500,25 +37500,25 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K516" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L516" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M516" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37527,11 +37527,11 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -37572,41 +37572,41 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>67</v>
+        <v>5900</v>
       </c>
       <c r="K517" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L517" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M517" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>389</v>
+        <v>125</v>
       </c>
       <c r="Q517" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R517" t="inlineStr">
         <is>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -37644,25 +37644,25 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="K518" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L518" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M518" t="n">
-        <v>7000</v>
+        <v>8740</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37671,11 +37671,11 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -37721,36 +37721,36 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>5600</v>
+        <v>240</v>
       </c>
       <c r="K519" t="n">
-        <v>2700</v>
+        <v>5000</v>
       </c>
       <c r="L519" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M519" t="n">
-        <v>2871</v>
+        <v>5229</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="Q519" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="K520" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L520" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M520" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37815,11 +37815,11 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37860,41 +37860,41 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>3700</v>
+        <v>58</v>
       </c>
       <c r="K521" t="n">
-        <v>2300</v>
+        <v>8000</v>
       </c>
       <c r="L521" t="n">
-        <v>2300</v>
+        <v>8000</v>
       </c>
       <c r="M521" t="n">
-        <v>2300</v>
+        <v>8000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>115</v>
+        <v>444</v>
       </c>
       <c r="Q521" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -37932,25 +37932,25 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="K522" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L522" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M522" t="n">
-        <v>4740</v>
+        <v>7000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="K523" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L523" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M523" t="n">
-        <v>3778</v>
+        <v>7000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>210</v>
+        <v>389</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -38076,41 +38076,41 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>95</v>
+        <v>5600</v>
       </c>
       <c r="K524" t="n">
-        <v>6500</v>
+        <v>2700</v>
       </c>
       <c r="L524" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M524" t="n">
-        <v>6737</v>
+        <v>2871</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>374</v>
+        <v>144</v>
       </c>
       <c r="Q524" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="K525" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L525" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M525" t="n">
-        <v>4643</v>
+        <v>6000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44308</v>
+        <v>44187</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -38220,41 +38220,41 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>125</v>
+        <v>3700</v>
       </c>
       <c r="K526" t="n">
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="L526" t="n">
-        <v>9500</v>
+        <v>2300</v>
       </c>
       <c r="M526" t="n">
-        <v>9240</v>
+        <v>2300</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>513</v>
+        <v>115</v>
       </c>
       <c r="Q526" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R526" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K527" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L527" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M527" t="n">
-        <v>6273</v>
+        <v>4740</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44264</v>
+        <v>44390</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -38364,25 +38364,25 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="K528" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L528" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M528" t="n">
-        <v>8000</v>
+        <v>3778</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>444</v>
+        <v>210</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -38436,16 +38436,16 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K529" t="n">
         <v>6500</v>
@@ -38454,7 +38454,7 @@
         <v>7000</v>
       </c>
       <c r="M529" t="n">
-        <v>6727</v>
+        <v>6737</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P529" t="n">
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="K530" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L530" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M530" t="n">
-        <v>6000</v>
+        <v>4643</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="K531" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L531" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="M531" t="n">
-        <v>8219</v>
+        <v>9240</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K532" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L532" t="n">
-        <v>4700</v>
+        <v>6500</v>
       </c>
       <c r="M532" t="n">
-        <v>4604</v>
+        <v>6273</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -38724,41 +38724,41 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>6500</v>
+        <v>130</v>
       </c>
       <c r="K533" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L533" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M533" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>200</v>
+        <v>444</v>
       </c>
       <c r="Q533" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -38801,24 +38801,24 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J534" t="n">
+        <v>110</v>
+      </c>
+      <c r="K534" t="n">
         <v>6500</v>
       </c>
-      <c r="K534" t="n">
-        <v>3000</v>
-      </c>
       <c r="L534" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M534" t="n">
-        <v>3000</v>
+        <v>6727</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -38827,10 +38827,10 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>150</v>
+        <v>374</v>
       </c>
       <c r="Q534" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -38868,25 +38868,25 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K535" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L535" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M535" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -38940,41 +38940,41 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>13300</v>
+        <v>160</v>
       </c>
       <c r="K536" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L536" t="n">
-        <v>3300</v>
+        <v>8500</v>
       </c>
       <c r="M536" t="n">
-        <v>3147</v>
+        <v>8219</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>157</v>
+        <v>457</v>
       </c>
       <c r="Q536" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -39017,36 +39017,36 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>6500</v>
+        <v>135</v>
       </c>
       <c r="K537" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L537" t="n">
-        <v>2000</v>
+        <v>4700</v>
       </c>
       <c r="M537" t="n">
-        <v>2000</v>
+        <v>4604</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="Q537" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -39084,41 +39084,41 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>85</v>
+        <v>6500</v>
       </c>
       <c r="K538" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L538" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="M538" t="n">
-        <v>9265</v>
+        <v>4000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>515</v>
+        <v>200</v>
       </c>
       <c r="Q538" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -39161,24 +39161,24 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K539" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L539" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M539" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -39187,10 +39187,10 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="Q539" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -39228,25 +39228,25 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K540" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L540" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M540" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -39300,41 +39300,41 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>170</v>
+        <v>13300</v>
       </c>
       <c r="K541" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L541" t="n">
-        <v>7500</v>
+        <v>3300</v>
       </c>
       <c r="M541" t="n">
-        <v>7235</v>
+        <v>3147</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>402</v>
+        <v>157</v>
       </c>
       <c r="Q541" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>10800</v>
+        <v>6500</v>
       </c>
       <c r="K542" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L542" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M542" t="n">
-        <v>2954</v>
+        <v>2000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="Q542" t="n">
         <v>20</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -39444,41 +39444,41 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>6000</v>
+        <v>85</v>
       </c>
       <c r="K543" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="L543" t="n">
-        <v>2000</v>
+        <v>9500</v>
       </c>
       <c r="M543" t="n">
-        <v>2000</v>
+        <v>9265</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>100</v>
+        <v>515</v>
       </c>
       <c r="Q543" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -39521,24 +39521,24 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>5500</v>
+        <v>80</v>
       </c>
       <c r="K544" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="L544" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="M544" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -39547,10 +39547,10 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>60</v>
+        <v>333</v>
       </c>
       <c r="Q544" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J545" t="n">
         <v>80</v>
       </c>
       <c r="K545" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L545" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M545" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="K546" t="n">
         <v>7000</v>
       </c>
       <c r="L546" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M546" t="n">
-        <v>7000</v>
+        <v>7235</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>3200</v>
+        <v>10800</v>
       </c>
       <c r="K547" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="L547" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M547" t="n">
-        <v>2800</v>
+        <v>2954</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q547" t="n">
         <v>20</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>2700</v>
+        <v>6000</v>
       </c>
       <c r="K548" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L548" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M548" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="Q548" t="n">
         <v>20</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="K549" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="L549" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M549" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q549" t="n">
         <v>20</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K550" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L550" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M550" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40020,25 +40020,25 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K551" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L551" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M551" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -40092,41 +40092,41 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>120</v>
+        <v>3200</v>
       </c>
       <c r="K552" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="L552" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="M552" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>389</v>
+        <v>140</v>
       </c>
       <c r="Q552" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -40164,41 +40164,41 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>80</v>
+        <v>2700</v>
       </c>
       <c r="K553" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L553" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="M553" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>333</v>
+        <v>125</v>
       </c>
       <c r="Q553" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>11300</v>
+        <v>2800</v>
       </c>
       <c r="K554" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L554" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M554" t="n">
-        <v>2949</v>
+        <v>2000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="Q554" t="n">
         <v>20</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -40313,36 +40313,36 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>6500</v>
+        <v>100</v>
       </c>
       <c r="K555" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L555" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M555" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="Q555" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K556" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L556" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M556" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -40452,41 +40452,41 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>3500</v>
+        <v>120</v>
       </c>
       <c r="K557" t="n">
-        <v>2700</v>
+        <v>7000</v>
       </c>
       <c r="L557" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M557" t="n">
-        <v>2854</v>
+        <v>7000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>143</v>
+        <v>389</v>
       </c>
       <c r="Q557" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R557" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -40524,41 +40524,41 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>2500</v>
+        <v>80</v>
       </c>
       <c r="K558" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L558" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M558" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="Q558" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -40601,36 +40601,36 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>90</v>
+        <v>11300</v>
       </c>
       <c r="K559" t="n">
-        <v>8500</v>
+        <v>2900</v>
       </c>
       <c r="L559" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="M559" t="n">
-        <v>8500</v>
+        <v>2949</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>472</v>
+        <v>147</v>
       </c>
       <c r="Q559" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -40668,41 +40668,41 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>85</v>
+        <v>6500</v>
       </c>
       <c r="K560" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L560" t="n">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="M560" t="n">
-        <v>9235</v>
+        <v>2000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>616</v>
+        <v>100</v>
       </c>
       <c r="Q560" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R560" t="inlineStr">
         <is>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -40745,36 +40745,36 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>5500</v>
+        <v>80</v>
       </c>
       <c r="K561" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L561" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="M561" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="Q561" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="K562" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="L562" t="n">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="M562" t="n">
-        <v>1900</v>
+        <v>2854</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="Q562" t="n">
         <v>20</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -40884,41 +40884,41 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>150</v>
+        <v>2500</v>
       </c>
       <c r="K563" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="L563" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M563" t="n">
-        <v>7233</v>
+        <v>2000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>402</v>
+        <v>100</v>
       </c>
       <c r="Q563" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K564" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L564" t="n">
-        <v>5300</v>
+        <v>8500</v>
       </c>
       <c r="M564" t="n">
-        <v>5138</v>
+        <v>8500</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>285</v>
+        <v>472</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -41028,41 +41028,41 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K565" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L565" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="M565" t="n">
-        <v>4000</v>
+        <v>9235</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>222</v>
+        <v>616</v>
       </c>
       <c r="Q565" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R565" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -41100,41 +41100,41 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>115</v>
+        <v>5500</v>
       </c>
       <c r="K566" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="L566" t="n">
-        <v>8500</v>
+        <v>2500</v>
       </c>
       <c r="M566" t="n">
-        <v>8261</v>
+        <v>2500</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>459</v>
+        <v>125</v>
       </c>
       <c r="Q566" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -41177,24 +41177,24 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>140</v>
+        <v>4500</v>
       </c>
       <c r="K567" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="L567" t="n">
-        <v>4800</v>
+        <v>1900</v>
       </c>
       <c r="M567" t="n">
-        <v>4650</v>
+        <v>1900</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -41203,10 +41203,10 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="Q567" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R567" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -41244,25 +41244,25 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K568" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L568" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M568" t="n">
-        <v>4000</v>
+        <v>7233</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>222</v>
+        <v>402</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -41316,25 +41316,25 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K569" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L569" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="M569" t="n">
-        <v>7000</v>
+        <v>5138</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>389</v>
+        <v>285</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -41388,25 +41388,25 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K570" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L570" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M570" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -41460,41 +41460,41 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>6300</v>
+        <v>115</v>
       </c>
       <c r="K571" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="L571" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="M571" t="n">
-        <v>2722</v>
+        <v>8261</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>136</v>
+        <v>459</v>
       </c>
       <c r="Q571" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R571" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41537,24 +41537,24 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>5700</v>
+        <v>140</v>
       </c>
       <c r="K572" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L572" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="M572" t="n">
-        <v>1905</v>
+        <v>4650</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -41563,10 +41563,10 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="Q572" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41609,24 +41609,24 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>2700</v>
+        <v>50</v>
       </c>
       <c r="K573" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="L573" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M573" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -41635,10 +41635,10 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="Q573" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R573" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41676,25 +41676,25 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="K574" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L574" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M574" t="n">
-        <v>4739</v>
+        <v>7000</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K575" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L575" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M575" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41825,24 +41825,24 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>120</v>
+        <v>6300</v>
       </c>
       <c r="K576" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L576" t="n">
-        <v>5800</v>
+        <v>3000</v>
       </c>
       <c r="M576" t="n">
-        <v>5650</v>
+        <v>2722</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -41851,10 +41851,10 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="Q576" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -41892,41 +41892,41 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>150</v>
+        <v>5700</v>
       </c>
       <c r="K577" t="n">
-        <v>8500</v>
+        <v>1800</v>
       </c>
       <c r="L577" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="M577" t="n">
-        <v>8733</v>
+        <v>1905</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>485</v>
+        <v>95</v>
       </c>
       <c r="Q577" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41969,24 +41969,24 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>60</v>
+        <v>2700</v>
       </c>
       <c r="K578" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="L578" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="M578" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
@@ -41995,10 +41995,10 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="Q578" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R578" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="K579" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L579" t="n">
         <v>5000</v>
       </c>
       <c r="M579" t="n">
-        <v>5000</v>
+        <v>4739</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K580" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L580" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M580" t="n">
-        <v>7739</v>
+        <v>9000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="K581" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="L581" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="M581" t="n">
-        <v>4897</v>
+        <v>5650</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -42252,41 +42252,41 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>6600</v>
+        <v>150</v>
       </c>
       <c r="K582" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L582" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M582" t="n">
-        <v>4500</v>
+        <v>8733</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>225</v>
+        <v>485</v>
       </c>
       <c r="Q582" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J583" t="n">
         <v>60</v>
       </c>
       <c r="K583" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L583" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M583" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42401,24 +42401,24 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>6500</v>
+        <v>55</v>
       </c>
       <c r="K584" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L584" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M584" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -42427,10 +42427,10 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="Q584" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42480,13 +42480,13 @@
         <v>115</v>
       </c>
       <c r="K585" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L585" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M585" t="n">
-        <v>7239</v>
+        <v>7739</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="K586" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="L586" t="n">
         <v>5000</v>
       </c>
       <c r="M586" t="n">
-        <v>5000</v>
+        <v>4897</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42617,24 +42617,24 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>70</v>
+        <v>6600</v>
       </c>
       <c r="K587" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="L587" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="M587" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
@@ -42643,10 +42643,10 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Q587" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R587" t="inlineStr">
         <is>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K588" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L588" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M588" t="n">
-        <v>8767</v>
+        <v>4000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>487</v>
+        <v>222</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -42756,41 +42756,41 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K589" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L589" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M589" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>417</v>
+        <v>175</v>
       </c>
       <c r="Q589" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -42828,25 +42828,25 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>270</v>
+        <v>115</v>
       </c>
       <c r="K590" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="L590" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M590" t="n">
-        <v>5911</v>
+        <v>7239</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42905,11 +42905,11 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K591" t="n">
         <v>5000</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K592" t="n">
-        <v>9000</v>
+        <v>4200</v>
       </c>
       <c r="L592" t="n">
-        <v>9000</v>
+        <v>4200</v>
       </c>
       <c r="M592" t="n">
-        <v>9000</v>
+        <v>4200</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>500</v>
+        <v>233</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K593" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L593" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M593" t="n">
-        <v>8000</v>
+        <v>8767</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="K594" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L594" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M594" t="n">
-        <v>6225</v>
+        <v>7500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K595" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="L595" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M595" t="n">
-        <v>5000</v>
+        <v>5911</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -43260,25 +43260,25 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K596" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L596" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M596" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="K597" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L597" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M597" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43404,25 +43404,25 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K598" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L598" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M598" t="n">
-        <v>6279</v>
+        <v>8000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>349</v>
+        <v>444</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="K599" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L599" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M599" t="n">
-        <v>5000</v>
+        <v>6225</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43548,25 +43548,25 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="K600" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L600" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M600" t="n">
-        <v>7759</v>
+        <v>5000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>431</v>
+        <v>278</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43620,25 +43620,25 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J601" t="n">
         <v>110</v>
       </c>
       <c r="K601" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L601" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M601" t="n">
-        <v>4636</v>
+        <v>9000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>258</v>
+        <v>500</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43692,41 +43692,41 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>6500</v>
+        <v>100</v>
       </c>
       <c r="K602" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L602" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M602" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>225</v>
+        <v>389</v>
       </c>
       <c r="Q602" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K603" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L603" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M603" t="n">
-        <v>4000</v>
+        <v>6279</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43841,36 +43841,36 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>6800</v>
+        <v>190</v>
       </c>
       <c r="K604" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L604" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M604" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="Q604" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K605" t="n">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="L605" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M605" t="n">
-        <v>6877</v>
+        <v>7759</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -43989,7 +43989,7 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K606" t="n">
         <v>4500</v>
@@ -43998,7 +43998,7 @@
         <v>4800</v>
       </c>
       <c r="M606" t="n">
-        <v>4660</v>
+        <v>4636</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44052,41 +44052,41 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>95</v>
+        <v>6500</v>
       </c>
       <c r="K607" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L607" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M607" t="n">
-        <v>8737</v>
+        <v>4500</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>485</v>
+        <v>225</v>
       </c>
       <c r="Q607" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K608" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L608" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M608" t="n">
-        <v>7737</v>
+        <v>4000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>430</v>
+        <v>222</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44196,41 +44196,41 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>45</v>
+        <v>6800</v>
       </c>
       <c r="K609" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L609" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M609" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>361</v>
+        <v>150</v>
       </c>
       <c r="Q609" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44268,41 +44268,41 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
         <v>130</v>
       </c>
       <c r="K610" t="n">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="L610" t="n">
         <v>7000</v>
       </c>
       <c r="M610" t="n">
-        <v>6769</v>
+        <v>6877</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="Q610" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44345,24 +44345,24 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K611" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L611" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M611" t="n">
-        <v>3000</v>
+        <v>4660</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -44371,10 +44371,10 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="Q611" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K612" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L612" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M612" t="n">
-        <v>6500</v>
+        <v>8737</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>361</v>
+        <v>485</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K613" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L613" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M613" t="n">
-        <v>7239</v>
+        <v>7737</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="K614" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L614" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M614" t="n">
-        <v>4758</v>
+        <v>6500</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44633,36 +44633,36 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K615" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L615" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="M615" t="n">
-        <v>12235</v>
+        <v>6769</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>612</v>
+        <v>451</v>
       </c>
       <c r="Q615" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>17000</v>
+        <v>130</v>
       </c>
       <c r="K616" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L616" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M616" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q616" t="n">
         <v>20</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,36 +44777,36 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>7800</v>
+        <v>80</v>
       </c>
       <c r="K617" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="L617" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="M617" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>90</v>
+        <v>361</v>
       </c>
       <c r="Q617" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44853,7 +44853,7 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="K618" t="n">
         <v>7000</v>
@@ -44862,7 +44862,7 @@
         <v>7500</v>
       </c>
       <c r="M618" t="n">
-        <v>7265</v>
+        <v>7239</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="K619" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L619" t="n">
         <v>5000</v>
       </c>
-      <c r="L619" t="n">
-        <v>5500</v>
-      </c>
       <c r="M619" t="n">
-        <v>5267</v>
+        <v>4758</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44988,41 +44988,41 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K620" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L620" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="M620" t="n">
-        <v>7243</v>
+        <v>12235</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>402</v>
+        <v>612</v>
       </c>
       <c r="Q620" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45065,36 +45065,36 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>150</v>
+        <v>17000</v>
       </c>
       <c r="K621" t="n">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="L621" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M621" t="n">
-        <v>4733</v>
+        <v>2400</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="Q621" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>8800</v>
+        <v>7800</v>
       </c>
       <c r="K622" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L622" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="M622" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="Q622" t="n">
         <v>20</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45204,25 +45204,25 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="K623" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L623" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M623" t="n">
-        <v>4000</v>
+        <v>7265</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>222</v>
+        <v>404</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45281,24 +45281,24 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>8800</v>
+        <v>300</v>
       </c>
       <c r="K624" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L624" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M624" t="n">
-        <v>3500</v>
+        <v>5267</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,10 +45307,10 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="Q624" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="K625" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L625" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M625" t="n">
-        <v>9262</v>
+        <v>7243</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>515</v>
+        <v>402</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K626" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L626" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M626" t="n">
-        <v>6258</v>
+        <v>4733</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45497,11 +45497,11 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>70</v>
+        <v>8800</v>
       </c>
       <c r="K627" t="n">
         <v>5000</v>
@@ -45514,7 +45514,7 @@
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -45523,10 +45523,10 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q627" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K628" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L628" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M628" t="n">
-        <v>7733</v>
+        <v>4000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>430</v>
+        <v>222</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45636,41 +45636,41 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>40</v>
+        <v>8800</v>
       </c>
       <c r="K629" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L629" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M629" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="Q629" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45708,41 +45708,41 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>12500</v>
+        <v>105</v>
       </c>
       <c r="K630" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="L630" t="n">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="M630" t="n">
-        <v>2904</v>
+        <v>9262</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>145</v>
+        <v>515</v>
       </c>
       <c r="Q630" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45785,24 +45785,24 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>5800</v>
+        <v>165</v>
       </c>
       <c r="K631" t="n">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="L631" t="n">
-        <v>2200</v>
+        <v>6500</v>
       </c>
       <c r="M631" t="n">
-        <v>2200</v>
+        <v>6258</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -45811,10 +45811,10 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>110</v>
+        <v>348</v>
       </c>
       <c r="Q631" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45857,24 +45857,24 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>5800</v>
+        <v>70</v>
       </c>
       <c r="K632" t="n">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="L632" t="n">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="M632" t="n">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -45883,10 +45883,10 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="Q632" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45924,7 +45924,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K633" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L633" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M633" t="n">
-        <v>7000</v>
+        <v>7733</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K634" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L634" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M634" t="n">
-        <v>8211</v>
+        <v>6500</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46073,36 +46073,36 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>80</v>
+        <v>12500</v>
       </c>
       <c r="K635" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="L635" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M635" t="n">
-        <v>7500</v>
+        <v>2904</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>417</v>
+        <v>145</v>
       </c>
       <c r="Q635" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46145,36 +46145,36 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>120</v>
+        <v>5800</v>
       </c>
       <c r="K636" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="L636" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="M636" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>444</v>
+        <v>110</v>
       </c>
       <c r="Q636" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>14050</v>
+        <v>5800</v>
       </c>
       <c r="K637" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L637" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="M637" t="n">
-        <v>2607</v>
+        <v>1300</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="Q637" t="n">
         <v>20</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46289,36 +46289,36 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>7550</v>
+        <v>55</v>
       </c>
       <c r="K638" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L638" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M638" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="Q638" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K639" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L639" t="n">
         <v>8500</v>
       </c>
-      <c r="L639" t="n">
-        <v>9000</v>
-      </c>
       <c r="M639" t="n">
-        <v>8727</v>
+        <v>8211</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K640" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L640" t="n">
-        <v>4600</v>
+        <v>7500</v>
       </c>
       <c r="M640" t="n">
-        <v>4548</v>
+        <v>7500</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>253</v>
+        <v>417</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46509,32 +46509,32 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>13100</v>
+        <v>120</v>
       </c>
       <c r="K641" t="n">
-        <v>4300</v>
+        <v>8000</v>
       </c>
       <c r="L641" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M641" t="n">
-        <v>4399</v>
+        <v>8000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="Q641" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46577,20 +46577,20 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>6500</v>
+        <v>14050</v>
       </c>
       <c r="K642" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L642" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M642" t="n">
-        <v>3500</v>
+        <v>2607</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="Q642" t="n">
         <v>20</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46644,41 +46644,41 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>110</v>
+        <v>7550</v>
       </c>
       <c r="K643" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="L643" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M643" t="n">
-        <v>6773</v>
+        <v>2000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="Q643" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="K644" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L644" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M644" t="n">
-        <v>4750</v>
+        <v>8727</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>264</v>
+        <v>485</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46788,25 +46788,25 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="K645" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L645" t="n">
-        <v>7500</v>
+        <v>4600</v>
       </c>
       <c r="M645" t="n">
-        <v>7324</v>
+        <v>4548</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>407</v>
+        <v>253</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46860,41 +46860,41 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>60</v>
+        <v>13100</v>
       </c>
       <c r="K646" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="L646" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M646" t="n">
-        <v>6000</v>
+        <v>4399</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="Q646" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R646" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>11780</v>
+        <v>6500</v>
       </c>
       <c r="K647" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L647" t="n">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="M647" t="n">
-        <v>3045</v>
+        <v>3500</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="Q647" t="n">
         <v>20</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47004,41 +47004,41 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>5800</v>
+        <v>110</v>
       </c>
       <c r="K648" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L648" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M648" t="n">
-        <v>2000</v>
+        <v>6773</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="Q648" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K649" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L649" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M649" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47148,41 +47148,41 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>8500</v>
+        <v>185</v>
       </c>
       <c r="K650" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L650" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="M650" t="n">
-        <v>2500</v>
+        <v>7324</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>125</v>
+        <v>407</v>
       </c>
       <c r="Q650" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K651" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L651" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M651" t="n">
-        <v>8269</v>
+        <v>6000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47297,24 +47297,24 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>145</v>
+        <v>11780</v>
       </c>
       <c r="K652" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="L652" t="n">
-        <v>5000</v>
+        <v>3100</v>
       </c>
       <c r="M652" t="n">
-        <v>4903</v>
+        <v>3045</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -47323,10 +47323,10 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="Q652" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>17300</v>
+        <v>5800</v>
       </c>
       <c r="K653" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L653" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M653" t="n">
-        <v>4246</v>
+        <v>2000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="Q653" t="n">
         <v>20</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="K654" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L654" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M654" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J655" t="n">
         <v>8500</v>
       </c>
       <c r="K655" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L655" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M655" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="Q655" t="n">
         <v>20</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K656" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L656" t="n">
         <v>8500</v>
       </c>
       <c r="M656" t="n">
-        <v>8500</v>
+        <v>8269</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47661,7 +47661,7 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="K657" t="n">
         <v>4800</v>
@@ -47670,7 +47670,7 @@
         <v>5000</v>
       </c>
       <c r="M657" t="n">
-        <v>4896</v>
+        <v>4903</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47729,24 +47729,24 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>60</v>
+        <v>17300</v>
       </c>
       <c r="K658" t="n">
         <v>4000</v>
       </c>
       <c r="L658" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M658" t="n">
-        <v>4000</v>
+        <v>4246</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
@@ -47755,10 +47755,10 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Q658" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47796,25 +47796,25 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K659" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L659" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M659" t="n">
-        <v>6738</v>
+        <v>4000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>374</v>
+        <v>222</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="K660" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L660" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M660" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q660" t="n">
         <v>20</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47940,41 +47940,41 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>5500</v>
+        <v>50</v>
       </c>
       <c r="K661" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="L661" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="M661" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>100</v>
+        <v>472</v>
       </c>
       <c r="Q661" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="K662" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="L662" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M662" t="n">
-        <v>7000</v>
+        <v>4896</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>389</v>
+        <v>272</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K663" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L663" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M663" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48156,25 +48156,25 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K664" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L664" t="n">
         <v>7000</v>
       </c>
       <c r="M664" t="n">
-        <v>7000</v>
+        <v>6738</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>11000</v>
+        <v>5800</v>
       </c>
       <c r="K665" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L665" t="n">
         <v>3000</v>
       </c>
       <c r="M665" t="n">
-        <v>2950</v>
+        <v>3000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q665" t="n">
         <v>20</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="K666" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L666" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M666" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q666" t="n">
         <v>20</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K667" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L667" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M667" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K668" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L668" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M668" t="n">
-        <v>7733</v>
+        <v>6000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>430</v>
+        <v>333</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K669" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L669" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M669" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="K670" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="L670" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M670" t="n">
-        <v>2402</v>
+        <v>2950</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="Q670" t="n">
         <v>20</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48669,16 +48669,16 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="K671" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L671" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="M671" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="Q671" t="n">
         <v>20</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="K672" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L672" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M672" t="n">
-        <v>7239</v>
+        <v>6500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E673" t="n">
         <v>5</v>
@@ -48804,41 +48804,41 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>11520</v>
+        <v>150</v>
       </c>
       <c r="K673" t="n">
-        <v>2900</v>
+        <v>7500</v>
       </c>
       <c r="L673" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M673" t="n">
-        <v>2951</v>
+        <v>7733</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>148</v>
+        <v>430</v>
       </c>
       <c r="Q673" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48881,36 +48881,36 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>5700</v>
+        <v>160</v>
       </c>
       <c r="K674" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L674" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M674" t="n">
-        <v>2000</v>
+        <v>7750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="Q674" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48953,36 +48953,36 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>80</v>
+        <v>11800</v>
       </c>
       <c r="K675" t="n">
-        <v>7000</v>
+        <v>2300</v>
       </c>
       <c r="L675" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M675" t="n">
-        <v>7000</v>
+        <v>2402</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>389</v>
+        <v>120</v>
       </c>
       <c r="Q675" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49020,41 +49020,41 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>135</v>
+        <v>6500</v>
       </c>
       <c r="K676" t="n">
-        <v>6500</v>
+        <v>1800</v>
       </c>
       <c r="L676" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="M676" t="n">
-        <v>6759</v>
+        <v>1800</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="Q676" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="K677" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L677" t="n">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="M677" t="n">
-        <v>4639</v>
+        <v>7239</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49164,41 +49164,41 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>68</v>
+        <v>11520</v>
       </c>
       <c r="K678" t="n">
-        <v>9000</v>
+        <v>2900</v>
       </c>
       <c r="L678" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M678" t="n">
-        <v>9000</v>
+        <v>2951</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>500</v>
+        <v>148</v>
       </c>
       <c r="Q678" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49241,36 +49241,36 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>250</v>
+        <v>5700</v>
       </c>
       <c r="K679" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L679" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M679" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>333</v>
+        <v>100</v>
       </c>
       <c r="Q679" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E680" t="n">
         <v>5</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="K680" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L680" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>4817</v>
+        <v>7000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>268</v>
+        <v>389</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49389,7 +49389,7 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="K681" t="n">
         <v>6500</v>
@@ -49398,7 +49398,7 @@
         <v>7000</v>
       </c>
       <c r="M681" t="n">
-        <v>6761</v>
+        <v>6759</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="K682" t="n">
         <v>4500</v>
       </c>
       <c r="L682" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M682" t="n">
-        <v>4769</v>
+        <v>4639</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -49533,20 +49533,20 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K683" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L683" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M683" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49596,25 +49596,25 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K684" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L684" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M684" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -49673,36 +49673,36 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>13300</v>
+        <v>268</v>
       </c>
       <c r="K685" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L685" t="n">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="M685" t="n">
-        <v>3051</v>
+        <v>4817</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="Q685" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -49740,41 +49740,41 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
+        <v>115</v>
+      </c>
+      <c r="K686" t="n">
         <v>6500</v>
       </c>
-      <c r="K686" t="n">
-        <v>2100</v>
-      </c>
       <c r="L686" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="M686" t="n">
-        <v>2100</v>
+        <v>6761</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>105</v>
+        <v>376</v>
       </c>
       <c r="Q686" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49817,24 +49817,24 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>1300</v>
+        <v>130</v>
       </c>
       <c r="K687" t="n">
-        <v>1300</v>
+        <v>4500</v>
       </c>
       <c r="L687" t="n">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="M687" t="n">
-        <v>1300</v>
+        <v>4769</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -49843,10 +49843,10 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="Q687" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K688" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L688" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M688" t="n">
-        <v>8761</v>
+        <v>7500</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49956,25 +49956,25 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K689" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L689" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M689" t="n">
-        <v>4646</v>
+        <v>6500</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>258</v>
+        <v>361</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E690" t="n">
         <v>5</v>
@@ -50033,24 +50033,24 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>90</v>
+        <v>13300</v>
       </c>
       <c r="K690" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L690" t="n">
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="M690" t="n">
-        <v>4000</v>
+        <v>3051</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
@@ -50059,10 +50059,10 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q690" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50100,41 +50100,41 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>110</v>
+        <v>6500</v>
       </c>
       <c r="K691" t="n">
-        <v>8500</v>
+        <v>2100</v>
       </c>
       <c r="L691" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="M691" t="n">
-        <v>8773</v>
+        <v>2100</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>487</v>
+        <v>105</v>
       </c>
       <c r="Q691" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50177,24 +50177,24 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>110</v>
+        <v>1300</v>
       </c>
       <c r="K692" t="n">
-        <v>5500</v>
+        <v>1300</v>
       </c>
       <c r="L692" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="M692" t="n">
-        <v>5773</v>
+        <v>1300</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -50203,10 +50203,10 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>321</v>
+        <v>65</v>
       </c>
       <c r="Q692" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -50244,25 +50244,25 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="K693" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L693" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M693" t="n">
-        <v>4500</v>
+        <v>8761</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,16 +50271,376 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
       </c>
       <c r="R693" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>3</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D694" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E694" t="n">
+        <v>5</v>
+      </c>
+      <c r="F694" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J694" t="n">
+        <v>175</v>
+      </c>
+      <c r="K694" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L694" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M694" t="n">
+        <v>4646</v>
+      </c>
+      <c r="N694" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O694" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P694" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q694" t="n">
+        <v>18</v>
+      </c>
+      <c r="R694" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>3</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D695" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E695" t="n">
+        <v>5</v>
+      </c>
+      <c r="F695" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J695" t="n">
+        <v>90</v>
+      </c>
+      <c r="K695" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L695" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M695" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N695" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O695" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P695" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q695" t="n">
+        <v>18</v>
+      </c>
+      <c r="R695" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>3</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D696" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E696" t="n">
+        <v>5</v>
+      </c>
+      <c r="F696" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J696" t="n">
+        <v>110</v>
+      </c>
+      <c r="K696" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L696" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M696" t="n">
+        <v>8773</v>
+      </c>
+      <c r="N696" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O696" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P696" t="n">
+        <v>487</v>
+      </c>
+      <c r="Q696" t="n">
+        <v>18</v>
+      </c>
+      <c r="R696" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>3</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D697" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E697" t="n">
+        <v>5</v>
+      </c>
+      <c r="F697" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J697" t="n">
+        <v>110</v>
+      </c>
+      <c r="K697" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L697" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M697" t="n">
+        <v>5773</v>
+      </c>
+      <c r="N697" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O697" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P697" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q697" t="n">
+        <v>18</v>
+      </c>
+      <c r="R697" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>3</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D698" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E698" t="n">
+        <v>5</v>
+      </c>
+      <c r="F698" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J698" t="n">
+        <v>68</v>
+      </c>
+      <c r="K698" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L698" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M698" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N698" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O698" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P698" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q698" t="n">
+        <v>18</v>
+      </c>
+      <c r="R698" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R706"/>
+  <dimension ref="A1:R711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K613" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L613" t="n">
         <v>7500</v>
       </c>
-      <c r="L613" t="n">
-        <v>8000</v>
-      </c>
       <c r="M613" t="n">
-        <v>7759</v>
+        <v>7267</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44565,7 +44565,7 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="K614" t="n">
         <v>4500</v>
@@ -44574,7 +44574,7 @@
         <v>4800</v>
       </c>
       <c r="M614" t="n">
-        <v>4636</v>
+        <v>4654</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="K615" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L615" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M615" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q615" t="n">
         <v>20</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44709,7 +44709,7 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K616" t="n">
         <v>4000</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="K617" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L617" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M617" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="Q617" t="n">
         <v>20</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K618" t="n">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="L618" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M618" t="n">
-        <v>6877</v>
+        <v>7759</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44925,7 +44925,7 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K619" t="n">
         <v>4500</v>
@@ -44934,7 +44934,7 @@
         <v>4800</v>
       </c>
       <c r="M619" t="n">
-        <v>4660</v>
+        <v>4636</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44988,41 +44988,41 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>95</v>
+        <v>6500</v>
       </c>
       <c r="K620" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L620" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M620" t="n">
-        <v>8737</v>
+        <v>4500</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>485</v>
+        <v>225</v>
       </c>
       <c r="Q620" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45060,25 +45060,25 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K621" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L621" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M621" t="n">
-        <v>7737</v>
+        <v>4000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>430</v>
+        <v>222</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45132,41 +45132,41 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>45</v>
+        <v>6800</v>
       </c>
       <c r="K622" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L622" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M622" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>361</v>
+        <v>150</v>
       </c>
       <c r="Q622" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45204,41 +45204,41 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
         <v>130</v>
       </c>
       <c r="K623" t="n">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="L623" t="n">
         <v>7000</v>
       </c>
       <c r="M623" t="n">
-        <v>6769</v>
+        <v>6877</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="Q623" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45281,24 +45281,24 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K624" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L624" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M624" t="n">
-        <v>3000</v>
+        <v>4660</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,10 +45307,10 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="Q624" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K625" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L625" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M625" t="n">
-        <v>6500</v>
+        <v>8737</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>361</v>
+        <v>485</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K626" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L626" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M626" t="n">
-        <v>7239</v>
+        <v>7737</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45492,25 +45492,25 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="K627" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L627" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M627" t="n">
-        <v>4758</v>
+        <v>6500</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45569,36 +45569,36 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K628" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L628" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="M628" t="n">
-        <v>12235</v>
+        <v>6769</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/malla 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>612</v>
+        <v>451</v>
       </c>
       <c r="Q628" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>17000</v>
+        <v>130</v>
       </c>
       <c r="K629" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L629" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M629" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q629" t="n">
         <v>20</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45713,36 +45713,36 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>7800</v>
+        <v>80</v>
       </c>
       <c r="K630" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="L630" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="M630" t="n">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>90</v>
+        <v>361</v>
       </c>
       <c r="Q630" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45789,7 +45789,7 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="K631" t="n">
         <v>7000</v>
@@ -45798,7 +45798,7 @@
         <v>7500</v>
       </c>
       <c r="M631" t="n">
-        <v>7265</v>
+        <v>7239</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="K632" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L632" t="n">
         <v>5000</v>
       </c>
-      <c r="L632" t="n">
-        <v>5500</v>
-      </c>
       <c r="M632" t="n">
-        <v>5267</v>
+        <v>4758</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45924,41 +45924,41 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K633" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L633" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="M633" t="n">
-        <v>7243</v>
+        <v>12235</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 20 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>402</v>
+        <v>612</v>
       </c>
       <c r="Q633" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46001,36 +46001,36 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>150</v>
+        <v>17000</v>
       </c>
       <c r="K634" t="n">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="L634" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M634" t="n">
-        <v>4733</v>
+        <v>2400</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="Q634" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>8800</v>
+        <v>7800</v>
       </c>
       <c r="K635" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L635" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="M635" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="Q635" t="n">
         <v>20</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46140,25 +46140,25 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="K636" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L636" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M636" t="n">
-        <v>4000</v>
+        <v>7265</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>222</v>
+        <v>404</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46217,24 +46217,24 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>8800</v>
+        <v>300</v>
       </c>
       <c r="K637" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L637" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M637" t="n">
-        <v>3500</v>
+        <v>5267</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -46243,10 +46243,10 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="Q637" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="K638" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L638" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M638" t="n">
-        <v>9262</v>
+        <v>7243</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>515</v>
+        <v>402</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K639" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L639" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M639" t="n">
-        <v>6258</v>
+        <v>4733</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46433,11 +46433,11 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>70</v>
+        <v>8800</v>
       </c>
       <c r="K640" t="n">
         <v>5000</v>
@@ -46450,7 +46450,7 @@
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -46459,10 +46459,10 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q640" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46500,25 +46500,25 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K641" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L641" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M641" t="n">
-        <v>7733</v>
+        <v>4000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>430</v>
+        <v>222</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46572,41 +46572,41 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>40</v>
+        <v>8800</v>
       </c>
       <c r="K642" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L642" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="M642" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="Q642" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46644,41 +46644,41 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>12500</v>
+        <v>105</v>
       </c>
       <c r="K643" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="L643" t="n">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="M643" t="n">
-        <v>2904</v>
+        <v>9262</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>145</v>
+        <v>515</v>
       </c>
       <c r="Q643" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>5800</v>
+        <v>165</v>
       </c>
       <c r="K644" t="n">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="L644" t="n">
-        <v>2200</v>
+        <v>6500</v>
       </c>
       <c r="M644" t="n">
-        <v>2200</v>
+        <v>6258</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -46747,10 +46747,10 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>110</v>
+        <v>348</v>
       </c>
       <c r="Q644" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46793,24 +46793,24 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>5800</v>
+        <v>70</v>
       </c>
       <c r="K645" t="n">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="L645" t="n">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="M645" t="n">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -46819,10 +46819,10 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="Q645" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K646" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L646" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M646" t="n">
-        <v>7000</v>
+        <v>7733</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K647" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L647" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M647" t="n">
-        <v>8211</v>
+        <v>6500</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47009,36 +47009,36 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>80</v>
+        <v>12500</v>
       </c>
       <c r="K648" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="L648" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M648" t="n">
-        <v>7500</v>
+        <v>2904</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>417</v>
+        <v>145</v>
       </c>
       <c r="Q648" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47081,36 +47081,36 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>120</v>
+        <v>5800</v>
       </c>
       <c r="K649" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="L649" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="M649" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>444</v>
+        <v>110</v>
       </c>
       <c r="Q649" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>14050</v>
+        <v>5800</v>
       </c>
       <c r="K650" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L650" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="M650" t="n">
-        <v>2607</v>
+        <v>1300</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="Q650" t="n">
         <v>20</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,36 +47225,36 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>7550</v>
+        <v>55</v>
       </c>
       <c r="K651" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L651" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M651" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="Q651" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K652" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L652" t="n">
         <v>8500</v>
       </c>
-      <c r="L652" t="n">
-        <v>9000</v>
-      </c>
       <c r="M652" t="n">
-        <v>8727</v>
+        <v>8211</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K653" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L653" t="n">
-        <v>4600</v>
+        <v>7500</v>
       </c>
       <c r="M653" t="n">
-        <v>4548</v>
+        <v>7500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>253</v>
+        <v>417</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47445,32 +47445,32 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>13100</v>
+        <v>120</v>
       </c>
       <c r="K654" t="n">
-        <v>4300</v>
+        <v>8000</v>
       </c>
       <c r="L654" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M654" t="n">
-        <v>4399</v>
+        <v>8000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="Q654" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>6500</v>
+        <v>14050</v>
       </c>
       <c r="K655" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L655" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M655" t="n">
-        <v>3500</v>
+        <v>2607</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="Q655" t="n">
         <v>20</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47580,41 +47580,41 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>110</v>
+        <v>7550</v>
       </c>
       <c r="K656" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="L656" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M656" t="n">
-        <v>6773</v>
+        <v>2000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="Q656" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="K657" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L657" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M657" t="n">
-        <v>4750</v>
+        <v>8727</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>264</v>
+        <v>485</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="K658" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L658" t="n">
-        <v>7500</v>
+        <v>4600</v>
       </c>
       <c r="M658" t="n">
-        <v>7324</v>
+        <v>4548</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>407</v>
+        <v>253</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47796,41 +47796,41 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>60</v>
+        <v>13100</v>
       </c>
       <c r="K659" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="L659" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M659" t="n">
-        <v>6000</v>
+        <v>4399</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="Q659" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>11780</v>
+        <v>6500</v>
       </c>
       <c r="K660" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L660" t="n">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="M660" t="n">
-        <v>3045</v>
+        <v>3500</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="Q660" t="n">
         <v>20</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47940,41 +47940,41 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>5800</v>
+        <v>110</v>
       </c>
       <c r="K661" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L661" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M661" t="n">
-        <v>2000</v>
+        <v>6773</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="Q661" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K662" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L662" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M662" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48084,41 +48084,41 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>8500</v>
+        <v>185</v>
       </c>
       <c r="K663" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L663" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="M663" t="n">
-        <v>2500</v>
+        <v>7324</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>125</v>
+        <v>407</v>
       </c>
       <c r="Q663" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K664" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L664" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M664" t="n">
-        <v>8269</v>
+        <v>6000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48233,24 +48233,24 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>145</v>
+        <v>11780</v>
       </c>
       <c r="K665" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="L665" t="n">
-        <v>5000</v>
+        <v>3100</v>
       </c>
       <c r="M665" t="n">
-        <v>4903</v>
+        <v>3045</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -48259,10 +48259,10 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="Q665" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>17300</v>
+        <v>5800</v>
       </c>
       <c r="K666" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L666" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M666" t="n">
-        <v>4246</v>
+        <v>2000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="Q666" t="n">
         <v>20</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="K667" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L667" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M667" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J668" t="n">
         <v>8500</v>
       </c>
       <c r="K668" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L668" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M668" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="Q668" t="n">
         <v>20</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K669" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L669" t="n">
         <v>8500</v>
       </c>
       <c r="M669" t="n">
-        <v>8500</v>
+        <v>8269</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48597,7 +48597,7 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="K670" t="n">
         <v>4800</v>
@@ -48606,7 +48606,7 @@
         <v>5000</v>
       </c>
       <c r="M670" t="n">
-        <v>4896</v>
+        <v>4903</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48665,24 +48665,24 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>60</v>
+        <v>17300</v>
       </c>
       <c r="K671" t="n">
         <v>4000</v>
       </c>
       <c r="L671" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M671" t="n">
-        <v>4000</v>
+        <v>4246</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -48691,10 +48691,10 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Q671" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48732,25 +48732,25 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K672" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L672" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M672" t="n">
-        <v>6738</v>
+        <v>4000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>374</v>
+        <v>222</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E673" t="n">
         <v>5</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="K673" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L673" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M673" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q673" t="n">
         <v>20</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48876,41 +48876,41 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>5500</v>
+        <v>50</v>
       </c>
       <c r="K674" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="L674" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="M674" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>100</v>
+        <v>472</v>
       </c>
       <c r="Q674" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48948,25 +48948,25 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="K675" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="L675" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M675" t="n">
-        <v>7000</v>
+        <v>4896</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>389</v>
+        <v>272</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49020,25 +49020,25 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K676" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L676" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M676" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K677" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L677" t="n">
         <v>7000</v>
       </c>
       <c r="M677" t="n">
-        <v>7000</v>
+        <v>6738</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>11000</v>
+        <v>5800</v>
       </c>
       <c r="K678" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L678" t="n">
         <v>3000</v>
       </c>
       <c r="M678" t="n">
-        <v>2950</v>
+        <v>3000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q678" t="n">
         <v>20</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="K679" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L679" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M679" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q679" t="n">
         <v>20</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K680" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L680" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K681" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L681" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M681" t="n">
-        <v>7733</v>
+        <v>6000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>430</v>
+        <v>333</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K682" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L682" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M682" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="K683" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="L683" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M683" t="n">
-        <v>2402</v>
+        <v>2950</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="Q683" t="n">
         <v>20</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="K684" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L684" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="M684" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="Q684" t="n">
         <v>20</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="K685" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L685" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M685" t="n">
-        <v>7239</v>
+        <v>6500</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -49740,41 +49740,41 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>11520</v>
+        <v>150</v>
       </c>
       <c r="K686" t="n">
-        <v>2900</v>
+        <v>7500</v>
       </c>
       <c r="L686" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M686" t="n">
-        <v>2951</v>
+        <v>7733</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>148</v>
+        <v>430</v>
       </c>
       <c r="Q686" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49817,36 +49817,36 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>5700</v>
+        <v>160</v>
       </c>
       <c r="K687" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L687" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M687" t="n">
-        <v>2000</v>
+        <v>7750</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="Q687" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49889,36 +49889,36 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>80</v>
+        <v>11800</v>
       </c>
       <c r="K688" t="n">
-        <v>7000</v>
+        <v>2300</v>
       </c>
       <c r="L688" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M688" t="n">
-        <v>7000</v>
+        <v>2402</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>389</v>
+        <v>120</v>
       </c>
       <c r="Q688" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49956,41 +49956,41 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>135</v>
+        <v>6500</v>
       </c>
       <c r="K689" t="n">
-        <v>6500</v>
+        <v>1800</v>
       </c>
       <c r="L689" t="n">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="M689" t="n">
-        <v>6759</v>
+        <v>1800</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="Q689" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E690" t="n">
         <v>5</v>
@@ -50028,25 +50028,25 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="K690" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L690" t="n">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="M690" t="n">
-        <v>4639</v>
+        <v>7239</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50100,41 +50100,41 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>68</v>
+        <v>11520</v>
       </c>
       <c r="K691" t="n">
-        <v>9000</v>
+        <v>2900</v>
       </c>
       <c r="L691" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M691" t="n">
-        <v>9000</v>
+        <v>2951</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>500</v>
+        <v>148</v>
       </c>
       <c r="Q691" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50177,36 +50177,36 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>250</v>
+        <v>5700</v>
       </c>
       <c r="K692" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L692" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M692" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>333</v>
+        <v>100</v>
       </c>
       <c r="Q692" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -50249,20 +50249,20 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="K693" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L693" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M693" t="n">
-        <v>4817</v>
+        <v>7000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>268</v>
+        <v>389</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -50325,7 +50325,7 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="K694" t="n">
         <v>6500</v>
@@ -50334,7 +50334,7 @@
         <v>7000</v>
       </c>
       <c r="M694" t="n">
-        <v>6761</v>
+        <v>6759</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="K695" t="n">
         <v>4500</v>
       </c>
       <c r="L695" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M695" t="n">
-        <v>4769</v>
+        <v>4639</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E696" t="n">
         <v>5</v>
@@ -50469,20 +50469,20 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K696" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L696" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M696" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E697" t="n">
         <v>5</v>
@@ -50532,25 +50532,25 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K697" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L697" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M697" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E698" t="n">
         <v>5</v>
@@ -50609,36 +50609,36 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>13300</v>
+        <v>268</v>
       </c>
       <c r="K698" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L698" t="n">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="M698" t="n">
-        <v>3051</v>
+        <v>4817</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="Q698" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E699" t="n">
         <v>5</v>
@@ -50676,41 +50676,41 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J699" t="n">
+        <v>115</v>
+      </c>
+      <c r="K699" t="n">
         <v>6500</v>
       </c>
-      <c r="K699" t="n">
-        <v>2100</v>
-      </c>
       <c r="L699" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="M699" t="n">
-        <v>2100</v>
+        <v>6761</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>105</v>
+        <v>376</v>
       </c>
       <c r="Q699" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -50753,24 +50753,24 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>1300</v>
+        <v>130</v>
       </c>
       <c r="K700" t="n">
-        <v>1300</v>
+        <v>4500</v>
       </c>
       <c r="L700" t="n">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="M700" t="n">
-        <v>1300</v>
+        <v>4769</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -50779,10 +50779,10 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="Q700" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K701" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L701" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M701" t="n">
-        <v>8761</v>
+        <v>7500</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50892,25 +50892,25 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K702" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L702" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M702" t="n">
-        <v>4646</v>
+        <v>6500</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>258</v>
+        <v>361</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -50969,24 +50969,24 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>90</v>
+        <v>13300</v>
       </c>
       <c r="K703" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L703" t="n">
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="M703" t="n">
-        <v>4000</v>
+        <v>3051</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
@@ -50995,10 +50995,10 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q703" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -51036,41 +51036,41 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>110</v>
+        <v>6500</v>
       </c>
       <c r="K704" t="n">
-        <v>8500</v>
+        <v>2100</v>
       </c>
       <c r="L704" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="M704" t="n">
-        <v>8773</v>
+        <v>2100</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>487</v>
+        <v>105</v>
       </c>
       <c r="Q704" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -51113,24 +51113,24 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>110</v>
+        <v>1300</v>
       </c>
       <c r="K705" t="n">
-        <v>5500</v>
+        <v>1300</v>
       </c>
       <c r="L705" t="n">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="M705" t="n">
-        <v>5773</v>
+        <v>1300</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
@@ -51139,10 +51139,10 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>321</v>
+        <v>65</v>
       </c>
       <c r="Q705" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51180,25 +51180,25 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="K706" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L706" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M706" t="n">
-        <v>4500</v>
+        <v>8761</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,16 +51207,376 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
       </c>
       <c r="R706" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>3</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D707" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E707" t="n">
+        <v>5</v>
+      </c>
+      <c r="F707" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J707" t="n">
+        <v>175</v>
+      </c>
+      <c r="K707" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L707" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M707" t="n">
+        <v>4646</v>
+      </c>
+      <c r="N707" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O707" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P707" t="n">
+        <v>258</v>
+      </c>
+      <c r="Q707" t="n">
+        <v>18</v>
+      </c>
+      <c r="R707" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>3</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D708" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E708" t="n">
+        <v>5</v>
+      </c>
+      <c r="F708" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J708" t="n">
+        <v>90</v>
+      </c>
+      <c r="K708" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L708" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M708" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N708" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O708" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P708" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q708" t="n">
+        <v>18</v>
+      </c>
+      <c r="R708" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>3</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D709" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E709" t="n">
+        <v>5</v>
+      </c>
+      <c r="F709" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J709" t="n">
+        <v>110</v>
+      </c>
+      <c r="K709" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L709" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M709" t="n">
+        <v>8773</v>
+      </c>
+      <c r="N709" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O709" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P709" t="n">
+        <v>487</v>
+      </c>
+      <c r="Q709" t="n">
+        <v>18</v>
+      </c>
+      <c r="R709" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>3</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D710" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E710" t="n">
+        <v>5</v>
+      </c>
+      <c r="F710" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J710" t="n">
+        <v>110</v>
+      </c>
+      <c r="K710" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L710" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M710" t="n">
+        <v>5773</v>
+      </c>
+      <c r="N710" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P710" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q710" t="n">
+        <v>18</v>
+      </c>
+      <c r="R710" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>3</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D711" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E711" t="n">
+        <v>5</v>
+      </c>
+      <c r="F711" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J711" t="n">
+        <v>68</v>
+      </c>
+      <c r="K711" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L711" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M711" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N711" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O711" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P711" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q711" t="n">
+        <v>18</v>
+      </c>
+      <c r="R711" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R716"/>
+  <dimension ref="A1:R719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43701,7 +43701,7 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K602" t="n">
         <v>7500</v>
@@ -43710,7 +43710,7 @@
         <v>8000</v>
       </c>
       <c r="M602" t="n">
-        <v>7733</v>
+        <v>7765</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43773,7 +43773,7 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="K603" t="n">
         <v>4500</v>
@@ -43791,7 +43791,7 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P603" t="n">
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43841,24 +43841,24 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="K604" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L604" t="n">
         <v>4000</v>
       </c>
       <c r="M604" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -43867,10 +43867,10 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="Q604" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
@@ -43908,25 +43908,25 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K605" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L605" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M605" t="n">
-        <v>4000</v>
+        <v>7733</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43985,36 +43985,36 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>5900</v>
+        <v>140</v>
       </c>
       <c r="K606" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L606" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="M606" t="n">
-        <v>2500</v>
+        <v>4650</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="Q606" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44052,41 +44052,41 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>95</v>
+        <v>11000</v>
       </c>
       <c r="K607" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L607" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M607" t="n">
-        <v>6737</v>
+        <v>3750</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>374</v>
+        <v>188</v>
       </c>
       <c r="Q607" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K608" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L608" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M608" t="n">
-        <v>4643</v>
+        <v>4000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44196,41 +44196,41 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>130</v>
+        <v>5900</v>
       </c>
       <c r="K609" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L609" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M609" t="n">
-        <v>6769</v>
+        <v>2500</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="Q609" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44268,25 +44268,25 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K610" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L610" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M610" t="n">
-        <v>4638</v>
+        <v>6737</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K611" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L611" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M611" t="n">
-        <v>4000</v>
+        <v>4643</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K612" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L612" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M612" t="n">
-        <v>8237</v>
+        <v>6769</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>458</v>
+        <v>376</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K613" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L613" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M613" t="n">
-        <v>7000</v>
+        <v>4638</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>389</v>
+        <v>258</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44565,16 +44565,16 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K614" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L614" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M614" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K615" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L615" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M615" t="n">
-        <v>7000</v>
+        <v>8237</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K616" t="n">
         <v>7000</v>
       </c>
       <c r="L616" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M616" t="n">
-        <v>7239</v>
+        <v>7000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K617" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L617" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M617" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K618" t="n">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="L618" t="n">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="M618" t="n">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>233</v>
+        <v>389</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K619" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L619" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M619" t="n">
-        <v>9262</v>
+        <v>7239</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>515</v>
+        <v>402</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="K620" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L620" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M620" t="n">
-        <v>6258</v>
+        <v>5000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45072,13 +45072,13 @@
         <v>70</v>
       </c>
       <c r="K621" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="L621" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="M621" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45141,16 +45141,16 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="K622" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L622" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M622" t="n">
-        <v>7233</v>
+        <v>9262</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>402</v>
+        <v>515</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45213,16 +45213,16 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="K623" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L623" t="n">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="M623" t="n">
-        <v>5138</v>
+        <v>6258</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K624" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L624" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M624" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K625" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L625" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M625" t="n">
-        <v>8222</v>
+        <v>7233</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45420,25 +45420,25 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K626" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L626" t="n">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="M626" t="n">
-        <v>7000</v>
+        <v>5138</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>389</v>
+        <v>285</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45497,36 +45497,36 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>13300</v>
+        <v>50</v>
       </c>
       <c r="K627" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="L627" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M627" t="n">
-        <v>2402</v>
+        <v>4000</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="Q627" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45564,41 +45564,41 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>6800</v>
+        <v>90</v>
       </c>
       <c r="K628" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="L628" t="n">
-        <v>1800</v>
+        <v>8500</v>
       </c>
       <c r="M628" t="n">
-        <v>1800</v>
+        <v>8222</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>90</v>
+        <v>457</v>
       </c>
       <c r="Q628" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45636,25 +45636,25 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K629" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L629" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M629" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45708,41 +45708,41 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>85</v>
+        <v>13300</v>
       </c>
       <c r="K630" t="n">
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="L630" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="M630" t="n">
-        <v>9265</v>
+        <v>2402</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>515</v>
+        <v>120</v>
       </c>
       <c r="Q630" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45785,24 +45785,24 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>80</v>
+        <v>6800</v>
       </c>
       <c r="K631" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="L631" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="M631" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -45811,10 +45811,10 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>333</v>
+        <v>90</v>
       </c>
       <c r="Q631" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K632" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L632" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M632" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K633" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L633" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M633" t="n">
-        <v>6773</v>
+        <v>9265</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>376</v>
+        <v>515</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K634" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L634" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M634" t="n">
-        <v>4750</v>
+        <v>6000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K635" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L635" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M635" t="n">
-        <v>7762</v>
+        <v>5000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>431</v>
+        <v>278</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46140,25 +46140,25 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K636" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L636" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M636" t="n">
-        <v>5250</v>
+        <v>6773</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K637" t="n">
         <v>4500</v>
       </c>
       <c r="L637" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M637" t="n">
-        <v>4500</v>
+        <v>4750</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K638" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L638" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M638" t="n">
-        <v>8763</v>
+        <v>7762</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K639" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L639" t="n">
         <v>5500</v>
       </c>
-      <c r="L639" t="n">
-        <v>5800</v>
-      </c>
       <c r="M639" t="n">
-        <v>5645</v>
+        <v>5250</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46500,41 +46500,41 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>5600</v>
+        <v>95</v>
       </c>
       <c r="K641" t="n">
-        <v>2800</v>
+        <v>8500</v>
       </c>
       <c r="L641" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="M641" t="n">
-        <v>2886</v>
+        <v>8763</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="Q641" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46577,24 +46577,24 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>5200</v>
+        <v>155</v>
       </c>
       <c r="K642" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L642" t="n">
-        <v>2300</v>
+        <v>5800</v>
       </c>
       <c r="M642" t="n">
-        <v>2162</v>
+        <v>5645</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>108</v>
+        <v>314</v>
       </c>
       <c r="Q642" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46644,25 +46644,25 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J643" t="n">
         <v>80</v>
       </c>
       <c r="K643" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L643" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M643" t="n">
-        <v>8750</v>
+        <v>4500</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>486</v>
+        <v>250</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>170</v>
+        <v>5600</v>
       </c>
       <c r="K644" t="n">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="L644" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M644" t="n">
-        <v>5765</v>
+        <v>2886</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -46747,10 +46747,10 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>320</v>
+        <v>144</v>
       </c>
       <c r="Q644" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46788,41 +46788,41 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>115</v>
+        <v>5200</v>
       </c>
       <c r="K645" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="L645" t="n">
-        <v>8000</v>
+        <v>2300</v>
       </c>
       <c r="M645" t="n">
-        <v>7739</v>
+        <v>2162</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>430</v>
+        <v>108</v>
       </c>
       <c r="Q645" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46860,25 +46860,25 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K646" t="n">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="L646" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M646" t="n">
-        <v>4897</v>
+        <v>8750</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>272</v>
+        <v>486</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,24 +46937,24 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>6600</v>
+        <v>170</v>
       </c>
       <c r="K647" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L647" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M647" t="n">
-        <v>4500</v>
+        <v>5765</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
@@ -46963,10 +46963,10 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>225</v>
+        <v>320</v>
       </c>
       <c r="Q647" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -47004,25 +47004,25 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K648" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L648" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M648" t="n">
-        <v>4000</v>
+        <v>7739</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47081,24 +47081,24 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>6500</v>
+        <v>175</v>
       </c>
       <c r="K649" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="L649" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M649" t="n">
-        <v>3500</v>
+        <v>4897</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -47107,10 +47107,10 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="Q649" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47148,41 +47148,41 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>110</v>
+        <v>6600</v>
       </c>
       <c r="K650" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L650" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M650" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>472</v>
+        <v>225</v>
       </c>
       <c r="Q650" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="K651" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="L651" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M651" t="n">
-        <v>4897</v>
+        <v>4000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J652" t="n">
         <v>6500</v>
       </c>
       <c r="K652" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L652" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M652" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q652" t="n">
         <v>20</v>
@@ -47364,25 +47364,25 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K653" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L653" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M653" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47441,36 +47441,36 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>6800</v>
+        <v>370</v>
       </c>
       <c r="K654" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="L654" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M654" t="n">
-        <v>3500</v>
+        <v>4897</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="Q654" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47508,41 +47508,41 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>135</v>
+        <v>6500</v>
       </c>
       <c r="K655" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L655" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M655" t="n">
-        <v>6741</v>
+        <v>4500</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>374</v>
+        <v>225</v>
       </c>
       <c r="Q655" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K656" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L656" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M656" t="n">
-        <v>5258</v>
+        <v>4000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47652,41 +47652,41 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>60</v>
+        <v>6800</v>
       </c>
       <c r="K657" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L657" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M657" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="Q657" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="K658" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L658" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M658" t="n">
-        <v>5500</v>
+        <v>6741</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="K659" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L659" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M659" t="n">
-        <v>4500</v>
+        <v>5258</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K660" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L660" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M660" t="n">
-        <v>6761</v>
+        <v>9000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="K661" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L661" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M661" t="n">
-        <v>4650</v>
+        <v>5500</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48017,11 +48017,11 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>6000</v>
+        <v>80</v>
       </c>
       <c r="K662" t="n">
         <v>4500</v>
@@ -48034,19 +48034,19 @@
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q662" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48084,41 +48084,41 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>5800</v>
+        <v>115</v>
       </c>
       <c r="K663" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L663" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M663" t="n">
-        <v>3500</v>
+        <v>6761</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>175</v>
+        <v>376</v>
       </c>
       <c r="Q663" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48156,25 +48156,25 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K664" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L664" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M664" t="n">
-        <v>8761</v>
+        <v>4650</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>487</v>
+        <v>258</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48233,24 +48233,24 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>175</v>
+        <v>6000</v>
       </c>
       <c r="K665" t="n">
         <v>4500</v>
       </c>
       <c r="L665" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M665" t="n">
-        <v>4646</v>
+        <v>4500</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -48259,10 +48259,10 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="Q665" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48305,24 +48305,24 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>90</v>
+        <v>5800</v>
       </c>
       <c r="K666" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L666" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M666" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -48331,10 +48331,10 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="Q666" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K667" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L667" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M667" t="n">
-        <v>4740</v>
+        <v>8761</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>263</v>
+        <v>487</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="K668" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L668" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M668" t="n">
-        <v>3778</v>
+        <v>4646</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="K669" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L669" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M669" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48588,25 +48588,25 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="K670" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L670" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M670" t="n">
-        <v>7000</v>
+        <v>4740</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="K671" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L671" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M671" t="n">
-        <v>7000</v>
+        <v>3778</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48732,41 +48732,41 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>5600</v>
+        <v>58</v>
       </c>
       <c r="K672" t="n">
-        <v>2700</v>
+        <v>8000</v>
       </c>
       <c r="L672" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M672" t="n">
-        <v>2871</v>
+        <v>8000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>144</v>
+        <v>444</v>
       </c>
       <c r="Q672" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48804,25 +48804,25 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K673" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L673" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M673" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48881,24 +48881,24 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>3700</v>
+        <v>89</v>
       </c>
       <c r="K674" t="n">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="L674" t="n">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="M674" t="n">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -48907,10 +48907,10 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>115</v>
+        <v>389</v>
       </c>
       <c r="Q674" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48948,41 +48948,41 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="K675" t="n">
-        <v>8000</v>
+        <v>2700</v>
       </c>
       <c r="L675" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="M675" t="n">
-        <v>8267</v>
+        <v>2871</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>459</v>
+        <v>144</v>
       </c>
       <c r="Q675" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="K676" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L676" t="n">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="M676" t="n">
-        <v>4593</v>
+        <v>6000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>6500</v>
+        <v>3700</v>
       </c>
       <c r="K677" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="L677" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M677" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="Q677" t="n">
         <v>20</v>
@@ -49164,25 +49164,25 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K678" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L678" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M678" t="n">
-        <v>4000</v>
+        <v>8267</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49241,36 +49241,36 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>6520</v>
+        <v>150</v>
       </c>
       <c r="K679" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L679" t="n">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="M679" t="n">
-        <v>3000</v>
+        <v>4593</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="Q679" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E680" t="n">
         <v>5</v>
@@ -49308,41 +49308,41 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>100</v>
+        <v>6500</v>
       </c>
       <c r="K680" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L680" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M680" t="n">
-        <v>8750</v>
+        <v>4000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>486</v>
+        <v>200</v>
       </c>
       <c r="Q680" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K681" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L681" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M681" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49452,41 +49452,41 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>105</v>
+        <v>6520</v>
       </c>
       <c r="K682" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L682" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M682" t="n">
-        <v>7262</v>
+        <v>3000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>403</v>
+        <v>150</v>
       </c>
       <c r="Q682" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K683" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L683" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M683" t="n">
-        <v>6000</v>
+        <v>8750</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>333</v>
+        <v>486</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49601,24 +49601,24 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>10000</v>
+        <v>130</v>
       </c>
       <c r="K684" t="n">
-        <v>2900</v>
+        <v>6000</v>
       </c>
       <c r="L684" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M684" t="n">
-        <v>2955</v>
+        <v>6000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -49627,10 +49627,10 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="Q684" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49668,41 +49668,41 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>5500</v>
+        <v>105</v>
       </c>
       <c r="K685" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L685" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M685" t="n">
-        <v>2000</v>
+        <v>7262</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="Q685" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49740,41 +49740,41 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>4800</v>
+        <v>60</v>
       </c>
       <c r="K686" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="L686" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="M686" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>60</v>
+        <v>333</v>
       </c>
       <c r="Q686" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49817,36 +49817,36 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="K687" t="n">
-        <v>6500</v>
+        <v>2900</v>
       </c>
       <c r="L687" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M687" t="n">
-        <v>6500</v>
+        <v>2955</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="Q687" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49884,41 +49884,41 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>135</v>
+        <v>5500</v>
       </c>
       <c r="K688" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="L688" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="M688" t="n">
-        <v>7759</v>
+        <v>2000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>431</v>
+        <v>100</v>
       </c>
       <c r="Q688" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49961,24 +49961,24 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>110</v>
+        <v>4800</v>
       </c>
       <c r="K689" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="L689" t="n">
-        <v>4800</v>
+        <v>1200</v>
       </c>
       <c r="M689" t="n">
-        <v>4636</v>
+        <v>1200</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
@@ -49987,10 +49987,10 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="Q689" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E690" t="n">
         <v>5</v>
@@ -50033,36 +50033,36 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J690" t="n">
+        <v>50</v>
+      </c>
+      <c r="K690" t="n">
         <v>6500</v>
       </c>
-      <c r="K690" t="n">
-        <v>4500</v>
-      </c>
       <c r="L690" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M690" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>225</v>
+        <v>361</v>
       </c>
       <c r="Q690" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="K691" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L691" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M691" t="n">
-        <v>4000</v>
+        <v>7759</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>222</v>
+        <v>431</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50177,24 +50177,24 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>6800</v>
+        <v>110</v>
       </c>
       <c r="K692" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L692" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M692" t="n">
-        <v>3000</v>
+        <v>4636</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -50203,10 +50203,10 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="Q692" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -50244,41 +50244,41 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>150</v>
+        <v>6500</v>
       </c>
       <c r="K693" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L693" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M693" t="n">
-        <v>7200</v>
+        <v>4500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="Q693" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -50321,24 +50321,24 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>15300</v>
+        <v>70</v>
       </c>
       <c r="K694" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="L694" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M694" t="n">
-        <v>2902</v>
+        <v>4000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -50347,10 +50347,10 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="Q694" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="K695" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L695" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M695" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q695" t="n">
         <v>20</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E696" t="n">
         <v>5</v>
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K696" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L696" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M696" t="n">
-        <v>8727</v>
+        <v>7200</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>485</v>
+        <v>400</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E697" t="n">
         <v>5</v>
@@ -50537,24 +50537,24 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>125</v>
+        <v>15300</v>
       </c>
       <c r="K697" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L697" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="M697" t="n">
-        <v>4548</v>
+        <v>2902</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -50563,10 +50563,10 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="Q697" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E698" t="n">
         <v>5</v>
@@ -50609,20 +50609,20 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>13100</v>
+        <v>6500</v>
       </c>
       <c r="K698" t="n">
-        <v>4300</v>
+        <v>2000</v>
       </c>
       <c r="L698" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M698" t="n">
-        <v>4399</v>
+        <v>2000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="Q698" t="n">
         <v>20</v>
@@ -50676,41 +50676,41 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>6500</v>
+        <v>110</v>
       </c>
       <c r="K699" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L699" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="M699" t="n">
-        <v>3500</v>
+        <v>8727</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>175</v>
+        <v>485</v>
       </c>
       <c r="Q699" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -50748,25 +50748,25 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K700" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L700" t="n">
-        <v>9000</v>
+        <v>4600</v>
       </c>
       <c r="M700" t="n">
-        <v>9000</v>
+        <v>4548</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>500</v>
+        <v>253</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>6600</v>
+        <v>13100</v>
       </c>
       <c r="K701" t="n">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="L701" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M701" t="n">
-        <v>2897</v>
+        <v>4399</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="Q701" t="n">
         <v>20</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="K702" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L702" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M702" t="n">
-        <v>2347</v>
+        <v>3500</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="Q702" t="n">
         <v>20</v>
@@ -50964,41 +50964,41 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>2800</v>
+        <v>70</v>
       </c>
       <c r="K703" t="n">
-        <v>1700</v>
+        <v>9000</v>
       </c>
       <c r="L703" t="n">
-        <v>1700</v>
+        <v>9000</v>
       </c>
       <c r="M703" t="n">
-        <v>1700</v>
+        <v>9000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="Q703" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -51036,41 +51036,41 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>95</v>
+        <v>6600</v>
       </c>
       <c r="K704" t="n">
-        <v>8500</v>
+        <v>2800</v>
       </c>
       <c r="L704" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M704" t="n">
-        <v>8737</v>
+        <v>2897</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>485</v>
+        <v>145</v>
       </c>
       <c r="Q704" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -51108,41 +51108,41 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>143</v>
+        <v>5500</v>
       </c>
       <c r="K705" t="n">
-        <v>6500</v>
+        <v>2200</v>
       </c>
       <c r="L705" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M705" t="n">
-        <v>6762</v>
+        <v>2347</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>376</v>
+        <v>117</v>
       </c>
       <c r="Q705" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51185,24 +51185,24 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>380</v>
+        <v>2800</v>
       </c>
       <c r="K706" t="n">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="L706" t="n">
-        <v>5000</v>
+        <v>1700</v>
       </c>
       <c r="M706" t="n">
-        <v>4763</v>
+        <v>1700</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,10 +51211,10 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="Q706" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E707" t="n">
         <v>5</v>
@@ -51252,25 +51252,25 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="K707" t="n">
-        <v>3700</v>
+        <v>8500</v>
       </c>
       <c r="L707" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M707" t="n">
-        <v>3888</v>
+        <v>8737</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>216</v>
+        <v>485</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E708" t="n">
         <v>5</v>
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="K708" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L708" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M708" t="n">
-        <v>8740</v>
+        <v>6762</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>486</v>
+        <v>376</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E709" t="n">
         <v>5</v>
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="K709" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L709" t="n">
         <v>5000</v>
       </c>
-      <c r="L709" t="n">
-        <v>5500</v>
-      </c>
       <c r="M709" t="n">
-        <v>5229</v>
+        <v>4763</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E710" t="n">
         <v>5</v>
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="K710" t="n">
-        <v>4500</v>
+        <v>3700</v>
       </c>
       <c r="L710" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M710" t="n">
-        <v>4500</v>
+        <v>3888</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51549,16 +51549,16 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K711" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L711" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M711" t="n">
-        <v>8262</v>
+        <v>8740</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51621,7 +51621,7 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="K712" t="n">
         <v>5000</v>
@@ -51630,7 +51630,7 @@
         <v>5500</v>
       </c>
       <c r="M712" t="n">
-        <v>5286</v>
+        <v>5229</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51693,16 +51693,16 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="K713" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L713" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M713" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51765,7 +51765,7 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K714" t="n">
         <v>8000</v>
@@ -51774,7 +51774,7 @@
         <v>8500</v>
       </c>
       <c r="M714" t="n">
-        <v>8269</v>
+        <v>8262</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="K715" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L715" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M715" t="n">
-        <v>4657</v>
+        <v>5286</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51909,7 +51909,7 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="K716" t="n">
         <v>4000</v>
@@ -51937,6 +51937,222 @@
         <v>18</v>
       </c>
       <c r="R716" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>3</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D717" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E717" t="n">
+        <v>5</v>
+      </c>
+      <c r="F717" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J717" t="n">
+        <v>130</v>
+      </c>
+      <c r="K717" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L717" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M717" t="n">
+        <v>8269</v>
+      </c>
+      <c r="N717" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O717" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P717" t="n">
+        <v>459</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>18</v>
+      </c>
+      <c r="R717" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>3</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D718" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E718" t="n">
+        <v>5</v>
+      </c>
+      <c r="F718" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J718" t="n">
+        <v>230</v>
+      </c>
+      <c r="K718" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L718" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M718" t="n">
+        <v>4657</v>
+      </c>
+      <c r="N718" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O718" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P718" t="n">
+        <v>259</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>18</v>
+      </c>
+      <c r="R718" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>3</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D719" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E719" t="n">
+        <v>5</v>
+      </c>
+      <c r="F719" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J719" t="n">
+        <v>120</v>
+      </c>
+      <c r="K719" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L719" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M719" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N719" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O719" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P719" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>18</v>
+      </c>
+      <c r="R719" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R752"/>
+  <dimension ref="A1:R756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="K661" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L661" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M661" t="n">
-        <v>8222</v>
+        <v>7258</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="K662" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L662" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M662" t="n">
-        <v>7000</v>
+        <v>4633</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>389</v>
+        <v>257</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>13300</v>
+        <v>8500</v>
       </c>
       <c r="K663" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L663" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M663" t="n">
-        <v>2402</v>
+        <v>3000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q663" t="n">
         <v>20</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>6800</v>
+        <v>8800</v>
       </c>
       <c r="K664" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L664" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M664" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q664" t="n">
         <v>20</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K665" t="n">
         <v>8000</v>
       </c>
       <c r="L665" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M665" t="n">
-        <v>8000</v>
+        <v>8222</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K666" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L666" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>9265</v>
+        <v>7000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>515</v>
+        <v>389</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48377,24 +48377,24 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>80</v>
+        <v>13300</v>
       </c>
       <c r="K667" t="n">
-        <v>6000</v>
+        <v>2300</v>
       </c>
       <c r="L667" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="M667" t="n">
-        <v>6000</v>
+        <v>2402</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -48403,10 +48403,10 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>333</v>
+        <v>120</v>
       </c>
       <c r="Q667" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48449,24 +48449,24 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>80</v>
+        <v>6800</v>
       </c>
       <c r="K668" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="L668" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="M668" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>278</v>
+        <v>90</v>
       </c>
       <c r="Q668" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K669" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L669" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M669" t="n">
-        <v>6773</v>
+        <v>8000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48588,25 +48588,25 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="K670" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L670" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="M670" t="n">
-        <v>4750</v>
+        <v>9265</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>264</v>
+        <v>515</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48660,25 +48660,25 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K671" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L671" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M671" t="n">
-        <v>7762</v>
+        <v>6000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K672" t="n">
         <v>5000</v>
       </c>
       <c r="L672" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M672" t="n">
-        <v>5250</v>
+        <v>5000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E673" t="n">
         <v>5</v>
@@ -48804,25 +48804,25 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K673" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L673" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M673" t="n">
-        <v>4500</v>
+        <v>6773</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>250</v>
+        <v>376</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="K674" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L674" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M674" t="n">
-        <v>8763</v>
+        <v>4750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>487</v>
+        <v>264</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48948,25 +48948,25 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="K675" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L675" t="n">
-        <v>5800</v>
+        <v>8000</v>
       </c>
       <c r="M675" t="n">
-        <v>5645</v>
+        <v>7762</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K676" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L676" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M676" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49097,24 +49097,24 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>5600</v>
+        <v>80</v>
       </c>
       <c r="K677" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="L677" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M677" t="n">
-        <v>2886</v>
+        <v>4500</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -49123,10 +49123,10 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="Q677" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49164,41 +49164,41 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>5200</v>
+        <v>95</v>
       </c>
       <c r="K678" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="L678" t="n">
-        <v>2300</v>
+        <v>9000</v>
       </c>
       <c r="M678" t="n">
-        <v>2162</v>
+        <v>8763</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>108</v>
+        <v>487</v>
       </c>
       <c r="Q678" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49236,25 +49236,25 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K679" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L679" t="n">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="M679" t="n">
-        <v>8750</v>
+        <v>5645</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>486</v>
+        <v>314</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E680" t="n">
         <v>5</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K680" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L680" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M680" t="n">
-        <v>5765</v>
+        <v>4500</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49380,41 +49380,41 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>115</v>
+        <v>5600</v>
       </c>
       <c r="K681" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="L681" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M681" t="n">
-        <v>7739</v>
+        <v>2886</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>430</v>
+        <v>144</v>
       </c>
       <c r="Q681" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49457,24 +49457,24 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>175</v>
+        <v>5200</v>
       </c>
       <c r="K682" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="L682" t="n">
-        <v>5000</v>
+        <v>2300</v>
       </c>
       <c r="M682" t="n">
-        <v>4897</v>
+        <v>2162</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
@@ -49483,10 +49483,10 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="Q682" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -49524,41 +49524,41 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>6600</v>
+        <v>80</v>
       </c>
       <c r="K683" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L683" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M683" t="n">
-        <v>4500</v>
+        <v>8750</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>225</v>
+        <v>486</v>
       </c>
       <c r="Q683" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="K684" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L684" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M684" t="n">
-        <v>4000</v>
+        <v>5765</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>222</v>
+        <v>320</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49668,41 +49668,41 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>6500</v>
+        <v>115</v>
       </c>
       <c r="K685" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L685" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M685" t="n">
-        <v>3500</v>
+        <v>7739</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="Q685" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="K686" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="L686" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M686" t="n">
-        <v>8500</v>
+        <v>4897</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49817,36 +49817,36 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>370</v>
+        <v>6600</v>
       </c>
       <c r="K687" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="L687" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M687" t="n">
-        <v>4897</v>
+        <v>4500</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="Q687" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49889,24 +49889,24 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>6500</v>
+        <v>60</v>
       </c>
       <c r="K688" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L688" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M688" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -49915,10 +49915,10 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q688" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49961,36 +49961,36 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>150</v>
+        <v>6500</v>
       </c>
       <c r="K689" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L689" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M689" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="Q689" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50028,41 +50028,41 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>6800</v>
+        <v>110</v>
       </c>
       <c r="K690" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L690" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M690" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>175</v>
+        <v>472</v>
       </c>
       <c r="Q690" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>135</v>
+        <v>370</v>
       </c>
       <c r="K691" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="L691" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M691" t="n">
-        <v>6741</v>
+        <v>4897</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50177,36 +50177,36 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>165</v>
+        <v>6500</v>
       </c>
       <c r="K692" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L692" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M692" t="n">
-        <v>5258</v>
+        <v>4500</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="Q692" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -50244,25 +50244,25 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K693" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L693" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M693" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -50321,36 +50321,36 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>65</v>
+        <v>6800</v>
       </c>
       <c r="K694" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L694" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M694" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="Q694" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -50388,25 +50388,25 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="K695" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L695" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M695" t="n">
-        <v>4500</v>
+        <v>6741</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E696" t="n">
         <v>5</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="K696" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L696" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M696" t="n">
-        <v>6761</v>
+        <v>5258</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>376</v>
+        <v>292</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E697" t="n">
         <v>5</v>
@@ -50532,25 +50532,25 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K697" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L697" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M697" t="n">
-        <v>4650</v>
+        <v>9000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>258</v>
+        <v>500</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E698" t="n">
         <v>5</v>
@@ -50609,36 +50609,36 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>6000</v>
+        <v>65</v>
       </c>
       <c r="K698" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L698" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M698" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="Q698" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E699" t="n">
         <v>5</v>
@@ -50681,36 +50681,36 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>5800</v>
+        <v>80</v>
       </c>
       <c r="K699" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L699" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M699" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q699" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -50760,13 +50760,13 @@
         <v>115</v>
       </c>
       <c r="K700" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L700" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M700" t="n">
-        <v>8761</v>
+        <v>6761</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>487</v>
+        <v>376</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50829,7 +50829,7 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="K701" t="n">
         <v>4500</v>
@@ -50838,7 +50838,7 @@
         <v>4800</v>
       </c>
       <c r="M701" t="n">
-        <v>4646</v>
+        <v>4650</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,7 +50847,7 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P701" t="n">
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50897,24 +50897,24 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>90</v>
+        <v>6000</v>
       </c>
       <c r="K702" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L702" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M702" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
@@ -50923,10 +50923,10 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q702" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -50969,24 +50969,24 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>250</v>
+        <v>5800</v>
       </c>
       <c r="K703" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L703" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M703" t="n">
-        <v>4740</v>
+        <v>3500</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
@@ -50995,10 +50995,10 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="Q703" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="K704" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L704" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M704" t="n">
-        <v>3778</v>
+        <v>8761</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>210</v>
+        <v>487</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -51108,25 +51108,25 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="K705" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L705" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="M705" t="n">
-        <v>8000</v>
+        <v>4646</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>444</v>
+        <v>258</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51180,25 +51180,25 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="K706" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L706" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M706" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E707" t="n">
         <v>5</v>
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="K707" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L707" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M707" t="n">
-        <v>7000</v>
+        <v>4740</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E708" t="n">
         <v>5</v>
@@ -51329,24 +51329,24 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>5600</v>
+        <v>225</v>
       </c>
       <c r="K708" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L708" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M708" t="n">
-        <v>2871</v>
+        <v>3778</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
@@ -51355,10 +51355,10 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="Q708" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51396,25 +51396,25 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="K709" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L709" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M709" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51468,41 +51468,41 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>3700</v>
+        <v>67</v>
       </c>
       <c r="K710" t="n">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="L710" t="n">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="M710" t="n">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>115</v>
+        <v>389</v>
       </c>
       <c r="Q710" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="K711" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L711" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M711" t="n">
-        <v>8267</v>
+        <v>7000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51617,36 +51617,36 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="K712" t="n">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="L712" t="n">
-        <v>4700</v>
+        <v>3000</v>
       </c>
       <c r="M712" t="n">
-        <v>4593</v>
+        <v>2871</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="Q712" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51689,24 +51689,24 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>6500</v>
+        <v>85</v>
       </c>
       <c r="K713" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L713" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M713" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
@@ -51715,10 +51715,10 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="Q713" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R713" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51761,36 +51761,36 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>80</v>
+        <v>3700</v>
       </c>
       <c r="K714" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="L714" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M714" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="Q714" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51828,41 +51828,41 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>6520</v>
+        <v>150</v>
       </c>
       <c r="K715" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L715" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="M715" t="n">
-        <v>3000</v>
+        <v>8267</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>150</v>
+        <v>459</v>
       </c>
       <c r="Q715" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51900,25 +51900,25 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K716" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L716" t="n">
-        <v>9000</v>
+        <v>4700</v>
       </c>
       <c r="M716" t="n">
-        <v>8750</v>
+        <v>4593</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>486</v>
+        <v>255</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51977,24 +51977,24 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>130</v>
+        <v>6500</v>
       </c>
       <c r="K717" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L717" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M717" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
@@ -52003,10 +52003,10 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="Q717" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K718" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L718" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M718" t="n">
-        <v>7262</v>
+        <v>4000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>403</v>
+        <v>222</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -52116,41 +52116,41 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>60</v>
+        <v>6520</v>
       </c>
       <c r="K719" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L719" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M719" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="Q719" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -52188,41 +52188,41 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K720" t="n">
-        <v>2900</v>
+        <v>8500</v>
       </c>
       <c r="L720" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="M720" t="n">
-        <v>2955</v>
+        <v>8750</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>148</v>
+        <v>486</v>
       </c>
       <c r="Q720" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E721" t="n">
         <v>5</v>
@@ -52265,24 +52265,24 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>5500</v>
+        <v>130</v>
       </c>
       <c r="K721" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L721" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M721" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
@@ -52291,10 +52291,10 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="Q721" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52332,41 +52332,41 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>4800</v>
+        <v>105</v>
       </c>
       <c r="K722" t="n">
-        <v>1200</v>
+        <v>7000</v>
       </c>
       <c r="L722" t="n">
-        <v>1200</v>
+        <v>7500</v>
       </c>
       <c r="M722" t="n">
-        <v>1200</v>
+        <v>7262</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>60</v>
+        <v>403</v>
       </c>
       <c r="Q722" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K723" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L723" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M723" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E724" t="n">
         <v>5</v>
@@ -52476,41 +52476,41 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>135</v>
+        <v>10000</v>
       </c>
       <c r="K724" t="n">
-        <v>7500</v>
+        <v>2900</v>
       </c>
       <c r="L724" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M724" t="n">
-        <v>7759</v>
+        <v>2955</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="Q724" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E725" t="n">
         <v>5</v>
@@ -52553,24 +52553,24 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>110</v>
+        <v>5500</v>
       </c>
       <c r="K725" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L725" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M725" t="n">
-        <v>4636</v>
+        <v>2000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
@@ -52579,10 +52579,10 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="Q725" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E726" t="n">
         <v>5</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="K726" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="L726" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="M726" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q726" t="n">
         <v>20</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E727" t="n">
         <v>5</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K727" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L727" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M727" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52764,41 +52764,41 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>6800</v>
+        <v>135</v>
       </c>
       <c r="K728" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L728" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M728" t="n">
-        <v>3000</v>
+        <v>7759</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>150</v>
+        <v>431</v>
       </c>
       <c r="Q728" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R728" t="inlineStr">
         <is>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E729" t="n">
         <v>5</v>
@@ -52836,25 +52836,25 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K729" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L729" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="M729" t="n">
-        <v>7200</v>
+        <v>4636</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>400</v>
+        <v>258</v>
       </c>
       <c r="Q729" t="n">
         <v>18</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E730" t="n">
         <v>5</v>
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>15300</v>
+        <v>6500</v>
       </c>
       <c r="K730" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="L730" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M730" t="n">
-        <v>2902</v>
+        <v>4500</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="Q730" t="n">
         <v>20</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E731" t="n">
         <v>5</v>
@@ -52985,24 +52985,24 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>6500</v>
+        <v>70</v>
       </c>
       <c r="K731" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L731" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M731" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
@@ -53011,10 +53011,10 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="Q731" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -53052,41 +53052,41 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>110</v>
+        <v>6800</v>
       </c>
       <c r="K732" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L732" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M732" t="n">
-        <v>8727</v>
+        <v>3000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>485</v>
+        <v>150</v>
       </c>
       <c r="Q732" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -53124,25 +53124,25 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="K733" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L733" t="n">
-        <v>4600</v>
+        <v>8000</v>
       </c>
       <c r="M733" t="n">
-        <v>4548</v>
+        <v>7200</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -53205,16 +53205,16 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>13100</v>
+        <v>15300</v>
       </c>
       <c r="K734" t="n">
-        <v>4300</v>
+        <v>2800</v>
       </c>
       <c r="L734" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M734" t="n">
-        <v>4399</v>
+        <v>2902</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="Q734" t="n">
         <v>20</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -53280,13 +53280,13 @@
         <v>6500</v>
       </c>
       <c r="K735" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L735" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M735" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="Q735" t="n">
         <v>20</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -53349,16 +53349,16 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K736" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L736" t="n">
         <v>9000</v>
       </c>
       <c r="M736" t="n">
-        <v>9000</v>
+        <v>8727</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -53417,24 +53417,24 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>6600</v>
+        <v>125</v>
       </c>
       <c r="K737" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="L737" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="M737" t="n">
-        <v>2897</v>
+        <v>4548</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
@@ -53443,10 +53443,10 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="Q737" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R737" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>5500</v>
+        <v>13100</v>
       </c>
       <c r="K738" t="n">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="L738" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="M738" t="n">
-        <v>2347</v>
+        <v>4399</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="Q738" t="n">
         <v>20</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>2800</v>
+        <v>6500</v>
       </c>
       <c r="K739" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="L739" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="M739" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="Q739" t="n">
         <v>20</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -53637,16 +53637,16 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K740" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L740" t="n">
         <v>9000</v>
       </c>
       <c r="M740" t="n">
-        <v>8737</v>
+        <v>9000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E741" t="n">
         <v>5</v>
@@ -53700,41 +53700,41 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>143</v>
+        <v>6600</v>
       </c>
       <c r="K741" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="L741" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M741" t="n">
-        <v>6762</v>
+        <v>2897</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>376</v>
+        <v>145</v>
       </c>
       <c r="Q741" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E742" t="n">
         <v>5</v>
@@ -53777,24 +53777,24 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>380</v>
+        <v>5500</v>
       </c>
       <c r="K742" t="n">
-        <v>4500</v>
+        <v>2200</v>
       </c>
       <c r="L742" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M742" t="n">
-        <v>4763</v>
+        <v>2347</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
@@ -53803,10 +53803,10 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="Q742" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R742" t="inlineStr">
         <is>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E743" t="n">
         <v>5</v>
@@ -53849,24 +53849,24 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="K743" t="n">
-        <v>3700</v>
+        <v>1700</v>
       </c>
       <c r="L743" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="M743" t="n">
-        <v>3888</v>
+        <v>1700</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
@@ -53875,10 +53875,10 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="Q743" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E744" t="n">
         <v>5</v>
@@ -53925,7 +53925,7 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K744" t="n">
         <v>8500</v>
@@ -53934,7 +53934,7 @@
         <v>9000</v>
       </c>
       <c r="M744" t="n">
-        <v>8740</v>
+        <v>8737</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E745" t="n">
         <v>5</v>
@@ -53988,25 +53988,25 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="K745" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L745" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M745" t="n">
-        <v>5229</v>
+        <v>6762</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E746" t="n">
         <v>5</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="K746" t="n">
         <v>4500</v>
       </c>
       <c r="L746" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M746" t="n">
-        <v>4500</v>
+        <v>4763</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="Q746" t="n">
         <v>18</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E747" t="n">
         <v>5</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="K747" t="n">
-        <v>8000</v>
+        <v>3700</v>
       </c>
       <c r="L747" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M747" t="n">
-        <v>8262</v>
+        <v>3888</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>459</v>
+        <v>216</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E748" t="n">
         <v>5</v>
@@ -54204,25 +54204,25 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K748" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L748" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M748" t="n">
-        <v>5286</v>
+        <v>8740</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>294</v>
+        <v>486</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E749" t="n">
         <v>5</v>
@@ -54281,20 +54281,20 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="K749" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L749" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M749" t="n">
-        <v>4000</v>
+        <v>5229</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -54348,25 +54348,25 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J750" t="n">
         <v>130</v>
       </c>
       <c r="K750" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L750" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M750" t="n">
-        <v>8269</v>
+        <v>4500</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>459</v>
+        <v>250</v>
       </c>
       <c r="Q750" t="n">
         <v>18</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -54420,25 +54420,25 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="K751" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L751" t="n">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="M751" t="n">
-        <v>4657</v>
+        <v>8262</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>259</v>
+        <v>459</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K752" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L752" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M752" t="n">
-        <v>4000</v>
+        <v>5286</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,12 +54523,300 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
       </c>
       <c r="R752" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>3</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D753" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E753" t="n">
+        <v>5</v>
+      </c>
+      <c r="F753" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J753" t="n">
+        <v>58</v>
+      </c>
+      <c r="K753" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L753" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M753" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N753" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O753" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P753" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q753" t="n">
+        <v>18</v>
+      </c>
+      <c r="R753" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>3</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D754" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E754" t="n">
+        <v>5</v>
+      </c>
+      <c r="F754" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J754" t="n">
+        <v>130</v>
+      </c>
+      <c r="K754" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L754" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M754" t="n">
+        <v>8269</v>
+      </c>
+      <c r="N754" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O754" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P754" t="n">
+        <v>459</v>
+      </c>
+      <c r="Q754" t="n">
+        <v>18</v>
+      </c>
+      <c r="R754" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>3</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D755" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E755" t="n">
+        <v>5</v>
+      </c>
+      <c r="F755" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J755" t="n">
+        <v>230</v>
+      </c>
+      <c r="K755" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L755" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M755" t="n">
+        <v>4657</v>
+      </c>
+      <c r="N755" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O755" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P755" t="n">
+        <v>259</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>18</v>
+      </c>
+      <c r="R755" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>3</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D756" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E756" t="n">
+        <v>5</v>
+      </c>
+      <c r="F756" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J756" t="n">
+        <v>120</v>
+      </c>
+      <c r="K756" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L756" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M756" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N756" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O756" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P756" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q756" t="n">
+        <v>18</v>
+      </c>
+      <c r="R756" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R781"/>
+  <dimension ref="A1:R785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K661" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L661" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M661" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K662" t="n">
         <v>4500</v>
       </c>
       <c r="L662" t="n">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="M662" t="n">
-        <v>4500</v>
+        <v>4597</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48089,24 +48089,24 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>200</v>
+        <v>7500</v>
       </c>
       <c r="K663" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L663" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M663" t="n">
-        <v>3920</v>
+        <v>3000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
@@ -48115,10 +48115,10 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="Q663" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48156,41 +48156,41 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>130</v>
+        <v>8500</v>
       </c>
       <c r="K664" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="L664" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M664" t="n">
-        <v>6769</v>
+        <v>2000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="Q664" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48228,25 +48228,25 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K665" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L665" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M665" t="n">
-        <v>4638</v>
+        <v>8000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>258</v>
+        <v>444</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K666" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L666" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M666" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="K667" t="n">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="L667" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M667" t="n">
-        <v>7238</v>
+        <v>3920</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>402</v>
+        <v>218</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K668" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L668" t="n">
         <v>7000</v>
       </c>
       <c r="M668" t="n">
-        <v>7000</v>
+        <v>6769</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48521,24 +48521,24 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>5800</v>
+        <v>130</v>
       </c>
       <c r="K669" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L669" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M669" t="n">
-        <v>3000</v>
+        <v>4638</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -48547,10 +48547,10 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="Q669" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48593,24 +48593,24 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>11100</v>
+        <v>80</v>
       </c>
       <c r="K670" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L670" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="M670" t="n">
-        <v>2050</v>
+        <v>4000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -48619,10 +48619,10 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="Q670" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48660,41 +48660,41 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>5400</v>
+        <v>105</v>
       </c>
       <c r="K671" t="n">
-        <v>1300</v>
+        <v>7000</v>
       </c>
       <c r="L671" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="M671" t="n">
-        <v>1300</v>
+        <v>7238</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>65</v>
+        <v>402</v>
       </c>
       <c r="Q671" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48737,11 +48737,11 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K672" t="n">
         <v>7000</v>
@@ -48759,7 +48759,7 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P672" t="n">
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E673" t="n">
         <v>5</v>
@@ -48804,41 +48804,41 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>170</v>
+        <v>5800</v>
       </c>
       <c r="K673" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L673" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M673" t="n">
-        <v>7265</v>
+        <v>3000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>404</v>
+        <v>150</v>
       </c>
       <c r="Q673" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48881,24 +48881,24 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>175</v>
+        <v>11100</v>
       </c>
       <c r="K674" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L674" t="n">
-        <v>4800</v>
+        <v>2100</v>
       </c>
       <c r="M674" t="n">
-        <v>4654</v>
+        <v>2050</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -48907,10 +48907,10 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="Q674" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>12800</v>
+        <v>5400</v>
       </c>
       <c r="K675" t="n">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="L675" t="n">
-        <v>3800</v>
+        <v>1300</v>
       </c>
       <c r="M675" t="n">
-        <v>3648</v>
+        <v>1300</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="Q675" t="n">
         <v>20</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K676" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L676" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M676" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49092,41 +49092,41 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>11600</v>
+        <v>170</v>
       </c>
       <c r="K677" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L677" t="n">
-        <v>2800</v>
+        <v>7500</v>
       </c>
       <c r="M677" t="n">
-        <v>2650</v>
+        <v>7265</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="Q677" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49164,25 +49164,25 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="K678" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L678" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M678" t="n">
-        <v>8761</v>
+        <v>4654</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>487</v>
+        <v>259</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49241,24 +49241,24 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>175</v>
+        <v>12800</v>
       </c>
       <c r="K679" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L679" t="n">
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="M679" t="n">
-        <v>4646</v>
+        <v>3648</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -49267,10 +49267,10 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="Q679" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E680" t="n">
         <v>5</v>
@@ -49317,7 +49317,7 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K680" t="n">
         <v>4000</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49380,41 +49380,41 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>105</v>
+        <v>11600</v>
       </c>
       <c r="K681" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L681" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="M681" t="n">
-        <v>7262</v>
+        <v>2650</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>403</v>
+        <v>132</v>
       </c>
       <c r="Q681" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49452,25 +49452,25 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="K682" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L682" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M682" t="n">
-        <v>5242</v>
+        <v>8761</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>291</v>
+        <v>487</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -49524,25 +49524,25 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="K683" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L683" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="M683" t="n">
-        <v>7240</v>
+        <v>4646</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>402</v>
+        <v>258</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K684" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L684" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M684" t="n">
-        <v>4731</v>
+        <v>4000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -49668,41 +49668,41 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>11300</v>
+        <v>105</v>
       </c>
       <c r="K685" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L685" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M685" t="n">
-        <v>4757</v>
+        <v>7262</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>238</v>
+        <v>403</v>
       </c>
       <c r="Q685" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K686" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L686" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M686" t="n">
-        <v>8750</v>
+        <v>5242</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>486</v>
+        <v>291</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49812,25 +49812,25 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K687" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L687" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M687" t="n">
-        <v>4765</v>
+        <v>7240</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>265</v>
+        <v>402</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49884,41 +49884,41 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="K688" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L688" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M688" t="n">
-        <v>9235</v>
+        <v>4731</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>616</v>
+        <v>263</v>
       </c>
       <c r="Q688" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>5500</v>
+        <v>11300</v>
       </c>
       <c r="K689" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L689" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M689" t="n">
-        <v>2500</v>
+        <v>4757</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="Q689" t="n">
         <v>20</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E690" t="n">
         <v>5</v>
@@ -50028,41 +50028,41 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>4500</v>
+        <v>160</v>
       </c>
       <c r="K690" t="n">
-        <v>1900</v>
+        <v>8500</v>
       </c>
       <c r="L690" t="n">
-        <v>1900</v>
+        <v>9000</v>
       </c>
       <c r="M690" t="n">
-        <v>1900</v>
+        <v>8750</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>95</v>
+        <v>486</v>
       </c>
       <c r="Q690" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="K691" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L691" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M691" t="n">
-        <v>8211</v>
+        <v>4765</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>456</v>
+        <v>265</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50172,41 +50172,41 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K692" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L692" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M692" t="n">
-        <v>7500</v>
+        <v>9235</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>417</v>
+        <v>616</v>
       </c>
       <c r="Q692" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -50253,32 +50253,32 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>120</v>
+        <v>5500</v>
       </c>
       <c r="K693" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="L693" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="M693" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>444</v>
+        <v>125</v>
       </c>
       <c r="Q693" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>14050</v>
+        <v>4500</v>
       </c>
       <c r="K694" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L694" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M694" t="n">
-        <v>2607</v>
+        <v>1900</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="Q694" t="n">
         <v>20</v>
@@ -50388,41 +50388,41 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>7550</v>
+        <v>95</v>
       </c>
       <c r="K695" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L695" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="M695" t="n">
-        <v>2000</v>
+        <v>8211</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="Q695" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E696" t="n">
         <v>5</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K696" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L696" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M696" t="n">
-        <v>6761</v>
+        <v>7500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E697" t="n">
         <v>5</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K697" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L697" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M697" t="n">
-        <v>4650</v>
+        <v>8000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>258</v>
+        <v>444</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E698" t="n">
         <v>5</v>
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>6000</v>
+        <v>14050</v>
       </c>
       <c r="K698" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L698" t="n">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="M698" t="n">
-        <v>4500</v>
+        <v>2607</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="Q698" t="n">
         <v>20</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E699" t="n">
         <v>5</v>
@@ -50685,16 +50685,16 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>5800</v>
+        <v>7550</v>
       </c>
       <c r="K699" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L699" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M699" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="Q699" t="n">
         <v>20</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K700" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L700" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M700" t="n">
-        <v>8737</v>
+        <v>6761</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>485</v>
+        <v>376</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50820,25 +50820,25 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K701" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L701" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="M701" t="n">
-        <v>7727</v>
+        <v>4650</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>429</v>
+        <v>258</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50897,36 +50897,36 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>130</v>
+        <v>6000</v>
       </c>
       <c r="K702" t="n">
         <v>4500</v>
       </c>
       <c r="L702" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M702" t="n">
-        <v>4638</v>
+        <v>4500</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="Q702" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>11100</v>
+        <v>5800</v>
       </c>
       <c r="K703" t="n">
         <v>3500</v>
       </c>
       <c r="L703" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M703" t="n">
-        <v>3748</v>
+        <v>3500</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q703" t="n">
         <v>20</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K704" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L704" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M704" t="n">
-        <v>4000</v>
+        <v>8737</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>222</v>
+        <v>485</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51108,41 +51108,41 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>5500</v>
+        <v>110</v>
       </c>
       <c r="K705" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L705" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M705" t="n">
-        <v>2000</v>
+        <v>7727</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>100</v>
+        <v>429</v>
       </c>
       <c r="Q705" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51180,25 +51180,25 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J706" t="n">
         <v>130</v>
       </c>
       <c r="K706" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L706" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="M706" t="n">
-        <v>8269</v>
+        <v>4638</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>459</v>
+        <v>258</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E707" t="n">
         <v>5</v>
@@ -51257,24 +51257,24 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>155</v>
+        <v>11100</v>
       </c>
       <c r="K707" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L707" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M707" t="n">
-        <v>4674</v>
+        <v>3748</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
@@ -51283,10 +51283,10 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="Q707" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E708" t="n">
         <v>5</v>
@@ -51329,36 +51329,36 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="K708" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L708" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M708" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q708" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E709" t="n">
         <v>5</v>
@@ -51401,24 +51401,24 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>70</v>
+        <v>5500</v>
       </c>
       <c r="K709" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L709" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M709" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
@@ -51427,10 +51427,10 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="Q709" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51468,41 +51468,41 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>7500</v>
+        <v>130</v>
       </c>
       <c r="K710" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L710" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M710" t="n">
-        <v>3500</v>
+        <v>8269</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>175</v>
+        <v>459</v>
       </c>
       <c r="Q710" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K711" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L711" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="M711" t="n">
-        <v>7250</v>
+        <v>4674</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>403</v>
+        <v>260</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51617,24 +51617,24 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>160</v>
+        <v>7500</v>
       </c>
       <c r="K712" t="n">
         <v>4500</v>
       </c>
       <c r="L712" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M712" t="n">
-        <v>4650</v>
+        <v>4500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
@@ -51643,10 +51643,10 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="Q712" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51756,41 +51756,41 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="K714" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L714" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M714" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>472</v>
+        <v>175</v>
       </c>
       <c r="Q714" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51828,41 +51828,41 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>13000</v>
+        <v>160</v>
       </c>
       <c r="K715" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L715" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="M715" t="n">
-        <v>2900</v>
+        <v>7250</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>145</v>
+        <v>403</v>
       </c>
       <c r="Q715" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51905,24 +51905,24 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>12300</v>
+        <v>160</v>
       </c>
       <c r="K716" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L716" t="n">
-        <v>2300</v>
+        <v>4800</v>
       </c>
       <c r="M716" t="n">
-        <v>2134</v>
+        <v>4650</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
@@ -51931,10 +51931,10 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="Q716" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51977,24 +51977,24 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>6500</v>
+        <v>70</v>
       </c>
       <c r="K717" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="L717" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M717" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
@@ -52003,10 +52003,10 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="Q717" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="K718" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L718" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M718" t="n">
-        <v>6241</v>
+        <v>8500</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>347</v>
+        <v>472</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -52121,24 +52121,24 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>73</v>
+        <v>13000</v>
       </c>
       <c r="K719" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L719" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="M719" t="n">
-        <v>4656</v>
+        <v>2900</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
@@ -52147,10 +52147,10 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="Q719" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -52193,24 +52193,24 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>60</v>
+        <v>12300</v>
       </c>
       <c r="K720" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L720" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M720" t="n">
-        <v>4000</v>
+        <v>2134</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
@@ -52219,10 +52219,10 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="Q720" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E721" t="n">
         <v>5</v>
@@ -52260,41 +52260,41 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>900</v>
+        <v>6500</v>
       </c>
       <c r="K721" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="L721" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="M721" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="Q721" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E722" t="n">
         <v>5</v>
@@ -52332,25 +52332,25 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K722" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L722" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M722" t="n">
-        <v>4769</v>
+        <v>6241</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E723" t="n">
         <v>5</v>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="K723" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L723" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M723" t="n">
-        <v>8742</v>
+        <v>4656</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>486</v>
+        <v>259</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E724" t="n">
         <v>5</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="K724" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="L724" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M724" t="n">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E725" t="n">
         <v>5</v>
@@ -52548,41 +52548,41 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="K725" t="n">
-        <v>4300</v>
+        <v>700</v>
       </c>
       <c r="L725" t="n">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="M725" t="n">
-        <v>4410</v>
+        <v>700</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="Q725" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E726" t="n">
         <v>5</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K726" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L726" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M726" t="n">
-        <v>4000</v>
+        <v>4769</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52692,41 +52692,41 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
+        <v>165</v>
+      </c>
+      <c r="K727" t="n">
         <v>8500</v>
       </c>
-      <c r="K727" t="n">
-        <v>3500</v>
-      </c>
       <c r="L727" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="M727" t="n">
-        <v>3500</v>
+        <v>8742</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>175</v>
+        <v>486</v>
       </c>
       <c r="Q727" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E728" t="n">
         <v>5</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="K728" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="L728" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M728" t="n">
-        <v>7762</v>
+        <v>4900</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>431</v>
+        <v>272</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E729" t="n">
         <v>5</v>
@@ -52841,24 +52841,24 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>140</v>
+        <v>14500</v>
       </c>
       <c r="K729" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L729" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M729" t="n">
-        <v>5250</v>
+        <v>4410</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="Q729" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E730" t="n">
         <v>5</v>
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K730" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L730" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M730" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E731" t="n">
         <v>5</v>
@@ -52980,41 +52980,41 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>85</v>
+        <v>8500</v>
       </c>
       <c r="K731" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L731" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="M731" t="n">
-        <v>9265</v>
+        <v>3500</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>515</v>
+        <v>175</v>
       </c>
       <c r="Q731" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -53052,25 +53052,25 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K732" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L732" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M732" t="n">
-        <v>6000</v>
+        <v>7762</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K733" t="n">
         <v>5000</v>
       </c>
       <c r="L733" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M733" t="n">
-        <v>5000</v>
+        <v>5250</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -53196,25 +53196,25 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K734" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L734" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M734" t="n">
-        <v>7214</v>
+        <v>4500</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>401</v>
+        <v>250</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -53268,25 +53268,25 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="K735" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L735" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="M735" t="n">
-        <v>5214</v>
+        <v>9265</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>290</v>
+        <v>515</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -53340,25 +53340,25 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K736" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L736" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M736" t="n">
-        <v>8750</v>
+        <v>6000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>486</v>
+        <v>333</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K737" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L737" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M737" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K738" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L738" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M738" t="n">
-        <v>8761</v>
+        <v>7214</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>487</v>
+        <v>401</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -53556,25 +53556,25 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K739" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L739" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M739" t="n">
-        <v>7000</v>
+        <v>5214</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -53628,25 +53628,25 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K740" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L740" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M740" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>375</v>
+        <v>486</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E741" t="n">
         <v>5</v>
@@ -53700,25 +53700,25 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K741" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L741" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M741" t="n">
-        <v>7227</v>
+        <v>6000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E742" t="n">
         <v>5</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K742" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L742" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M742" t="n">
-        <v>6500</v>
+        <v>8761</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>361</v>
+        <v>487</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E743" t="n">
         <v>5</v>
@@ -53844,41 +53844,41 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>6500</v>
+        <v>55</v>
       </c>
       <c r="K743" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L743" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M743" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="Q743" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E744" t="n">
         <v>5</v>
@@ -53921,24 +53921,24 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J744" t="n">
+        <v>110</v>
+      </c>
+      <c r="K744" t="n">
         <v>6500</v>
       </c>
-      <c r="K744" t="n">
-        <v>2200</v>
-      </c>
       <c r="L744" t="n">
-        <v>2200</v>
+        <v>7000</v>
       </c>
       <c r="M744" t="n">
-        <v>2200</v>
+        <v>6750</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
@@ -53947,10 +53947,10 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="Q744" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53988,41 +53988,41 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>6800</v>
+        <v>110</v>
       </c>
       <c r="K745" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L745" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="M745" t="n">
-        <v>1500</v>
+        <v>7227</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Q745" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54060,16 +54060,16 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K746" t="n">
         <v>6500</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E747" t="n">
         <v>5</v>
@@ -54132,41 +54132,41 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>105</v>
+        <v>6500</v>
       </c>
       <c r="K747" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L747" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="M747" t="n">
-        <v>8262</v>
+        <v>3000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>459</v>
+        <v>150</v>
       </c>
       <c r="Q747" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E748" t="n">
         <v>5</v>
@@ -54209,36 +54209,36 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>145</v>
+        <v>6500</v>
       </c>
       <c r="K748" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="L748" t="n">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="M748" t="n">
-        <v>4897</v>
+        <v>2200</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="Q748" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E749" t="n">
         <v>5</v>
@@ -54281,36 +54281,36 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>60</v>
+        <v>6800</v>
       </c>
       <c r="K749" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L749" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M749" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Q749" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,16 +54357,16 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K750" t="n">
         <v>6500</v>
       </c>
       <c r="L750" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M750" t="n">
-        <v>6808</v>
+        <v>6500</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="Q750" t="n">
         <v>18</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -54420,25 +54420,25 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K751" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L751" t="n">
-        <v>4700</v>
+        <v>8500</v>
       </c>
       <c r="M751" t="n">
-        <v>4603</v>
+        <v>8262</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>256</v>
+        <v>459</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K752" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="L752" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M752" t="n">
-        <v>4000</v>
+        <v>4897</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E753" t="n">
         <v>5</v>
@@ -54564,25 +54564,25 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K753" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L753" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M753" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K754" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L754" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M754" t="n">
-        <v>6000</v>
+        <v>6808</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E755" t="n">
         <v>5</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K755" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L755" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="M755" t="n">
-        <v>7000</v>
+        <v>4603</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>389</v>
+        <v>256</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E756" t="n">
         <v>5</v>
@@ -54785,24 +54785,24 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="K756" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="L756" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M756" t="n">
-        <v>2950</v>
+        <v>4000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
@@ -54811,10 +54811,10 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="Q756" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54852,41 +54852,41 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>6000</v>
+        <v>45</v>
       </c>
       <c r="K757" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="L757" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="M757" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="Q757" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54924,25 +54924,25 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K758" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L758" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M758" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -54996,25 +54996,25 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K759" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L759" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M759" t="n">
-        <v>8734</v>
+        <v>7000</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="Q759" t="n">
         <v>18</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -55073,24 +55073,24 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>170</v>
+        <v>11000</v>
       </c>
       <c r="K760" t="n">
-        <v>5500</v>
+        <v>2900</v>
       </c>
       <c r="L760" t="n">
-        <v>5800</v>
+        <v>3000</v>
       </c>
       <c r="M760" t="n">
-        <v>5641</v>
+        <v>2950</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
@@ -55099,10 +55099,10 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="Q760" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E761" t="n">
         <v>5</v>
@@ -55140,41 +55140,41 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>110</v>
+        <v>6000</v>
       </c>
       <c r="K761" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="L761" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="M761" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>500</v>
+        <v>105</v>
       </c>
       <c r="Q761" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E762" t="n">
         <v>5</v>
@@ -55212,25 +55212,25 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K762" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L762" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M762" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E763" t="n">
         <v>5</v>
@@ -55284,25 +55284,25 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>340</v>
+        <v>128</v>
       </c>
       <c r="K763" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L763" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M763" t="n">
-        <v>6279</v>
+        <v>8734</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>349</v>
+        <v>485</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E764" t="n">
         <v>5</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K764" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L764" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="M764" t="n">
-        <v>5000</v>
+        <v>5641</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -55437,16 +55437,16 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K765" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L765" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M765" t="n">
-        <v>8261</v>
+        <v>9000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -55500,25 +55500,25 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K766" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L766" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M766" t="n">
-        <v>4650</v>
+        <v>7000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>258</v>
+        <v>389</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="K767" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L767" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M767" t="n">
-        <v>4000</v>
+        <v>6279</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E768" t="n">
         <v>5</v>
@@ -55644,25 +55644,25 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="K768" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L768" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M768" t="n">
-        <v>9261</v>
+        <v>5000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>514</v>
+        <v>278</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -55716,25 +55716,25 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J769" t="n">
         <v>115</v>
       </c>
       <c r="K769" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L769" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M769" t="n">
-        <v>6239</v>
+        <v>8261</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>347</v>
+        <v>459</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E770" t="n">
         <v>5</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K770" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L770" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M770" t="n">
-        <v>5500</v>
+        <v>4650</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E771" t="n">
         <v>5</v>
@@ -55860,25 +55860,25 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="K771" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L771" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M771" t="n">
-        <v>8738</v>
+        <v>4000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>485</v>
+        <v>222</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K772" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L772" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M772" t="n">
-        <v>7000</v>
+        <v>9261</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>389</v>
+        <v>514</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="K773" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L773" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M773" t="n">
-        <v>7778</v>
+        <v>6239</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -56081,24 +56081,24 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>4800</v>
+        <v>50</v>
       </c>
       <c r="K774" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L774" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="M774" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
@@ -56107,10 +56107,10 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>125</v>
+        <v>306</v>
       </c>
       <c r="Q774" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56148,25 +56148,25 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K775" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L775" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M775" t="n">
-        <v>6000</v>
+        <v>8738</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>333</v>
+        <v>485</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56220,41 +56220,41 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>4700</v>
+        <v>80</v>
       </c>
       <c r="K776" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L776" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M776" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="Q776" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56297,36 +56297,36 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>4000</v>
+        <v>176</v>
       </c>
       <c r="K777" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="L777" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="M777" t="n">
-        <v>1500</v>
+        <v>7778</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="Q777" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E778" t="n">
         <v>5</v>
@@ -56364,41 +56364,41 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>165</v>
+        <v>4800</v>
       </c>
       <c r="K778" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L778" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="M778" t="n">
-        <v>7258</v>
+        <v>2500</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>403</v>
+        <v>125</v>
       </c>
       <c r="Q778" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E779" t="n">
         <v>5</v>
@@ -56441,20 +56441,20 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K779" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L779" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M779" t="n">
-        <v>4633</v>
+        <v>6000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E780" t="n">
         <v>5</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>8500</v>
+        <v>4700</v>
       </c>
       <c r="K780" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L780" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M780" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q780" t="n">
         <v>20</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E781" t="n">
         <v>5</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>8800</v>
+        <v>4000</v>
       </c>
       <c r="K781" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L781" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M781" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,12 +56611,300 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q781" t="n">
         <v>20</v>
       </c>
       <c r="R781" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>3</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D782" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E782" t="n">
+        <v>5</v>
+      </c>
+      <c r="F782" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J782" t="n">
+        <v>165</v>
+      </c>
+      <c r="K782" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L782" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M782" t="n">
+        <v>7258</v>
+      </c>
+      <c r="N782" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O782" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P782" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q782" t="n">
+        <v>18</v>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>3</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D783" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E783" t="n">
+        <v>5</v>
+      </c>
+      <c r="F783" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J783" t="n">
+        <v>135</v>
+      </c>
+      <c r="K783" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L783" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M783" t="n">
+        <v>4633</v>
+      </c>
+      <c r="N783" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O783" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P783" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q783" t="n">
+        <v>18</v>
+      </c>
+      <c r="R783" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>3</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D784" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E784" t="n">
+        <v>5</v>
+      </c>
+      <c r="F784" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J784" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K784" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L784" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M784" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N784" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O784" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P784" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q784" t="n">
+        <v>20</v>
+      </c>
+      <c r="R784" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>3</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D785" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E785" t="n">
+        <v>5</v>
+      </c>
+      <c r="F785" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J785" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K785" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L785" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M785" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N785" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O785" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P785" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>20</v>
+      </c>
+      <c r="R785" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R785"/>
+  <dimension ref="A1:R788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K677" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L677" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M677" t="n">
-        <v>7265</v>
+        <v>4500</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>404</v>
+        <v>250</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49169,24 +49169,24 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>175</v>
+        <v>6500</v>
       </c>
       <c r="K678" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L678" t="n">
-        <v>4800</v>
+        <v>2500</v>
       </c>
       <c r="M678" t="n">
-        <v>4654</v>
+        <v>2500</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -49195,10 +49195,10 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="Q678" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>12800</v>
+        <v>6600</v>
       </c>
       <c r="K679" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L679" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="M679" t="n">
-        <v>3648</v>
+        <v>1500</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="Q679" t="n">
         <v>20</v>
@@ -49308,25 +49308,25 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="K680" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L680" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M680" t="n">
-        <v>4000</v>
+        <v>7265</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>222</v>
+        <v>404</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49385,24 +49385,24 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>11600</v>
+        <v>175</v>
       </c>
       <c r="K681" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L681" t="n">
-        <v>2800</v>
+        <v>4800</v>
       </c>
       <c r="M681" t="n">
-        <v>2650</v>
+        <v>4654</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -49411,10 +49411,10 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="Q681" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49452,41 +49452,41 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>115</v>
+        <v>12800</v>
       </c>
       <c r="K682" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L682" t="n">
-        <v>9000</v>
+        <v>3800</v>
       </c>
       <c r="M682" t="n">
-        <v>8761</v>
+        <v>3648</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>487</v>
+        <v>182</v>
       </c>
       <c r="Q682" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="K683" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L683" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M683" t="n">
-        <v>4646</v>
+        <v>4000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49601,24 +49601,24 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>90</v>
+        <v>11600</v>
       </c>
       <c r="K684" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L684" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M684" t="n">
-        <v>4000</v>
+        <v>2650</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -49627,10 +49627,10 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="Q684" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K685" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L685" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M685" t="n">
-        <v>7262</v>
+        <v>8761</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>403</v>
+        <v>487</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="K686" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L686" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M686" t="n">
-        <v>5242</v>
+        <v>4646</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49812,25 +49812,25 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K687" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L687" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M687" t="n">
-        <v>7240</v>
+        <v>4000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>402</v>
+        <v>222</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49884,25 +49884,25 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K688" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L688" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M688" t="n">
-        <v>4731</v>
+        <v>7262</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49961,36 +49961,36 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>11300</v>
+        <v>155</v>
       </c>
       <c r="K689" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L689" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M689" t="n">
-        <v>4757</v>
+        <v>5242</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="Q689" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E690" t="n">
         <v>5</v>
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="K690" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L690" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M690" t="n">
-        <v>8750</v>
+        <v>7240</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50109,7 +50109,7 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K691" t="n">
         <v>4500</v>
@@ -50118,7 +50118,7 @@
         <v>5000</v>
       </c>
       <c r="M691" t="n">
-        <v>4765</v>
+        <v>4731</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50172,41 +50172,41 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>85</v>
+        <v>11300</v>
       </c>
       <c r="K692" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L692" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M692" t="n">
-        <v>9235</v>
+        <v>4757</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>616</v>
+        <v>238</v>
       </c>
       <c r="Q692" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -50244,41 +50244,41 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>5500</v>
+        <v>160</v>
       </c>
       <c r="K693" t="n">
-        <v>2500</v>
+        <v>8500</v>
       </c>
       <c r="L693" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="M693" t="n">
-        <v>2500</v>
+        <v>8750</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>125</v>
+        <v>486</v>
       </c>
       <c r="Q693" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -50321,24 +50321,24 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J694" t="n">
+        <v>170</v>
+      </c>
+      <c r="K694" t="n">
         <v>4500</v>
       </c>
-      <c r="K694" t="n">
-        <v>1900</v>
-      </c>
       <c r="L694" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M694" t="n">
-        <v>1900</v>
+        <v>4765</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -50347,10 +50347,10 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="Q694" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -50393,36 +50393,36 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K695" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L695" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="M695" t="n">
-        <v>8211</v>
+        <v>9235</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>456</v>
+        <v>616</v>
       </c>
       <c r="Q695" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E696" t="n">
         <v>5</v>
@@ -50465,36 +50465,36 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>80</v>
+        <v>5500</v>
       </c>
       <c r="K696" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="L696" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="M696" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>417</v>
+        <v>125</v>
       </c>
       <c r="Q696" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E697" t="n">
         <v>5</v>
@@ -50537,36 +50537,36 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>120</v>
+        <v>4500</v>
       </c>
       <c r="K697" t="n">
-        <v>8000</v>
+        <v>1900</v>
       </c>
       <c r="L697" t="n">
-        <v>8000</v>
+        <v>1900</v>
       </c>
       <c r="M697" t="n">
-        <v>8000</v>
+        <v>1900</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>444</v>
+        <v>95</v>
       </c>
       <c r="Q697" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50604,41 +50604,41 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>14050</v>
+        <v>95</v>
       </c>
       <c r="K698" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="L698" t="n">
-        <v>2700</v>
+        <v>8500</v>
       </c>
       <c r="M698" t="n">
-        <v>2607</v>
+        <v>8211</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>130</v>
+        <v>456</v>
       </c>
       <c r="Q698" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50681,36 +50681,36 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>7550</v>
+        <v>80</v>
       </c>
       <c r="K699" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L699" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M699" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>100</v>
+        <v>417</v>
       </c>
       <c r="Q699" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -50748,25 +50748,25 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K700" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L700" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M700" t="n">
-        <v>6761</v>
+        <v>8000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50825,36 +50825,36 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>140</v>
+        <v>14050</v>
       </c>
       <c r="K701" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L701" t="n">
-        <v>4800</v>
+        <v>2700</v>
       </c>
       <c r="M701" t="n">
-        <v>4650</v>
+        <v>2607</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="Q701" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>6000</v>
+        <v>7550</v>
       </c>
       <c r="K702" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L702" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M702" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="Q702" t="n">
         <v>20</v>
@@ -50964,41 +50964,41 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>5800</v>
+        <v>115</v>
       </c>
       <c r="K703" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L703" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M703" t="n">
-        <v>3500</v>
+        <v>6761</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>175</v>
+        <v>376</v>
       </c>
       <c r="Q703" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="K704" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L704" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M704" t="n">
-        <v>8737</v>
+        <v>4650</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>485</v>
+        <v>258</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -51108,41 +51108,41 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>110</v>
+        <v>6000</v>
       </c>
       <c r="K705" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L705" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M705" t="n">
-        <v>7727</v>
+        <v>4500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>429</v>
+        <v>225</v>
       </c>
       <c r="Q705" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51185,36 +51185,36 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>130</v>
+        <v>5800</v>
       </c>
       <c r="K706" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L706" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="M706" t="n">
-        <v>4638</v>
+        <v>3500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="Q706" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E707" t="n">
         <v>5</v>
@@ -51252,41 +51252,41 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>11100</v>
+        <v>95</v>
       </c>
       <c r="K707" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L707" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M707" t="n">
-        <v>3748</v>
+        <v>8737</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>187</v>
+        <v>485</v>
       </c>
       <c r="Q707" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51324,25 +51324,25 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K708" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L708" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M708" t="n">
-        <v>4000</v>
+        <v>7727</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>222</v>
+        <v>429</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51401,36 +51401,36 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>5500</v>
+        <v>130</v>
       </c>
       <c r="K709" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L709" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="M709" t="n">
-        <v>2000</v>
+        <v>4638</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="Q709" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E710" t="n">
         <v>5</v>
@@ -51468,41 +51468,41 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>130</v>
+        <v>11100</v>
       </c>
       <c r="K710" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L710" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M710" t="n">
-        <v>8269</v>
+        <v>3748</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>459</v>
+        <v>187</v>
       </c>
       <c r="Q710" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K711" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L711" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M711" t="n">
-        <v>4674</v>
+        <v>4000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="K712" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L712" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M712" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="Q712" t="n">
         <v>20</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K713" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L713" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M713" t="n">
-        <v>4000</v>
+        <v>8269</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51761,24 +51761,24 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>7500</v>
+        <v>155</v>
       </c>
       <c r="K714" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L714" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="M714" t="n">
-        <v>3500</v>
+        <v>4674</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
@@ -51787,10 +51787,10 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="Q714" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51828,41 +51828,41 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>160</v>
+        <v>7500</v>
       </c>
       <c r="K715" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L715" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M715" t="n">
-        <v>7250</v>
+        <v>4500</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>403</v>
+        <v>225</v>
       </c>
       <c r="Q715" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K716" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L716" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M716" t="n">
-        <v>4650</v>
+        <v>4000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51977,24 +51977,24 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>70</v>
+        <v>7500</v>
       </c>
       <c r="K717" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L717" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M717" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
@@ -52003,10 +52003,10 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="Q717" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K718" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L718" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M718" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -52121,24 +52121,24 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>13000</v>
+        <v>160</v>
       </c>
       <c r="K719" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="L719" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M719" t="n">
-        <v>2900</v>
+        <v>4650</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
@@ -52147,10 +52147,10 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="Q719" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -52193,24 +52193,24 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>12300</v>
+        <v>70</v>
       </c>
       <c r="K720" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L720" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="M720" t="n">
-        <v>2134</v>
+        <v>4000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
@@ -52219,10 +52219,10 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="Q720" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52260,41 +52260,41 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>6500</v>
+        <v>80</v>
       </c>
       <c r="K721" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="L721" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="M721" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>75</v>
+        <v>472</v>
       </c>
       <c r="Q721" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E722" t="n">
         <v>5</v>
@@ -52332,41 +52332,41 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>135</v>
+        <v>13000</v>
       </c>
       <c r="K722" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="L722" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M722" t="n">
-        <v>6241</v>
+        <v>2900</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="Q722" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E723" t="n">
         <v>5</v>
@@ -52409,24 +52409,24 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>73</v>
+        <v>12300</v>
       </c>
       <c r="K723" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L723" t="n">
-        <v>4800</v>
+        <v>2300</v>
       </c>
       <c r="M723" t="n">
-        <v>4656</v>
+        <v>2134</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
@@ -52435,10 +52435,10 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>259</v>
+        <v>107</v>
       </c>
       <c r="Q723" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E724" t="n">
         <v>5</v>
@@ -52481,24 +52481,24 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>60</v>
+        <v>6500</v>
       </c>
       <c r="K724" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L724" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M724" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
@@ -52507,10 +52507,10 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Q724" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E725" t="n">
         <v>5</v>
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>900</v>
+        <v>135</v>
       </c>
       <c r="K725" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="L725" t="n">
-        <v>700</v>
+        <v>6500</v>
       </c>
       <c r="M725" t="n">
-        <v>700</v>
+        <v>6241</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E726" t="n">
         <v>5</v>
@@ -52629,16 +52629,16 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="K726" t="n">
         <v>4500</v>
       </c>
       <c r="L726" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M726" t="n">
-        <v>4769</v>
+        <v>4656</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E727" t="n">
         <v>5</v>
@@ -52692,25 +52692,25 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="K727" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L727" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M727" t="n">
-        <v>8742</v>
+        <v>4000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>486</v>
+        <v>222</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E728" t="n">
         <v>5</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>220</v>
+        <v>900</v>
       </c>
       <c r="K728" t="n">
-        <v>4800</v>
+        <v>700</v>
       </c>
       <c r="L728" t="n">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="M728" t="n">
-        <v>4900</v>
+        <v>700</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E729" t="n">
         <v>5</v>
@@ -52841,36 +52841,36 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>14500</v>
+        <v>130</v>
       </c>
       <c r="K729" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L729" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M729" t="n">
-        <v>4410</v>
+        <v>4769</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="Q729" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52908,25 +52908,25 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="K730" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L730" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M730" t="n">
-        <v>4000</v>
+        <v>8742</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>222</v>
+        <v>486</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52985,24 +52985,24 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>8500</v>
+        <v>220</v>
       </c>
       <c r="K731" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="L731" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M731" t="n">
-        <v>3500</v>
+        <v>4900</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
@@ -53011,10 +53011,10 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="Q731" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -53052,41 +53052,41 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>105</v>
+        <v>14500</v>
       </c>
       <c r="K732" t="n">
-        <v>7500</v>
+        <v>4300</v>
       </c>
       <c r="L732" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M732" t="n">
-        <v>7762</v>
+        <v>4410</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>431</v>
+        <v>220</v>
       </c>
       <c r="Q732" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K733" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L733" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M733" t="n">
-        <v>5250</v>
+        <v>4000</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -53201,24 +53201,24 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>80</v>
+        <v>8500</v>
       </c>
       <c r="K734" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L734" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M734" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
@@ -53227,10 +53227,10 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q734" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -53277,16 +53277,16 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K735" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L735" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M735" t="n">
-        <v>9265</v>
+        <v>7762</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>515</v>
+        <v>431</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -53349,16 +53349,16 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K736" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L736" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M736" t="n">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -53424,13 +53424,13 @@
         <v>80</v>
       </c>
       <c r="K737" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L737" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M737" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="K738" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L738" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M738" t="n">
-        <v>7214</v>
+        <v>9265</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>401</v>
+        <v>515</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K739" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L739" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M739" t="n">
-        <v>5214</v>
+        <v>6000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -53628,25 +53628,25 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K740" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L740" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M740" t="n">
-        <v>8750</v>
+        <v>5000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>486</v>
+        <v>278</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E741" t="n">
         <v>5</v>
@@ -53700,25 +53700,25 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K741" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L741" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M741" t="n">
-        <v>6000</v>
+        <v>7214</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E742" t="n">
         <v>5</v>
@@ -53772,25 +53772,25 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K742" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L742" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M742" t="n">
-        <v>8761</v>
+        <v>5214</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>487</v>
+        <v>290</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E743" t="n">
         <v>5</v>
@@ -53849,20 +53849,20 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K743" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L743" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M743" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E744" t="n">
         <v>5</v>
@@ -53925,16 +53925,16 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K744" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L744" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M744" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E745" t="n">
         <v>5</v>
@@ -53997,16 +53997,16 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K745" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L745" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M745" t="n">
-        <v>7227</v>
+        <v>8761</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>402</v>
+        <v>487</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E746" t="n">
         <v>5</v>
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K746" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L746" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M746" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="Q746" t="n">
         <v>18</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E747" t="n">
         <v>5</v>
@@ -54137,24 +54137,24 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J747" t="n">
+        <v>110</v>
+      </c>
+      <c r="K747" t="n">
         <v>6500</v>
       </c>
-      <c r="K747" t="n">
-        <v>3000</v>
-      </c>
       <c r="L747" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M747" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
@@ -54163,10 +54163,10 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="Q747" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54204,41 +54204,41 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>6500</v>
+        <v>110</v>
       </c>
       <c r="K748" t="n">
-        <v>2200</v>
+        <v>7000</v>
       </c>
       <c r="L748" t="n">
-        <v>2200</v>
+        <v>7500</v>
       </c>
       <c r="M748" t="n">
-        <v>2200</v>
+        <v>7227</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>110</v>
+        <v>402</v>
       </c>
       <c r="Q748" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54276,41 +54276,41 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>6800</v>
+        <v>65</v>
       </c>
       <c r="K749" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="L749" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="M749" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="Q749" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54353,36 +54353,36 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K750" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L750" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M750" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>361</v>
+        <v>150</v>
       </c>
       <c r="Q750" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -54420,41 +54420,41 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>105</v>
+        <v>6500</v>
       </c>
       <c r="K751" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="L751" t="n">
-        <v>8500</v>
+        <v>2200</v>
       </c>
       <c r="M751" t="n">
-        <v>8262</v>
+        <v>2200</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>459</v>
+        <v>110</v>
       </c>
       <c r="Q751" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -54497,36 +54497,36 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>145</v>
+        <v>6800</v>
       </c>
       <c r="K752" t="n">
-        <v>4800</v>
+        <v>1500</v>
       </c>
       <c r="L752" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="M752" t="n">
-        <v>4897</v>
+        <v>1500</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="Q752" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E753" t="n">
         <v>5</v>
@@ -54569,20 +54569,20 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K753" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L753" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M753" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -54645,16 +54645,16 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K754" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L754" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M754" t="n">
-        <v>6808</v>
+        <v>8262</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>378</v>
+        <v>459</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E755" t="n">
         <v>5</v>
@@ -54720,13 +54720,13 @@
         <v>145</v>
       </c>
       <c r="K755" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="L755" t="n">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="M755" t="n">
-        <v>4603</v>
+        <v>4897</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E756" t="n">
         <v>5</v>
@@ -54789,7 +54789,7 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K756" t="n">
         <v>4000</v>
@@ -54807,7 +54807,7 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P756" t="n">
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E757" t="n">
         <v>5</v>
@@ -54861,16 +54861,16 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K757" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L757" t="n">
         <v>7000</v>
       </c>
       <c r="M757" t="n">
-        <v>7000</v>
+        <v>6808</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="Q757" t="n">
         <v>18</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E758" t="n">
         <v>5</v>
@@ -54924,25 +54924,25 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K758" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L758" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="M758" t="n">
-        <v>6000</v>
+        <v>4603</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K759" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L759" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M759" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q759" t="n">
         <v>18</v>
@@ -55068,41 +55068,41 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>11000</v>
+        <v>45</v>
       </c>
       <c r="K760" t="n">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="L760" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M760" t="n">
-        <v>2950</v>
+        <v>7000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>148</v>
+        <v>389</v>
       </c>
       <c r="Q760" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55140,41 +55140,41 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J761" t="n">
+        <v>50</v>
+      </c>
+      <c r="K761" t="n">
         <v>6000</v>
       </c>
-      <c r="K761" t="n">
-        <v>2100</v>
-      </c>
       <c r="L761" t="n">
-        <v>2100</v>
+        <v>6000</v>
       </c>
       <c r="M761" t="n">
-        <v>2100</v>
+        <v>6000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="Q761" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K762" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L762" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M762" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E763" t="n">
         <v>5</v>
@@ -55284,41 +55284,41 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>128</v>
+        <v>11000</v>
       </c>
       <c r="K763" t="n">
-        <v>8500</v>
+        <v>2900</v>
       </c>
       <c r="L763" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M763" t="n">
-        <v>8734</v>
+        <v>2950</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>485</v>
+        <v>148</v>
       </c>
       <c r="Q763" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R763" t="inlineStr">
         <is>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E764" t="n">
         <v>5</v>
@@ -55361,24 +55361,24 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>170</v>
+        <v>6000</v>
       </c>
       <c r="K764" t="n">
-        <v>5500</v>
+        <v>2100</v>
       </c>
       <c r="L764" t="n">
-        <v>5800</v>
+        <v>2100</v>
       </c>
       <c r="M764" t="n">
-        <v>5641</v>
+        <v>2100</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
@@ -55387,10 +55387,10 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="Q764" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -55428,7 +55428,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -55437,16 +55437,16 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K765" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L765" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M765" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="K766" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L766" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M766" t="n">
-        <v>7000</v>
+        <v>8734</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55581,16 +55581,16 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="K767" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L767" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="M767" t="n">
-        <v>6279</v>
+        <v>5641</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55644,25 +55644,25 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="K768" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L768" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M768" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K769" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L769" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M769" t="n">
-        <v>8261</v>
+        <v>7000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E770" t="n">
         <v>5</v>
@@ -55797,16 +55797,16 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="K770" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L770" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M770" t="n">
-        <v>4650</v>
+        <v>6279</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>258</v>
+        <v>349</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E771" t="n">
         <v>5</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="K771" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L771" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M771" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55944,13 +55944,13 @@
         <v>115</v>
       </c>
       <c r="K772" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L772" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M772" t="n">
-        <v>9261</v>
+        <v>8261</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K773" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L773" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M773" t="n">
-        <v>6239</v>
+        <v>4650</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -56088,13 +56088,13 @@
         <v>50</v>
       </c>
       <c r="K774" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L774" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M774" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -56157,16 +56157,16 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="K775" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L775" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M775" t="n">
-        <v>8738</v>
+        <v>9261</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -56220,25 +56220,25 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K776" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L776" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M776" t="n">
-        <v>7000</v>
+        <v>6239</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="K777" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L777" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M777" t="n">
-        <v>7778</v>
+        <v>5500</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56364,41 +56364,41 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>4800</v>
+        <v>143</v>
       </c>
       <c r="K778" t="n">
-        <v>2500</v>
+        <v>8500</v>
       </c>
       <c r="L778" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="M778" t="n">
-        <v>2500</v>
+        <v>8738</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>125</v>
+        <v>485</v>
       </c>
       <c r="Q778" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56436,25 +56436,25 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K779" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L779" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M779" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56513,36 +56513,36 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>4700</v>
+        <v>176</v>
       </c>
       <c r="K780" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L780" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M780" t="n">
-        <v>2000</v>
+        <v>7778</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>100</v>
+        <v>432</v>
       </c>
       <c r="Q780" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="K781" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L781" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M781" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q781" t="n">
         <v>20</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
@@ -56652,25 +56652,25 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="K782" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L782" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M782" t="n">
-        <v>7258</v>
+        <v>6000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E783" t="n">
         <v>5</v>
@@ -56729,24 +56729,24 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>135</v>
+        <v>4700</v>
       </c>
       <c r="K783" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L783" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M783" t="n">
-        <v>4633</v>
+        <v>2000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O783" t="inlineStr">
@@ -56755,10 +56755,10 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="Q783" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R783" t="inlineStr">
         <is>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E784" t="n">
         <v>5</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="K784" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L784" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M784" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q784" t="n">
         <v>20</v>
@@ -56868,43 +56868,259 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J785" t="n">
+        <v>165</v>
+      </c>
+      <c r="K785" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L785" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M785" t="n">
+        <v>7258</v>
+      </c>
+      <c r="N785" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O785" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P785" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>18</v>
+      </c>
+      <c r="R785" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>3</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D786" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E786" t="n">
+        <v>5</v>
+      </c>
+      <c r="F786" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I785" t="inlineStr">
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J786" t="n">
+        <v>135</v>
+      </c>
+      <c r="K786" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L786" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M786" t="n">
+        <v>4633</v>
+      </c>
+      <c r="N786" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O786" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P786" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q786" t="n">
+        <v>18</v>
+      </c>
+      <c r="R786" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>3</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D787" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E787" t="n">
+        <v>5</v>
+      </c>
+      <c r="F787" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J787" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K787" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L787" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M787" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N787" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O787" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P787" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q787" t="n">
+        <v>20</v>
+      </c>
+      <c r="R787" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>3</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D788" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E788" t="n">
+        <v>5</v>
+      </c>
+      <c r="F788" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J785" t="n">
+      <c r="J788" t="n">
         <v>8800</v>
       </c>
-      <c r="K785" t="n">
+      <c r="K788" t="n">
         <v>2000</v>
       </c>
-      <c r="L785" t="n">
+      <c r="L788" t="n">
         <v>2000</v>
       </c>
-      <c r="M785" t="n">
+      <c r="M788" t="n">
         <v>2000</v>
       </c>
-      <c r="N785" t="inlineStr">
+      <c r="N788" t="inlineStr">
         <is>
           <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O785" t="inlineStr">
+      <c r="O788" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P785" t="n">
+      <c r="P788" t="n">
         <v>100</v>
       </c>
-      <c r="Q785" t="n">
+      <c r="Q788" t="n">
         <v>20</v>
       </c>
-      <c r="R785" t="inlineStr">
+      <c r="R788" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R788"/>
+  <dimension ref="A1:R794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="K629" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L629" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M629" t="n">
-        <v>6741</v>
+        <v>6000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="K630" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L630" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M630" t="n">
-        <v>5258</v>
+        <v>4240</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45780,25 +45780,25 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K631" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L631" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M631" t="n">
-        <v>7239</v>
+        <v>4000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>402</v>
+        <v>222</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45857,24 +45857,24 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>155</v>
+        <v>11100</v>
       </c>
       <c r="K632" t="n">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="L632" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M632" t="n">
-        <v>4758</v>
+        <v>2399</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -45883,10 +45883,10 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="Q632" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44323</v>
+        <v>44508</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45924,25 +45924,25 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K633" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L633" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M633" t="n">
-        <v>8773</v>
+        <v>3500</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>487</v>
+        <v>194</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44323</v>
+        <v>44508</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46001,24 +46001,24 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>110</v>
+        <v>5500</v>
       </c>
       <c r="K634" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="L634" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="M634" t="n">
-        <v>5773</v>
+        <v>1500</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -46027,10 +46027,10 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>321</v>
+        <v>75</v>
       </c>
       <c r="Q634" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="K635" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L635" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M635" t="n">
-        <v>4500</v>
+        <v>6741</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46140,25 +46140,25 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="K636" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L636" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M636" t="n">
-        <v>9262</v>
+        <v>5258</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>515</v>
+        <v>292</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46212,25 +46212,25 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K637" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L637" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M637" t="n">
-        <v>6258</v>
+        <v>7239</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K638" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L638" t="n">
         <v>5000</v>
       </c>
       <c r="M638" t="n">
-        <v>5000</v>
+        <v>4758</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K639" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L639" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M639" t="n">
-        <v>7500</v>
+        <v>8773</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>417</v>
+        <v>487</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46428,25 +46428,25 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K640" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L640" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M640" t="n">
-        <v>6500</v>
+        <v>5773</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46505,24 +46505,24 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>13300</v>
+        <v>68</v>
       </c>
       <c r="K641" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L641" t="n">
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="M641" t="n">
-        <v>3051</v>
+        <v>4500</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -46531,10 +46531,10 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="Q641" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46572,41 +46572,41 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>6500</v>
+        <v>105</v>
       </c>
       <c r="K642" t="n">
-        <v>2100</v>
+        <v>9000</v>
       </c>
       <c r="L642" t="n">
-        <v>2100</v>
+        <v>9500</v>
       </c>
       <c r="M642" t="n">
-        <v>2100</v>
+        <v>9262</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>105</v>
+        <v>515</v>
       </c>
       <c r="Q642" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46649,24 +46649,24 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>1300</v>
+        <v>165</v>
       </c>
       <c r="K643" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="L643" t="n">
-        <v>1300</v>
+        <v>6500</v>
       </c>
       <c r="M643" t="n">
-        <v>1300</v>
+        <v>6258</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -46675,10 +46675,10 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="Q643" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K644" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L644" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M644" t="n">
-        <v>7727</v>
+        <v>5000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>429</v>
+        <v>278</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46788,25 +46788,25 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K645" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L645" t="n">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="M645" t="n">
-        <v>4607</v>
+        <v>7500</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46860,25 +46860,25 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K646" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L646" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M646" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46932,41 +46932,41 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>75</v>
+        <v>13300</v>
       </c>
       <c r="K647" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L647" t="n">
-        <v>8000</v>
+        <v>3100</v>
       </c>
       <c r="M647" t="n">
-        <v>7733</v>
+        <v>3051</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>430</v>
+        <v>153</v>
       </c>
       <c r="Q647" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47004,41 +47004,41 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>40</v>
+        <v>6500</v>
       </c>
       <c r="K648" t="n">
-        <v>6500</v>
+        <v>2100</v>
       </c>
       <c r="L648" t="n">
-        <v>6500</v>
+        <v>2100</v>
       </c>
       <c r="M648" t="n">
-        <v>6500</v>
+        <v>2100</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="Q648" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>12500</v>
+        <v>1300</v>
       </c>
       <c r="K649" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="L649" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M649" t="n">
-        <v>2904</v>
+        <v>1300</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="Q649" t="n">
         <v>20</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47148,41 +47148,41 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>5800</v>
+        <v>110</v>
       </c>
       <c r="K650" t="n">
-        <v>2200</v>
+        <v>7500</v>
       </c>
       <c r="L650" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="M650" t="n">
-        <v>2200</v>
+        <v>7727</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>110</v>
+        <v>429</v>
       </c>
       <c r="Q650" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,24 +47225,24 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>5800</v>
+        <v>150</v>
       </c>
       <c r="K651" t="n">
-        <v>1300</v>
+        <v>4500</v>
       </c>
       <c r="L651" t="n">
-        <v>1300</v>
+        <v>4700</v>
       </c>
       <c r="M651" t="n">
-        <v>1300</v>
+        <v>4607</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -47251,10 +47251,10 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="Q651" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K652" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L652" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M652" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K653" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L653" t="n">
         <v>8000</v>
       </c>
       <c r="M653" t="n">
-        <v>8000</v>
+        <v>7733</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47436,25 +47436,25 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K654" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="L654" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M654" t="n">
-        <v>4891</v>
+        <v>6500</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47517,16 +47517,16 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>8400</v>
+        <v>12500</v>
       </c>
       <c r="K655" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L655" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M655" t="n">
-        <v>4000</v>
+        <v>2904</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q655" t="n">
         <v>20</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>8500</v>
+        <v>5800</v>
       </c>
       <c r="K656" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L656" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M656" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q656" t="n">
         <v>20</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47652,41 +47652,41 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>95</v>
+        <v>5800</v>
       </c>
       <c r="K657" t="n">
-        <v>8000</v>
+        <v>1300</v>
       </c>
       <c r="L657" t="n">
-        <v>8500</v>
+        <v>1300</v>
       </c>
       <c r="M657" t="n">
-        <v>8237</v>
+        <v>1300</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>458</v>
+        <v>65</v>
       </c>
       <c r="Q657" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47729,36 +47729,36 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="K658" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L658" t="n">
         <v>7000</v>
       </c>
       <c r="M658" t="n">
-        <v>6735</v>
+        <v>7000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>449</v>
+        <v>389</v>
       </c>
       <c r="Q658" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47796,41 +47796,41 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>11000</v>
+        <v>60</v>
       </c>
       <c r="K659" t="n">
-        <v>2800</v>
+        <v>8000</v>
       </c>
       <c r="L659" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M659" t="n">
-        <v>2900</v>
+        <v>8000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="Q659" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47873,24 +47873,24 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>6500</v>
+        <v>110</v>
       </c>
       <c r="K660" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="L660" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M660" t="n">
-        <v>2000</v>
+        <v>4891</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -47899,10 +47899,10 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="Q660" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47940,7 +47940,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -47949,32 +47949,32 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>50</v>
+        <v>8400</v>
       </c>
       <c r="K661" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L661" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M661" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="Q661" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48017,24 +48017,24 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>175</v>
+        <v>8500</v>
       </c>
       <c r="K662" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L662" t="n">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="M662" t="n">
-        <v>4597</v>
+        <v>2500</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
@@ -48043,10 +48043,10 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="Q662" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48084,41 +48084,41 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>7500</v>
+        <v>95</v>
       </c>
       <c r="K663" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L663" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="M663" t="n">
-        <v>3000</v>
+        <v>8237</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>150</v>
+        <v>458</v>
       </c>
       <c r="Q663" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48161,24 +48161,24 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>8500</v>
+        <v>170</v>
       </c>
       <c r="K664" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L664" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M664" t="n">
-        <v>2000</v>
+        <v>6735</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -48187,10 +48187,10 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>100</v>
+        <v>449</v>
       </c>
       <c r="Q664" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48228,41 +48228,41 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>100</v>
+        <v>11000</v>
       </c>
       <c r="K665" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="L665" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M665" t="n">
-        <v>8000</v>
+        <v>2900</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>444</v>
+        <v>145</v>
       </c>
       <c r="Q665" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48305,24 +48305,24 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>180</v>
+        <v>6500</v>
       </c>
       <c r="K666" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L666" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M666" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -48331,10 +48331,10 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="Q666" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K667" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L667" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M667" t="n">
-        <v>3920</v>
+        <v>6000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>218</v>
+        <v>333</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K668" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L668" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="M668" t="n">
-        <v>6769</v>
+        <v>4597</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>376</v>
+        <v>255</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48521,24 +48521,24 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>130</v>
+        <v>7500</v>
       </c>
       <c r="K669" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L669" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="M669" t="n">
-        <v>4638</v>
+        <v>3000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -48547,10 +48547,10 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="Q669" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48593,24 +48593,24 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>80</v>
+        <v>8500</v>
       </c>
       <c r="K670" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L670" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M670" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -48619,10 +48619,10 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="Q670" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48669,16 +48669,16 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K671" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L671" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M671" t="n">
-        <v>7238</v>
+        <v>8000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K672" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L672" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M672" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E673" t="n">
         <v>5</v>
@@ -48809,24 +48809,24 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>5800</v>
+        <v>200</v>
       </c>
       <c r="K673" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L673" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M673" t="n">
-        <v>3000</v>
+        <v>3920</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -48835,10 +48835,10 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="Q673" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48876,41 +48876,41 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>11100</v>
+        <v>130</v>
       </c>
       <c r="K674" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L674" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="M674" t="n">
-        <v>2050</v>
+        <v>6769</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>102</v>
+        <v>376</v>
       </c>
       <c r="Q674" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48953,24 +48953,24 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>5400</v>
+        <v>130</v>
       </c>
       <c r="K675" t="n">
-        <v>1300</v>
+        <v>4500</v>
       </c>
       <c r="L675" t="n">
-        <v>1300</v>
+        <v>4800</v>
       </c>
       <c r="M675" t="n">
-        <v>1300</v>
+        <v>4638</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -48979,10 +48979,10 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>65</v>
+        <v>258</v>
       </c>
       <c r="Q675" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K676" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L676" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M676" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K677" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L677" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M677" t="n">
-        <v>4500</v>
+        <v>7238</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>250</v>
+        <v>402</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49169,24 +49169,24 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>6500</v>
+        <v>50</v>
       </c>
       <c r="K678" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L678" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M678" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -49195,10 +49195,10 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>125</v>
+        <v>389</v>
       </c>
       <c r="Q678" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="K679" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L679" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M679" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="Q679" t="n">
         <v>20</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E680" t="n">
         <v>5</v>
@@ -49308,41 +49308,41 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>170</v>
+        <v>11100</v>
       </c>
       <c r="K680" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="L680" t="n">
-        <v>7500</v>
+        <v>2100</v>
       </c>
       <c r="M680" t="n">
-        <v>7265</v>
+        <v>2050</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>404</v>
+        <v>102</v>
       </c>
       <c r="Q680" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49385,24 +49385,24 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>175</v>
+        <v>5400</v>
       </c>
       <c r="K681" t="n">
-        <v>4500</v>
+        <v>1300</v>
       </c>
       <c r="L681" t="n">
-        <v>4800</v>
+        <v>1300</v>
       </c>
       <c r="M681" t="n">
-        <v>4654</v>
+        <v>1300</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -49411,10 +49411,10 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="Q681" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49457,36 +49457,36 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>12800</v>
+        <v>120</v>
       </c>
       <c r="K682" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L682" t="n">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="M682" t="n">
-        <v>3648</v>
+        <v>7000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>182</v>
+        <v>389</v>
       </c>
       <c r="Q682" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K683" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L683" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M683" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>11600</v>
+        <v>6500</v>
       </c>
       <c r="K684" t="n">
         <v>2500</v>
       </c>
       <c r="L684" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M684" t="n">
-        <v>2650</v>
+        <v>2500</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q684" t="n">
         <v>20</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -49668,41 +49668,41 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>115</v>
+        <v>6600</v>
       </c>
       <c r="K685" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="L685" t="n">
-        <v>9000</v>
+        <v>1500</v>
       </c>
       <c r="M685" t="n">
-        <v>8761</v>
+        <v>1500</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>487</v>
+        <v>75</v>
       </c>
       <c r="Q685" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K686" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L686" t="n">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="M686" t="n">
-        <v>4646</v>
+        <v>7265</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>258</v>
+        <v>404</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="K687" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L687" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M687" t="n">
-        <v>4000</v>
+        <v>4654</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49884,41 +49884,41 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>105</v>
+        <v>12800</v>
       </c>
       <c r="K688" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L688" t="n">
-        <v>7500</v>
+        <v>3800</v>
       </c>
       <c r="M688" t="n">
-        <v>7262</v>
+        <v>3648</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>403</v>
+        <v>182</v>
       </c>
       <c r="Q688" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="K689" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L689" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M689" t="n">
-        <v>5242</v>
+        <v>4000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44370</v>
+        <v>44487</v>
       </c>
       <c r="E690" t="n">
         <v>5</v>
@@ -50028,41 +50028,41 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>125</v>
+        <v>11600</v>
       </c>
       <c r="K690" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L690" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="M690" t="n">
-        <v>7240</v>
+        <v>2650</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>402</v>
+        <v>132</v>
       </c>
       <c r="Q690" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K691" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L691" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M691" t="n">
-        <v>4731</v>
+        <v>8761</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>263</v>
+        <v>487</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50177,24 +50177,24 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>11300</v>
+        <v>175</v>
       </c>
       <c r="K692" t="n">
         <v>4500</v>
       </c>
       <c r="L692" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M692" t="n">
-        <v>4757</v>
+        <v>4646</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -50203,10 +50203,10 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="Q692" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -50244,25 +50244,25 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="K693" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L693" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M693" t="n">
-        <v>8750</v>
+        <v>4000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>486</v>
+        <v>222</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -50316,25 +50316,25 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="K694" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L694" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M694" t="n">
-        <v>4765</v>
+        <v>7262</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -50388,41 +50388,41 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K695" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L695" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M695" t="n">
-        <v>9235</v>
+        <v>5242</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>616</v>
+        <v>291</v>
       </c>
       <c r="Q695" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E696" t="n">
         <v>5</v>
@@ -50460,41 +50460,41 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>5500</v>
+        <v>125</v>
       </c>
       <c r="K696" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L696" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="M696" t="n">
-        <v>2500</v>
+        <v>7240</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>125</v>
+        <v>402</v>
       </c>
       <c r="Q696" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E697" t="n">
         <v>5</v>
@@ -50537,24 +50537,24 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J697" t="n">
+        <v>130</v>
+      </c>
+      <c r="K697" t="n">
         <v>4500</v>
       </c>
-      <c r="K697" t="n">
-        <v>1900</v>
-      </c>
       <c r="L697" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="M697" t="n">
-        <v>1900</v>
+        <v>4731</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -50563,10 +50563,10 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="Q697" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44175</v>
+        <v>44370</v>
       </c>
       <c r="E698" t="n">
         <v>5</v>
@@ -50604,41 +50604,41 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>95</v>
+        <v>11300</v>
       </c>
       <c r="K698" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L698" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M698" t="n">
-        <v>8211</v>
+        <v>4757</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>456</v>
+        <v>238</v>
       </c>
       <c r="Q698" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E699" t="n">
         <v>5</v>
@@ -50676,25 +50676,25 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K699" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L699" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M699" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K700" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L700" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M700" t="n">
-        <v>8000</v>
+        <v>4765</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>444</v>
+        <v>265</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50820,41 +50820,41 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>14050</v>
+        <v>85</v>
       </c>
       <c r="K701" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="L701" t="n">
-        <v>2700</v>
+        <v>9500</v>
       </c>
       <c r="M701" t="n">
-        <v>2607</v>
+        <v>9235</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>130</v>
+        <v>616</v>
       </c>
       <c r="Q701" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>7550</v>
+        <v>5500</v>
       </c>
       <c r="K702" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L702" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M702" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="Q702" t="n">
         <v>20</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -50964,41 +50964,41 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>115</v>
+        <v>4500</v>
       </c>
       <c r="K703" t="n">
-        <v>6500</v>
+        <v>1900</v>
       </c>
       <c r="L703" t="n">
-        <v>7000</v>
+        <v>1900</v>
       </c>
       <c r="M703" t="n">
-        <v>6761</v>
+        <v>1900</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>376</v>
+        <v>95</v>
       </c>
       <c r="Q703" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K704" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L704" t="n">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="M704" t="n">
-        <v>4650</v>
+        <v>8211</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>258</v>
+        <v>456</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -51113,36 +51113,36 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>6000</v>
+        <v>80</v>
       </c>
       <c r="K705" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L705" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="M705" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="Q705" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51185,36 +51185,36 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>5800</v>
+        <v>120</v>
       </c>
       <c r="K706" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L706" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M706" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>175</v>
+        <v>444</v>
       </c>
       <c r="Q706" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E707" t="n">
         <v>5</v>
@@ -51252,41 +51252,41 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>95</v>
+        <v>14050</v>
       </c>
       <c r="K707" t="n">
-        <v>8500</v>
+        <v>2500</v>
       </c>
       <c r="L707" t="n">
-        <v>9000</v>
+        <v>2700</v>
       </c>
       <c r="M707" t="n">
-        <v>8737</v>
+        <v>2607</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>485</v>
+        <v>130</v>
       </c>
       <c r="Q707" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E708" t="n">
         <v>5</v>
@@ -51324,41 +51324,41 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>110</v>
+        <v>7550</v>
       </c>
       <c r="K708" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="L708" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="M708" t="n">
-        <v>7727</v>
+        <v>2000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="Q708" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E709" t="n">
         <v>5</v>
@@ -51396,25 +51396,25 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K709" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L709" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M709" t="n">
-        <v>4638</v>
+        <v>6761</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>258</v>
+        <v>376</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E710" t="n">
         <v>5</v>
@@ -51473,36 +51473,36 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>11100</v>
+        <v>140</v>
       </c>
       <c r="K710" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L710" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M710" t="n">
-        <v>3748</v>
+        <v>4650</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="Q710" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51545,36 +51545,36 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>80</v>
+        <v>6000</v>
       </c>
       <c r="K711" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L711" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M711" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q711" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51621,16 +51621,16 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="K712" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L712" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M712" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="Q712" t="n">
         <v>20</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51693,16 +51693,16 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K713" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L713" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M713" t="n">
-        <v>8269</v>
+        <v>8737</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K714" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L714" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M714" t="n">
-        <v>4674</v>
+        <v>7727</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>260</v>
+        <v>429</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51833,36 +51833,36 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>7500</v>
+        <v>130</v>
       </c>
       <c r="K715" t="n">
         <v>4500</v>
       </c>
       <c r="L715" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M715" t="n">
-        <v>4500</v>
+        <v>4638</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="Q715" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51905,24 +51905,24 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>70</v>
+        <v>11100</v>
       </c>
       <c r="K716" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L716" t="n">
         <v>4000</v>
       </c>
       <c r="M716" t="n">
-        <v>4000</v>
+        <v>3748</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
@@ -51931,10 +51931,10 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="Q716" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51977,36 +51977,36 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="K717" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L717" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M717" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="Q717" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52044,41 +52044,41 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>160</v>
+        <v>5500</v>
       </c>
       <c r="K718" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="L718" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M718" t="n">
-        <v>7250</v>
+        <v>2000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>403</v>
+        <v>100</v>
       </c>
       <c r="Q718" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -52116,25 +52116,25 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K719" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L719" t="n">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="M719" t="n">
-        <v>4650</v>
+        <v>8269</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>258</v>
+        <v>459</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K720" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L720" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M720" t="n">
-        <v>4000</v>
+        <v>4674</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E721" t="n">
         <v>5</v>
@@ -52260,41 +52260,41 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="K721" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L721" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M721" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>472</v>
+        <v>225</v>
       </c>
       <c r="Q721" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E722" t="n">
         <v>5</v>
@@ -52337,24 +52337,24 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>13000</v>
+        <v>70</v>
       </c>
       <c r="K722" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="L722" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M722" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
@@ -52363,10 +52363,10 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="Q722" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E723" t="n">
         <v>5</v>
@@ -52413,16 +52413,16 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>12300</v>
+        <v>7500</v>
       </c>
       <c r="K723" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L723" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M723" t="n">
-        <v>2134</v>
+        <v>3500</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="Q723" t="n">
         <v>20</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E724" t="n">
         <v>5</v>
@@ -52476,41 +52476,41 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>6500</v>
+        <v>160</v>
       </c>
       <c r="K724" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L724" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="M724" t="n">
-        <v>1500</v>
+        <v>7250</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>75</v>
+        <v>403</v>
       </c>
       <c r="Q724" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E725" t="n">
         <v>5</v>
@@ -52548,25 +52548,25 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="K725" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L725" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M725" t="n">
-        <v>6241</v>
+        <v>4650</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E726" t="n">
         <v>5</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K726" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L726" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M726" t="n">
-        <v>4656</v>
+        <v>4000</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E727" t="n">
         <v>5</v>
@@ -52692,25 +52692,25 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K727" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L727" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M727" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E728" t="n">
         <v>5</v>
@@ -52764,41 +52764,41 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>900</v>
+        <v>13000</v>
       </c>
       <c r="K728" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="L728" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="M728" t="n">
-        <v>700</v>
+        <v>2900</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="Q728" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R728" t="inlineStr">
         <is>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E729" t="n">
         <v>5</v>
@@ -52841,36 +52841,36 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>130</v>
+        <v>12300</v>
       </c>
       <c r="K729" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L729" t="n">
-        <v>5000</v>
+        <v>2300</v>
       </c>
       <c r="M729" t="n">
-        <v>4769</v>
+        <v>2134</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="Q729" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44445</v>
+        <v>44181</v>
       </c>
       <c r="E730" t="n">
         <v>5</v>
@@ -52908,41 +52908,41 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>165</v>
+        <v>6500</v>
       </c>
       <c r="K730" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="L730" t="n">
-        <v>9000</v>
+        <v>1500</v>
       </c>
       <c r="M730" t="n">
-        <v>8742</v>
+        <v>1500</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>486</v>
+        <v>75</v>
       </c>
       <c r="Q730" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R730" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E731" t="n">
         <v>5</v>
@@ -52980,25 +52980,25 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="K731" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="L731" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M731" t="n">
-        <v>4900</v>
+        <v>6241</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -53057,24 +53057,24 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>14500</v>
+        <v>73</v>
       </c>
       <c r="K732" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L732" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M732" t="n">
-        <v>4410</v>
+        <v>4656</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
@@ -53083,10 +53083,10 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="Q732" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -53133,7 +53133,7 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K733" t="n">
         <v>4000</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -53196,41 +53196,41 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>8500</v>
+        <v>900</v>
       </c>
       <c r="K734" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="L734" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="M734" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="Q734" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -53268,25 +53268,25 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K735" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L735" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M735" t="n">
-        <v>7762</v>
+        <v>4769</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>431</v>
+        <v>265</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -53340,25 +53340,25 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="K736" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L736" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M736" t="n">
-        <v>5250</v>
+        <v>8742</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>292</v>
+        <v>486</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="K737" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="L737" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M737" t="n">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -53484,41 +53484,41 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>85</v>
+        <v>14500</v>
       </c>
       <c r="K738" t="n">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="L738" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M738" t="n">
-        <v>9265</v>
+        <v>4410</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>515</v>
+        <v>220</v>
       </c>
       <c r="Q738" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R738" t="inlineStr">
         <is>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K739" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L739" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M739" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -53633,24 +53633,24 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>80</v>
+        <v>8500</v>
       </c>
       <c r="K740" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L740" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M740" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
@@ -53659,10 +53659,10 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="Q740" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E741" t="n">
         <v>5</v>
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="K741" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L741" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M741" t="n">
-        <v>7214</v>
+        <v>7762</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E742" t="n">
         <v>5</v>
@@ -53790,7 +53790,7 @@
         <v>5500</v>
       </c>
       <c r="M742" t="n">
-        <v>5214</v>
+        <v>5250</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E743" t="n">
         <v>5</v>
@@ -53844,25 +53844,25 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K743" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L743" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M743" t="n">
-        <v>8750</v>
+        <v>4500</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>486</v>
+        <v>250</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E744" t="n">
         <v>5</v>
@@ -53916,25 +53916,25 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K744" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L744" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M744" t="n">
-        <v>6000</v>
+        <v>9265</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>333</v>
+        <v>515</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E745" t="n">
         <v>5</v>
@@ -53988,25 +53988,25 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K745" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L745" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M745" t="n">
-        <v>8761</v>
+        <v>6000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>487</v>
+        <v>333</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E746" t="n">
         <v>5</v>
@@ -54060,25 +54060,25 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K746" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L746" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M746" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="Q746" t="n">
         <v>18</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E747" t="n">
         <v>5</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K747" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L747" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M747" t="n">
-        <v>6750</v>
+        <v>7214</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E748" t="n">
         <v>5</v>
@@ -54204,25 +54204,25 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K748" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L748" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M748" t="n">
-        <v>7227</v>
+        <v>5214</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>402</v>
+        <v>290</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E749" t="n">
         <v>5</v>
@@ -54281,20 +54281,20 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K749" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L749" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M749" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -54353,24 +54353,24 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>6500</v>
+        <v>130</v>
       </c>
       <c r="K750" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L750" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M750" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
@@ -54379,10 +54379,10 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>150</v>
+        <v>333</v>
       </c>
       <c r="Q750" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -54420,41 +54420,41 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>6500</v>
+        <v>115</v>
       </c>
       <c r="K751" t="n">
-        <v>2200</v>
+        <v>8500</v>
       </c>
       <c r="L751" t="n">
-        <v>2200</v>
+        <v>9000</v>
       </c>
       <c r="M751" t="n">
-        <v>2200</v>
+        <v>8761</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>110</v>
+        <v>487</v>
       </c>
       <c r="Q751" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -54492,41 +54492,41 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>6800</v>
+        <v>55</v>
       </c>
       <c r="K752" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L752" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="M752" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="Q752" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E753" t="n">
         <v>5</v>
@@ -54569,20 +54569,20 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K753" t="n">
         <v>6500</v>
       </c>
       <c r="L753" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M753" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -54645,16 +54645,16 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K754" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L754" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M754" t="n">
-        <v>8262</v>
+        <v>7227</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E755" t="n">
         <v>5</v>
@@ -54708,25 +54708,25 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="K755" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="L755" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M755" t="n">
-        <v>4897</v>
+        <v>6500</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E756" t="n">
         <v>5</v>
@@ -54785,36 +54785,36 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>60</v>
+        <v>6500</v>
       </c>
       <c r="K756" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L756" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M756" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="Q756" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E757" t="n">
         <v>5</v>
@@ -54852,41 +54852,41 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>130</v>
+        <v>6500</v>
       </c>
       <c r="K757" t="n">
-        <v>6500</v>
+        <v>2200</v>
       </c>
       <c r="L757" t="n">
-        <v>7000</v>
+        <v>2200</v>
       </c>
       <c r="M757" t="n">
-        <v>6808</v>
+        <v>2200</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>378</v>
+        <v>110</v>
       </c>
       <c r="Q757" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E758" t="n">
         <v>5</v>
@@ -54929,24 +54929,24 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>145</v>
+        <v>6800</v>
       </c>
       <c r="K758" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="L758" t="n">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="M758" t="n">
-        <v>4603</v>
+        <v>1500</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
@@ -54955,10 +54955,10 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="Q758" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J759" t="n">
         <v>80</v>
       </c>
       <c r="K759" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L759" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M759" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="Q759" t="n">
         <v>18</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -55077,16 +55077,16 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="K760" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L760" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M760" t="n">
-        <v>7000</v>
+        <v>8262</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="Q760" t="n">
         <v>18</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E761" t="n">
         <v>5</v>
@@ -55140,25 +55140,25 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K761" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="L761" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M761" t="n">
-        <v>6000</v>
+        <v>4897</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="Q761" t="n">
         <v>18</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E762" t="n">
         <v>5</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K762" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L762" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M762" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E763" t="n">
         <v>5</v>
@@ -55284,41 +55284,41 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>11000</v>
+        <v>130</v>
       </c>
       <c r="K763" t="n">
-        <v>2900</v>
+        <v>6500</v>
       </c>
       <c r="L763" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M763" t="n">
-        <v>2950</v>
+        <v>6808</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>148</v>
+        <v>378</v>
       </c>
       <c r="Q763" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R763" t="inlineStr">
         <is>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E764" t="n">
         <v>5</v>
@@ -55361,24 +55361,24 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>6000</v>
+        <v>145</v>
       </c>
       <c r="K764" t="n">
-        <v>2100</v>
+        <v>4500</v>
       </c>
       <c r="L764" t="n">
-        <v>2100</v>
+        <v>4700</v>
       </c>
       <c r="M764" t="n">
-        <v>2100</v>
+        <v>4603</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
@@ -55387,10 +55387,10 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="Q764" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K765" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L765" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M765" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -55509,16 +55509,16 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="K766" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L766" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M766" t="n">
-        <v>8734</v>
+        <v>7000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55572,25 +55572,25 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K767" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L767" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="M767" t="n">
-        <v>5641</v>
+        <v>6000</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E768" t="n">
         <v>5</v>
@@ -55644,25 +55644,25 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K768" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L768" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M768" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -55716,41 +55716,41 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>100</v>
+        <v>11000</v>
       </c>
       <c r="K769" t="n">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="L769" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M769" t="n">
-        <v>7000</v>
+        <v>2950</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>389</v>
+        <v>148</v>
       </c>
       <c r="Q769" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E770" t="n">
         <v>5</v>
@@ -55793,36 +55793,36 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>340</v>
+        <v>6000</v>
       </c>
       <c r="K770" t="n">
-        <v>6000</v>
+        <v>2100</v>
       </c>
       <c r="L770" t="n">
-        <v>6500</v>
+        <v>2100</v>
       </c>
       <c r="M770" t="n">
-        <v>6279</v>
+        <v>2100</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="Q770" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E771" t="n">
         <v>5</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K771" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L771" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M771" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K772" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L772" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M772" t="n">
-        <v>8261</v>
+        <v>8734</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K773" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L773" t="n">
-        <v>4800</v>
+        <v>5800</v>
       </c>
       <c r="M773" t="n">
-        <v>4650</v>
+        <v>5641</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -56076,25 +56076,25 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K774" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L774" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M774" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K775" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L775" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M775" t="n">
-        <v>9261</v>
+        <v>7000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -56229,7 +56229,7 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>115</v>
+        <v>340</v>
       </c>
       <c r="K776" t="n">
         <v>6000</v>
@@ -56238,7 +56238,7 @@
         <v>6500</v>
       </c>
       <c r="M776" t="n">
-        <v>6239</v>
+        <v>6279</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="K777" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L777" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M777" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E778" t="n">
         <v>5</v>
@@ -56373,16 +56373,16 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="K778" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L778" t="n">
         <v>8500</v>
       </c>
-      <c r="L778" t="n">
-        <v>9000</v>
-      </c>
       <c r="M778" t="n">
-        <v>8738</v>
+        <v>8261</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E779" t="n">
         <v>5</v>
@@ -56436,25 +56436,25 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K779" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L779" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M779" t="n">
-        <v>7000</v>
+        <v>4650</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>389</v>
+        <v>258</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E780" t="n">
         <v>5</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="K780" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L780" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M780" t="n">
-        <v>7778</v>
+        <v>4000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>432</v>
+        <v>222</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E781" t="n">
         <v>5</v>
@@ -56580,41 +56580,41 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>4800</v>
+        <v>115</v>
       </c>
       <c r="K781" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="L781" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="M781" t="n">
-        <v>2500</v>
+        <v>9261</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>125</v>
+        <v>514</v>
       </c>
       <c r="Q781" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="K782" t="n">
         <v>6000</v>
       </c>
       <c r="L782" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M782" t="n">
-        <v>6000</v>
+        <v>6239</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E783" t="n">
         <v>5</v>
@@ -56729,24 +56729,24 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>4700</v>
+        <v>50</v>
       </c>
       <c r="K783" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L783" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M783" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O783" t="inlineStr">
@@ -56755,10 +56755,10 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="Q783" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R783" t="inlineStr">
         <is>
@@ -56796,41 +56796,41 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>4000</v>
+        <v>143</v>
       </c>
       <c r="K784" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="L784" t="n">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="M784" t="n">
-        <v>1500</v>
+        <v>8738</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>75</v>
+        <v>485</v>
       </c>
       <c r="Q784" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E785" t="n">
         <v>5</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="K785" t="n">
         <v>7000</v>
       </c>
       <c r="L785" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M785" t="n">
-        <v>7258</v>
+        <v>7000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E786" t="n">
         <v>5</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="K786" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L786" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M786" t="n">
-        <v>4633</v>
+        <v>7778</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>257</v>
+        <v>432</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E787" t="n">
         <v>5</v>
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="K787" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L787" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M787" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="Q787" t="n">
         <v>20</v>
@@ -57069,58 +57069,490 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E788" t="n">
+        <v>5</v>
+      </c>
+      <c r="F788" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J788" t="n">
+        <v>97</v>
+      </c>
+      <c r="K788" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L788" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M788" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N788" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O788" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P788" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q788" t="n">
+        <v>18</v>
+      </c>
+      <c r="R788" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>3</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D789" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E789" t="n">
+        <v>5</v>
+      </c>
+      <c r="F789" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J789" t="n">
+        <v>4700</v>
+      </c>
+      <c r="K789" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L789" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M789" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N789" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O789" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P789" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q789" t="n">
+        <v>20</v>
+      </c>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>3</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D790" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E790" t="n">
+        <v>5</v>
+      </c>
+      <c r="F790" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>3a nueva (o)</t>
+        </is>
+      </c>
+      <c r="J790" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K790" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L790" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M790" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N790" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O790" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P790" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q790" t="n">
+        <v>20</v>
+      </c>
+      <c r="R790" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>3</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D791" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E788" t="n">
-        <v>5</v>
-      </c>
-      <c r="F788" t="n">
-        <v>100112004</v>
-      </c>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>Cebolla</t>
-        </is>
-      </c>
-      <c r="H788" t="inlineStr">
+      <c r="E791" t="n">
+        <v>5</v>
+      </c>
+      <c r="F791" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J791" t="n">
+        <v>165</v>
+      </c>
+      <c r="K791" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L791" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M791" t="n">
+        <v>7258</v>
+      </c>
+      <c r="N791" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O791" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P791" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q791" t="n">
+        <v>18</v>
+      </c>
+      <c r="R791" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>3</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D792" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E792" t="n">
+        <v>5</v>
+      </c>
+      <c r="F792" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H792" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I788" t="inlineStr">
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J792" t="n">
+        <v>135</v>
+      </c>
+      <c r="K792" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L792" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M792" t="n">
+        <v>4633</v>
+      </c>
+      <c r="N792" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O792" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P792" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q792" t="n">
+        <v>18</v>
+      </c>
+      <c r="R792" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>3</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D793" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E793" t="n">
+        <v>5</v>
+      </c>
+      <c r="F793" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J793" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K793" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L793" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M793" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N793" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O793" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P793" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q793" t="n">
+        <v>20</v>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>3</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D794" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E794" t="n">
+        <v>5</v>
+      </c>
+      <c r="F794" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J788" t="n">
+      <c r="J794" t="n">
         <v>8800</v>
       </c>
-      <c r="K788" t="n">
+      <c r="K794" t="n">
         <v>2000</v>
       </c>
-      <c r="L788" t="n">
+      <c r="L794" t="n">
         <v>2000</v>
       </c>
-      <c r="M788" t="n">
+      <c r="M794" t="n">
         <v>2000</v>
       </c>
-      <c r="N788" t="inlineStr">
+      <c r="N794" t="inlineStr">
         <is>
           <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O788" t="inlineStr">
+      <c r="O794" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P788" t="n">
+      <c r="P794" t="n">
         <v>100</v>
       </c>
-      <c r="Q788" t="n">
+      <c r="Q794" t="n">
         <v>20</v>
       </c>
-      <c r="R788" t="inlineStr">
+      <c r="R794" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R794"/>
+  <dimension ref="A1:R798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -55073,20 +55073,20 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K760" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L760" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M760" t="n">
-        <v>8262</v>
+        <v>6000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="Q760" t="n">
         <v>18</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E761" t="n">
         <v>5</v>
@@ -55149,16 +55149,16 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K761" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="L761" t="n">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="M761" t="n">
-        <v>4897</v>
+        <v>4592</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="Q761" t="n">
         <v>18</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E762" t="n">
         <v>5</v>
@@ -55217,36 +55217,36 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>60</v>
+        <v>14700</v>
       </c>
       <c r="K762" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="L762" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M762" t="n">
-        <v>4000</v>
+        <v>2398</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="Q762" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E763" t="n">
         <v>5</v>
@@ -55284,41 +55284,41 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>130</v>
+        <v>7500</v>
       </c>
       <c r="K763" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="L763" t="n">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="M763" t="n">
-        <v>6808</v>
+        <v>1500</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="Q763" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R763" t="inlineStr">
         <is>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E764" t="n">
         <v>5</v>
@@ -55356,25 +55356,25 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K764" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L764" t="n">
-        <v>4700</v>
+        <v>8500</v>
       </c>
       <c r="M764" t="n">
-        <v>4603</v>
+        <v>8262</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>256</v>
+        <v>459</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K765" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="L765" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M765" t="n">
-        <v>4000</v>
+        <v>4897</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -55500,25 +55500,25 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K766" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L766" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M766" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K767" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L767" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M767" t="n">
-        <v>6000</v>
+        <v>6808</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E768" t="n">
         <v>5</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K768" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L768" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="M768" t="n">
-        <v>7000</v>
+        <v>4603</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>389</v>
+        <v>256</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -55721,24 +55721,24 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="K769" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="L769" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M769" t="n">
-        <v>2950</v>
+        <v>4000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
@@ -55747,10 +55747,10 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="Q769" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55788,41 +55788,41 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>6000</v>
+        <v>45</v>
       </c>
       <c r="K770" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="L770" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="M770" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="Q770" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55860,25 +55860,25 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K771" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L771" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M771" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55932,25 +55932,25 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K772" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L772" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M772" t="n">
-        <v>8734</v>
+        <v>7000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -56009,24 +56009,24 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>170</v>
+        <v>11000</v>
       </c>
       <c r="K773" t="n">
-        <v>5500</v>
+        <v>2900</v>
       </c>
       <c r="L773" t="n">
-        <v>5800</v>
+        <v>3000</v>
       </c>
       <c r="M773" t="n">
-        <v>5641</v>
+        <v>2950</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
@@ -56035,10 +56035,10 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="Q773" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -56076,41 +56076,41 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>110</v>
+        <v>6000</v>
       </c>
       <c r="K774" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="L774" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="M774" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>500</v>
+        <v>105</v>
       </c>
       <c r="Q774" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -56148,25 +56148,25 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K775" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L775" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M775" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -56220,25 +56220,25 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>340</v>
+        <v>128</v>
       </c>
       <c r="K776" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L776" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M776" t="n">
-        <v>6279</v>
+        <v>8734</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>349</v>
+        <v>485</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K777" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L777" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="M777" t="n">
-        <v>5000</v>
+        <v>5641</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E778" t="n">
         <v>5</v>
@@ -56373,16 +56373,16 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K778" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L778" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M778" t="n">
-        <v>8261</v>
+        <v>9000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E779" t="n">
         <v>5</v>
@@ -56436,25 +56436,25 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K779" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L779" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M779" t="n">
-        <v>4650</v>
+        <v>7000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>258</v>
+        <v>389</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E780" t="n">
         <v>5</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="K780" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L780" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M780" t="n">
-        <v>4000</v>
+        <v>6279</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E781" t="n">
         <v>5</v>
@@ -56580,25 +56580,25 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="K781" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L781" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M781" t="n">
-        <v>9261</v>
+        <v>5000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>514</v>
+        <v>278</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
@@ -56652,25 +56652,25 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
         <v>115</v>
       </c>
       <c r="K782" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L782" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M782" t="n">
-        <v>6239</v>
+        <v>8261</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>347</v>
+        <v>459</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E783" t="n">
         <v>5</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K783" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L783" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M783" t="n">
-        <v>5500</v>
+        <v>4650</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E784" t="n">
         <v>5</v>
@@ -56796,25 +56796,25 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="K784" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L784" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M784" t="n">
-        <v>8738</v>
+        <v>4000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>485</v>
+        <v>222</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E785" t="n">
         <v>5</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K785" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L785" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M785" t="n">
-        <v>7000</v>
+        <v>9261</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>389</v>
+        <v>514</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E786" t="n">
         <v>5</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="K786" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L786" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M786" t="n">
-        <v>7778</v>
+        <v>6239</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E787" t="n">
         <v>5</v>
@@ -57017,24 +57017,24 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>4800</v>
+        <v>50</v>
       </c>
       <c r="K787" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L787" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="M787" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
@@ -57043,10 +57043,10 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>125</v>
+        <v>306</v>
       </c>
       <c r="Q787" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R787" t="inlineStr">
         <is>
@@ -57084,25 +57084,25 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K788" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L788" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M788" t="n">
-        <v>6000</v>
+        <v>8738</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>333</v>
+        <v>485</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57156,41 +57156,41 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>4700</v>
+        <v>80</v>
       </c>
       <c r="K789" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L789" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M789" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="Q789" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57233,36 +57233,36 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>4000</v>
+        <v>176</v>
       </c>
       <c r="K790" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="L790" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="M790" t="n">
-        <v>1500</v>
+        <v>7778</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="Q790" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E791" t="n">
         <v>5</v>
@@ -57300,41 +57300,41 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>165</v>
+        <v>4800</v>
       </c>
       <c r="K791" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L791" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="M791" t="n">
-        <v>7258</v>
+        <v>2500</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>403</v>
+        <v>125</v>
       </c>
       <c r="Q791" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R791" t="inlineStr">
         <is>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E792" t="n">
         <v>5</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K792" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L792" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M792" t="n">
-        <v>4633</v>
+        <v>6000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E793" t="n">
         <v>5</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>8500</v>
+        <v>4700</v>
       </c>
       <c r="K793" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L793" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M793" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E794" t="n">
         <v>5</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>8800</v>
+        <v>4000</v>
       </c>
       <c r="K794" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L794" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M794" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,12 +57547,300 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q794" t="n">
         <v>20</v>
       </c>
       <c r="R794" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>3</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D795" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E795" t="n">
+        <v>5</v>
+      </c>
+      <c r="F795" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J795" t="n">
+        <v>165</v>
+      </c>
+      <c r="K795" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L795" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M795" t="n">
+        <v>7258</v>
+      </c>
+      <c r="N795" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O795" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P795" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q795" t="n">
+        <v>18</v>
+      </c>
+      <c r="R795" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>3</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D796" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E796" t="n">
+        <v>5</v>
+      </c>
+      <c r="F796" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J796" t="n">
+        <v>135</v>
+      </c>
+      <c r="K796" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L796" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M796" t="n">
+        <v>4633</v>
+      </c>
+      <c r="N796" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O796" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P796" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q796" t="n">
+        <v>18</v>
+      </c>
+      <c r="R796" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>3</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D797" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E797" t="n">
+        <v>5</v>
+      </c>
+      <c r="F797" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J797" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K797" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L797" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M797" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N797" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O797" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P797" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q797" t="n">
+        <v>20</v>
+      </c>
+      <c r="R797" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>3</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D798" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E798" t="n">
+        <v>5</v>
+      </c>
+      <c r="F798" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J798" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K798" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L798" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M798" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N798" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O798" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P798" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q798" t="n">
+        <v>20</v>
+      </c>
+      <c r="R798" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R802"/>
+  <dimension ref="A1:R806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="K646" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L646" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="M646" t="n">
-        <v>9262</v>
+        <v>6267</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>515</v>
+        <v>348</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K647" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L647" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M647" t="n">
-        <v>6258</v>
+        <v>4643</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47009,24 +47009,24 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>70</v>
+        <v>6500</v>
       </c>
       <c r="K648" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L648" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M648" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -47035,10 +47035,10 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="Q648" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47076,41 +47076,41 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>50</v>
+        <v>7500</v>
       </c>
       <c r="K649" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="L649" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="M649" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>417</v>
+        <v>75</v>
       </c>
       <c r="Q649" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K650" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L650" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M650" t="n">
-        <v>6500</v>
+        <v>9262</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>361</v>
+        <v>515</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,24 +47225,24 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>13300</v>
+        <v>165</v>
       </c>
       <c r="K651" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L651" t="n">
-        <v>3100</v>
+        <v>6500</v>
       </c>
       <c r="M651" t="n">
-        <v>3051</v>
+        <v>6258</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -47251,10 +47251,10 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>153</v>
+        <v>348</v>
       </c>
       <c r="Q651" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47297,24 +47297,24 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>6500</v>
+        <v>70</v>
       </c>
       <c r="K652" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="L652" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="M652" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -47323,10 +47323,10 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="Q652" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47364,41 +47364,41 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>1300</v>
+        <v>50</v>
       </c>
       <c r="K653" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="L653" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="M653" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="Q653" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K654" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L654" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M654" t="n">
-        <v>7727</v>
+        <v>6500</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47513,24 +47513,24 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>150</v>
+        <v>13300</v>
       </c>
       <c r="K655" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L655" t="n">
-        <v>4700</v>
+        <v>3100</v>
       </c>
       <c r="M655" t="n">
-        <v>4607</v>
+        <v>3051</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -47539,10 +47539,10 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="Q655" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47585,24 +47585,24 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>70</v>
+        <v>6500</v>
       </c>
       <c r="K656" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="L656" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="M656" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
@@ -47611,10 +47611,10 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="Q656" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47652,41 +47652,41 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>75</v>
+        <v>1300</v>
       </c>
       <c r="K657" t="n">
-        <v>7500</v>
+        <v>1300</v>
       </c>
       <c r="L657" t="n">
-        <v>8000</v>
+        <v>1300</v>
       </c>
       <c r="M657" t="n">
-        <v>7733</v>
+        <v>1300</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>430</v>
+        <v>65</v>
       </c>
       <c r="Q657" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K658" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L658" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M658" t="n">
-        <v>6500</v>
+        <v>7727</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47801,24 +47801,24 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>12500</v>
+        <v>150</v>
       </c>
       <c r="K659" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="L659" t="n">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="M659" t="n">
-        <v>2904</v>
+        <v>4607</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -47827,10 +47827,10 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="Q659" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47873,24 +47873,24 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>5800</v>
+        <v>70</v>
       </c>
       <c r="K660" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="L660" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="M660" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -47899,10 +47899,10 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="Q660" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47940,41 +47940,41 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>5800</v>
+        <v>75</v>
       </c>
       <c r="K661" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="L661" t="n">
-        <v>1300</v>
+        <v>8000</v>
       </c>
       <c r="M661" t="n">
-        <v>1300</v>
+        <v>7733</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>65</v>
+        <v>430</v>
       </c>
       <c r="Q661" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K662" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L662" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M662" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48084,41 +48084,41 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>60</v>
+        <v>12500</v>
       </c>
       <c r="K663" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="L663" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M663" t="n">
-        <v>8000</v>
+        <v>2904</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>444</v>
+        <v>145</v>
       </c>
       <c r="Q663" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48161,36 +48161,36 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J664" t="n">
+        <v>5800</v>
+      </c>
+      <c r="K664" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L664" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M664" t="n">
+        <v>2200</v>
+      </c>
+      <c r="N664" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O664" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P664" t="n">
         <v>110</v>
       </c>
-      <c r="K664" t="n">
-        <v>4800</v>
-      </c>
-      <c r="L664" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M664" t="n">
-        <v>4891</v>
-      </c>
-      <c r="N664" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="O664" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P664" t="n">
-        <v>272</v>
-      </c>
       <c r="Q664" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>8400</v>
+        <v>5800</v>
       </c>
       <c r="K665" t="n">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="L665" t="n">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="M665" t="n">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="Q665" t="n">
         <v>20</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48305,36 +48305,36 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>8500</v>
+        <v>55</v>
       </c>
       <c r="K666" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L666" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>125</v>
+        <v>389</v>
       </c>
       <c r="Q666" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K667" t="n">
         <v>8000</v>
       </c>
       <c r="L667" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M667" t="n">
-        <v>8237</v>
+        <v>8000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48449,24 +48449,24 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="K668" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="L668" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M668" t="n">
-        <v>6735</v>
+        <v>4891</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>449</v>
+        <v>272</v>
       </c>
       <c r="Q668" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>11000</v>
+        <v>8400</v>
       </c>
       <c r="K669" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="L669" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M669" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="Q669" t="n">
         <v>20</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="K670" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L670" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M670" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="Q670" t="n">
         <v>20</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K671" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L671" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M671" t="n">
-        <v>6000</v>
+        <v>8237</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>333</v>
+        <v>458</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48737,24 +48737,24 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K672" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L672" t="n">
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="M672" t="n">
-        <v>4597</v>
+        <v>6735</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -48763,10 +48763,10 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="Q672" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E673" t="n">
         <v>5</v>
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="K673" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L673" t="n">
         <v>3000</v>
       </c>
       <c r="M673" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q673" t="n">
         <v>20</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48885,7 +48885,7 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="K674" t="n">
         <v>2000</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K675" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L675" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M675" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K676" t="n">
         <v>4500</v>
       </c>
       <c r="L676" t="n">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="M676" t="n">
-        <v>4500</v>
+        <v>4597</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49097,24 +49097,24 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>200</v>
+        <v>7500</v>
       </c>
       <c r="K677" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L677" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M677" t="n">
-        <v>3920</v>
+        <v>3000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -49123,10 +49123,10 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="Q677" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49164,41 +49164,41 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>130</v>
+        <v>8500</v>
       </c>
       <c r="K678" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="L678" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M678" t="n">
-        <v>6769</v>
+        <v>2000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="Q678" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49236,25 +49236,25 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K679" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L679" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>4638</v>
+        <v>8000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>258</v>
+        <v>444</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E680" t="n">
         <v>5</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K680" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L680" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M680" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="K681" t="n">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="L681" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M681" t="n">
-        <v>7238</v>
+        <v>3920</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>402</v>
+        <v>218</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49452,25 +49452,25 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K682" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L682" t="n">
         <v>7000</v>
       </c>
       <c r="M682" t="n">
-        <v>7000</v>
+        <v>6769</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -49529,24 +49529,24 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>5800</v>
+        <v>130</v>
       </c>
       <c r="K683" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L683" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M683" t="n">
-        <v>3000</v>
+        <v>4638</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -49555,10 +49555,10 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="Q683" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49601,24 +49601,24 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>11100</v>
+        <v>80</v>
       </c>
       <c r="K684" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L684" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="M684" t="n">
-        <v>2050</v>
+        <v>4000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -49627,10 +49627,10 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="Q684" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49668,41 +49668,41 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>5400</v>
+        <v>105</v>
       </c>
       <c r="K685" t="n">
-        <v>1300</v>
+        <v>7000</v>
       </c>
       <c r="L685" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="M685" t="n">
-        <v>1300</v>
+        <v>7238</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>65</v>
+        <v>402</v>
       </c>
       <c r="Q685" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49745,11 +49745,11 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K686" t="n">
         <v>7000</v>
@@ -49767,7 +49767,7 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P686" t="n">
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49821,20 +49821,20 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>120</v>
+        <v>5800</v>
       </c>
       <c r="K687" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L687" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M687" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -49843,10 +49843,10 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q687" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49889,20 +49889,20 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>6500</v>
+        <v>11100</v>
       </c>
       <c r="K688" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L688" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M688" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="Q688" t="n">
         <v>20</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="K689" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L689" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M689" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q689" t="n">
         <v>20</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E690" t="n">
         <v>5</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K690" t="n">
         <v>7000</v>
       </c>
       <c r="L690" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M690" t="n">
-        <v>7265</v>
+        <v>7000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="K691" t="n">
         <v>4500</v>
       </c>
       <c r="L691" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M691" t="n">
-        <v>4654</v>
+        <v>4500</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>12800</v>
+        <v>6500</v>
       </c>
       <c r="K692" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L692" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="M692" t="n">
-        <v>3648</v>
+        <v>2500</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="Q692" t="n">
         <v>20</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -50249,24 +50249,24 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>60</v>
+        <v>6600</v>
       </c>
       <c r="K693" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L693" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M693" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
@@ -50275,10 +50275,10 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Q693" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50316,41 +50316,41 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>11600</v>
+        <v>170</v>
       </c>
       <c r="K694" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L694" t="n">
-        <v>2800</v>
+        <v>7500</v>
       </c>
       <c r="M694" t="n">
-        <v>2650</v>
+        <v>7265</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="Q694" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -50388,25 +50388,25 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="K695" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L695" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M695" t="n">
-        <v>8761</v>
+        <v>4654</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>487</v>
+        <v>259</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E696" t="n">
         <v>5</v>
@@ -50465,24 +50465,24 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>175</v>
+        <v>12800</v>
       </c>
       <c r="K696" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L696" t="n">
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="M696" t="n">
-        <v>4646</v>
+        <v>3648</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -50491,10 +50491,10 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="Q696" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E697" t="n">
         <v>5</v>
@@ -50541,7 +50541,7 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K697" t="n">
         <v>4000</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E698" t="n">
         <v>5</v>
@@ -50604,41 +50604,41 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>105</v>
+        <v>11600</v>
       </c>
       <c r="K698" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L698" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="M698" t="n">
-        <v>7262</v>
+        <v>2650</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>403</v>
+        <v>132</v>
       </c>
       <c r="Q698" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E699" t="n">
         <v>5</v>
@@ -50676,25 +50676,25 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="K699" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L699" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M699" t="n">
-        <v>5242</v>
+        <v>8761</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>291</v>
+        <v>487</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -50748,25 +50748,25 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="K700" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L700" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="M700" t="n">
-        <v>7240</v>
+        <v>4646</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>402</v>
+        <v>258</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K701" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L701" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M701" t="n">
-        <v>4731</v>
+        <v>4000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50892,41 +50892,41 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>11300</v>
+        <v>105</v>
       </c>
       <c r="K702" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L702" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M702" t="n">
-        <v>4757</v>
+        <v>7262</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>238</v>
+        <v>403</v>
       </c>
       <c r="Q702" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -50964,25 +50964,25 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K703" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L703" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M703" t="n">
-        <v>8750</v>
+        <v>5242</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>486</v>
+        <v>291</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K704" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L704" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M704" t="n">
-        <v>4765</v>
+        <v>7240</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>265</v>
+        <v>402</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -51108,41 +51108,41 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="K705" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L705" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M705" t="n">
-        <v>9235</v>
+        <v>4731</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>616</v>
+        <v>263</v>
       </c>
       <c r="Q705" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>5500</v>
+        <v>11300</v>
       </c>
       <c r="K706" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L706" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M706" t="n">
-        <v>2500</v>
+        <v>4757</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="Q706" t="n">
         <v>20</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E707" t="n">
         <v>5</v>
@@ -51252,41 +51252,41 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>4500</v>
+        <v>160</v>
       </c>
       <c r="K707" t="n">
-        <v>1900</v>
+        <v>8500</v>
       </c>
       <c r="L707" t="n">
-        <v>1900</v>
+        <v>9000</v>
       </c>
       <c r="M707" t="n">
-        <v>1900</v>
+        <v>8750</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>95</v>
+        <v>486</v>
       </c>
       <c r="Q707" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E708" t="n">
         <v>5</v>
@@ -51324,25 +51324,25 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="K708" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L708" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M708" t="n">
-        <v>8211</v>
+        <v>4765</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>456</v>
+        <v>265</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E709" t="n">
         <v>5</v>
@@ -51396,41 +51396,41 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K709" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L709" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M709" t="n">
-        <v>7500</v>
+        <v>9235</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>417</v>
+        <v>616</v>
       </c>
       <c r="Q709" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E710" t="n">
         <v>5</v>
@@ -51477,32 +51477,32 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>120</v>
+        <v>5500</v>
       </c>
       <c r="K710" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="L710" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="M710" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>444</v>
+        <v>125</v>
       </c>
       <c r="Q710" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>14050</v>
+        <v>4500</v>
       </c>
       <c r="K711" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L711" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M711" t="n">
-        <v>2607</v>
+        <v>1900</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="Q711" t="n">
         <v>20</v>
@@ -51612,41 +51612,41 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>7550</v>
+        <v>95</v>
       </c>
       <c r="K712" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L712" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="M712" t="n">
-        <v>2000</v>
+        <v>8211</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="Q712" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K713" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L713" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M713" t="n">
-        <v>6761</v>
+        <v>7500</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K714" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L714" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="M714" t="n">
-        <v>4650</v>
+        <v>8000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>258</v>
+        <v>444</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>6000</v>
+        <v>14050</v>
       </c>
       <c r="K715" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L715" t="n">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="M715" t="n">
-        <v>4500</v>
+        <v>2607</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="Q715" t="n">
         <v>20</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51909,16 +51909,16 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>5800</v>
+        <v>7550</v>
       </c>
       <c r="K716" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L716" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M716" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="Q716" t="n">
         <v>20</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K717" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L717" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M717" t="n">
-        <v>8737</v>
+        <v>6761</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>485</v>
+        <v>376</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K718" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L718" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="M718" t="n">
-        <v>7727</v>
+        <v>4650</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>429</v>
+        <v>258</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -52121,36 +52121,36 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>130</v>
+        <v>6000</v>
       </c>
       <c r="K719" t="n">
         <v>4500</v>
       </c>
       <c r="L719" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M719" t="n">
-        <v>4638</v>
+        <v>4500</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="Q719" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>11100</v>
+        <v>5800</v>
       </c>
       <c r="K720" t="n">
         <v>3500</v>
       </c>
       <c r="L720" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M720" t="n">
-        <v>3748</v>
+        <v>3500</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q720" t="n">
         <v>20</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E721" t="n">
         <v>5</v>
@@ -52260,25 +52260,25 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K721" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L721" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M721" t="n">
-        <v>4000</v>
+        <v>8737</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>222</v>
+        <v>485</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52332,41 +52332,41 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>5500</v>
+        <v>110</v>
       </c>
       <c r="K722" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L722" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M722" t="n">
-        <v>2000</v>
+        <v>7727</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>100</v>
+        <v>429</v>
       </c>
       <c r="Q722" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E723" t="n">
         <v>5</v>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J723" t="n">
         <v>130</v>
       </c>
       <c r="K723" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L723" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="M723" t="n">
-        <v>8269</v>
+        <v>4638</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>459</v>
+        <v>258</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E724" t="n">
         <v>5</v>
@@ -52481,24 +52481,24 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>155</v>
+        <v>11100</v>
       </c>
       <c r="K724" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L724" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M724" t="n">
-        <v>4674</v>
+        <v>3748</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
@@ -52507,10 +52507,10 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="Q724" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E725" t="n">
         <v>5</v>
@@ -52553,36 +52553,36 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="K725" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L725" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M725" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q725" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E726" t="n">
         <v>5</v>
@@ -52625,24 +52625,24 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>70</v>
+        <v>5500</v>
       </c>
       <c r="K726" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L726" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M726" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
@@ -52651,10 +52651,10 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="Q726" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52692,41 +52692,41 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>7500</v>
+        <v>130</v>
       </c>
       <c r="K727" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L727" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="M727" t="n">
-        <v>3500</v>
+        <v>8269</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>175</v>
+        <v>459</v>
       </c>
       <c r="Q727" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E728" t="n">
         <v>5</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K728" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L728" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="M728" t="n">
-        <v>7250</v>
+        <v>4674</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>403</v>
+        <v>260</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E729" t="n">
         <v>5</v>
@@ -52841,24 +52841,24 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>160</v>
+        <v>7500</v>
       </c>
       <c r="K729" t="n">
         <v>4500</v>
       </c>
       <c r="L729" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M729" t="n">
-        <v>4650</v>
+        <v>4500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="Q729" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E730" t="n">
         <v>5</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E731" t="n">
         <v>5</v>
@@ -52980,41 +52980,41 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="K731" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L731" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M731" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>472</v>
+        <v>175</v>
       </c>
       <c r="Q731" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -53052,41 +53052,41 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>13000</v>
+        <v>160</v>
       </c>
       <c r="K732" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L732" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="M732" t="n">
-        <v>2900</v>
+        <v>7250</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>145</v>
+        <v>403</v>
       </c>
       <c r="Q732" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -53129,24 +53129,24 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>12300</v>
+        <v>160</v>
       </c>
       <c r="K733" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L733" t="n">
-        <v>2300</v>
+        <v>4800</v>
       </c>
       <c r="M733" t="n">
-        <v>2134</v>
+        <v>4650</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
@@ -53155,10 +53155,10 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="Q733" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R733" t="inlineStr">
         <is>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -53201,24 +53201,24 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>6500</v>
+        <v>70</v>
       </c>
       <c r="K734" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="L734" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M734" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
@@ -53227,10 +53227,10 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="Q734" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -53277,16 +53277,16 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="K735" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L735" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M735" t="n">
-        <v>6241</v>
+        <v>8500</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>347</v>
+        <v>472</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -53345,24 +53345,24 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>73</v>
+        <v>13000</v>
       </c>
       <c r="K736" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="L736" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="M736" t="n">
-        <v>4656</v>
+        <v>2900</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
@@ -53371,10 +53371,10 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="Q736" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R736" t="inlineStr">
         <is>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -53417,24 +53417,24 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>60</v>
+        <v>12300</v>
       </c>
       <c r="K737" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L737" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M737" t="n">
-        <v>4000</v>
+        <v>2134</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
@@ -53443,10 +53443,10 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="Q737" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R737" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -53484,41 +53484,41 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>900</v>
+        <v>6500</v>
       </c>
       <c r="K738" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="L738" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="M738" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="Q738" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R738" t="inlineStr">
         <is>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -53556,25 +53556,25 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K739" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L739" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M739" t="n">
-        <v>4769</v>
+        <v>6241</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -53628,25 +53628,25 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="K740" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L740" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M740" t="n">
-        <v>8742</v>
+        <v>4656</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>486</v>
+        <v>259</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E741" t="n">
         <v>5</v>
@@ -53705,20 +53705,20 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="K741" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="L741" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M741" t="n">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E742" t="n">
         <v>5</v>
@@ -53772,41 +53772,41 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>14500</v>
+        <v>900</v>
       </c>
       <c r="K742" t="n">
-        <v>4300</v>
+        <v>700</v>
       </c>
       <c r="L742" t="n">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="M742" t="n">
-        <v>4410</v>
+        <v>700</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="Q742" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R742" t="inlineStr">
         <is>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E743" t="n">
         <v>5</v>
@@ -53849,20 +53849,20 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K743" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L743" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M743" t="n">
-        <v>4000</v>
+        <v>4769</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53916,41 +53916,41 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J744" t="n">
+        <v>165</v>
+      </c>
+      <c r="K744" t="n">
         <v>8500</v>
       </c>
-      <c r="K744" t="n">
-        <v>3500</v>
-      </c>
       <c r="L744" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="M744" t="n">
-        <v>3500</v>
+        <v>8742</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>175</v>
+        <v>486</v>
       </c>
       <c r="Q744" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E745" t="n">
         <v>5</v>
@@ -53988,25 +53988,25 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="K745" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="L745" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M745" t="n">
-        <v>7762</v>
+        <v>4900</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>431</v>
+        <v>272</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E746" t="n">
         <v>5</v>
@@ -54065,24 +54065,24 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>140</v>
+        <v>14500</v>
       </c>
       <c r="K746" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L746" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M746" t="n">
-        <v>5250</v>
+        <v>4410</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
@@ -54091,10 +54091,10 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="Q746" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E747" t="n">
         <v>5</v>
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K747" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L747" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M747" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E748" t="n">
         <v>5</v>
@@ -54204,41 +54204,41 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>85</v>
+        <v>8500</v>
       </c>
       <c r="K748" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L748" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="M748" t="n">
-        <v>9265</v>
+        <v>3500</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>515</v>
+        <v>175</v>
       </c>
       <c r="Q748" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E749" t="n">
         <v>5</v>
@@ -54276,25 +54276,25 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K749" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L749" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M749" t="n">
-        <v>6000</v>
+        <v>7762</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K750" t="n">
         <v>5000</v>
       </c>
       <c r="L750" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M750" t="n">
-        <v>5000</v>
+        <v>5250</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Q750" t="n">
         <v>18</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -54420,25 +54420,25 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K751" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L751" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M751" t="n">
-        <v>7214</v>
+        <v>4500</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>401</v>
+        <v>250</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -54492,25 +54492,25 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="K752" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L752" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="M752" t="n">
-        <v>5214</v>
+        <v>9265</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>290</v>
+        <v>515</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E753" t="n">
         <v>5</v>
@@ -54564,25 +54564,25 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K753" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L753" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M753" t="n">
-        <v>8750</v>
+        <v>6000</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>486</v>
+        <v>333</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K754" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L754" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M754" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E755" t="n">
         <v>5</v>
@@ -54717,16 +54717,16 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K755" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L755" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M755" t="n">
-        <v>8761</v>
+        <v>7214</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>487</v>
+        <v>401</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E756" t="n">
         <v>5</v>
@@ -54780,25 +54780,25 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K756" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L756" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M756" t="n">
-        <v>7000</v>
+        <v>5214</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="Q756" t="n">
         <v>18</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E757" t="n">
         <v>5</v>
@@ -54852,25 +54852,25 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K757" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L757" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M757" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>375</v>
+        <v>486</v>
       </c>
       <c r="Q757" t="n">
         <v>18</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E758" t="n">
         <v>5</v>
@@ -54924,25 +54924,25 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K758" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L758" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M758" t="n">
-        <v>7227</v>
+        <v>6000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K759" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L759" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M759" t="n">
-        <v>6500</v>
+        <v>8761</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>361</v>
+        <v>487</v>
       </c>
       <c r="Q759" t="n">
         <v>18</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -55068,41 +55068,41 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>6500</v>
+        <v>55</v>
       </c>
       <c r="K760" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L760" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M760" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="Q760" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E761" t="n">
         <v>5</v>
@@ -55145,24 +55145,24 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J761" t="n">
+        <v>110</v>
+      </c>
+      <c r="K761" t="n">
         <v>6500</v>
       </c>
-      <c r="K761" t="n">
-        <v>2200</v>
-      </c>
       <c r="L761" t="n">
-        <v>2200</v>
+        <v>7000</v>
       </c>
       <c r="M761" t="n">
-        <v>2200</v>
+        <v>6750</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
@@ -55171,10 +55171,10 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="Q761" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55212,41 +55212,41 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>6800</v>
+        <v>110</v>
       </c>
       <c r="K762" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="L762" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="M762" t="n">
-        <v>1500</v>
+        <v>7227</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Q762" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55284,16 +55284,16 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K763" t="n">
         <v>6500</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E764" t="n">
         <v>5</v>
@@ -55356,7 +55356,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -55365,32 +55365,32 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K764" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L764" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M764" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="Q764" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -55433,24 +55433,24 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>130</v>
+        <v>6500</v>
       </c>
       <c r="K765" t="n">
-        <v>4500</v>
+        <v>2200</v>
       </c>
       <c r="L765" t="n">
-        <v>4700</v>
+        <v>2200</v>
       </c>
       <c r="M765" t="n">
-        <v>4592</v>
+        <v>2200</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
@@ -55459,10 +55459,10 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="Q765" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>14700</v>
+        <v>6800</v>
       </c>
       <c r="K766" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="L766" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M766" t="n">
-        <v>2398</v>
+        <v>1500</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="Q766" t="n">
         <v>20</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55577,36 +55577,36 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="K767" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="L767" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="M767" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="Q767" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E768" t="n">
         <v>5</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K768" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L768" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M768" t="n">
-        <v>8262</v>
+        <v>6000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -55725,16 +55725,16 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K769" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="L769" t="n">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="M769" t="n">
-        <v>4897</v>
+        <v>4592</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E770" t="n">
         <v>5</v>
@@ -55793,36 +55793,36 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>60</v>
+        <v>14700</v>
       </c>
       <c r="K770" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="L770" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M770" t="n">
-        <v>4000</v>
+        <v>2398</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="Q770" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E771" t="n">
         <v>5</v>
@@ -55860,41 +55860,41 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>130</v>
+        <v>7500</v>
       </c>
       <c r="K771" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="L771" t="n">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="M771" t="n">
-        <v>6808</v>
+        <v>1500</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="Q771" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R771" t="inlineStr">
         <is>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55932,25 +55932,25 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K772" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L772" t="n">
-        <v>4700</v>
+        <v>8500</v>
       </c>
       <c r="M772" t="n">
-        <v>4603</v>
+        <v>8262</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>256</v>
+        <v>459</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K773" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="L773" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M773" t="n">
-        <v>4000</v>
+        <v>4897</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -56076,25 +56076,25 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K774" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L774" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M774" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K775" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L775" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M775" t="n">
-        <v>6000</v>
+        <v>6808</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K776" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L776" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="M776" t="n">
-        <v>7000</v>
+        <v>4603</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>389</v>
+        <v>256</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -56297,24 +56297,24 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="K777" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="L777" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M777" t="n">
-        <v>2950</v>
+        <v>4000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
@@ -56323,10 +56323,10 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="Q777" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56364,41 +56364,41 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>6000</v>
+        <v>45</v>
       </c>
       <c r="K778" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="L778" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="M778" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="Q778" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56436,25 +56436,25 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K779" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L779" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M779" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E780" t="n">
         <v>5</v>
@@ -56508,25 +56508,25 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K780" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L780" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M780" t="n">
-        <v>8734</v>
+        <v>7000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E781" t="n">
         <v>5</v>
@@ -56585,24 +56585,24 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>170</v>
+        <v>11000</v>
       </c>
       <c r="K781" t="n">
-        <v>5500</v>
+        <v>2900</v>
       </c>
       <c r="L781" t="n">
-        <v>5800</v>
+        <v>3000</v>
       </c>
       <c r="M781" t="n">
-        <v>5641</v>
+        <v>2950</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
@@ -56611,10 +56611,10 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="Q781" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
@@ -56652,41 +56652,41 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>110</v>
+        <v>6000</v>
       </c>
       <c r="K782" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="L782" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="M782" t="n">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>500</v>
+        <v>105</v>
       </c>
       <c r="Q782" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R782" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E783" t="n">
         <v>5</v>
@@ -56724,25 +56724,25 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K783" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L783" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M783" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E784" t="n">
         <v>5</v>
@@ -56796,25 +56796,25 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>340</v>
+        <v>128</v>
       </c>
       <c r="K784" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L784" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M784" t="n">
-        <v>6279</v>
+        <v>8734</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>349</v>
+        <v>485</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E785" t="n">
         <v>5</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K785" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L785" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="M785" t="n">
-        <v>5000</v>
+        <v>5641</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E786" t="n">
         <v>5</v>
@@ -56949,16 +56949,16 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K786" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L786" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M786" t="n">
-        <v>8261</v>
+        <v>9000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E787" t="n">
         <v>5</v>
@@ -57012,25 +57012,25 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K787" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L787" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M787" t="n">
-        <v>4650</v>
+        <v>7000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>258</v>
+        <v>389</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E788" t="n">
         <v>5</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="K788" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L788" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M788" t="n">
-        <v>4000</v>
+        <v>6279</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E789" t="n">
         <v>5</v>
@@ -57156,25 +57156,25 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="K789" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L789" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M789" t="n">
-        <v>9261</v>
+        <v>5000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57183,11 +57183,11 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>514</v>
+        <v>278</v>
       </c>
       <c r="Q789" t="n">
         <v>18</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E790" t="n">
         <v>5</v>
@@ -57228,25 +57228,25 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
         <v>115</v>
       </c>
       <c r="K790" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L790" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M790" t="n">
-        <v>6239</v>
+        <v>8261</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>347</v>
+        <v>459</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E791" t="n">
         <v>5</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K791" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L791" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M791" t="n">
-        <v>5500</v>
+        <v>4650</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E792" t="n">
         <v>5</v>
@@ -57372,25 +57372,25 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="K792" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L792" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M792" t="n">
-        <v>8738</v>
+        <v>4000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>485</v>
+        <v>222</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E793" t="n">
         <v>5</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K793" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L793" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M793" t="n">
-        <v>7000</v>
+        <v>9261</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>389</v>
+        <v>514</v>
       </c>
       <c r="Q793" t="n">
         <v>18</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E794" t="n">
         <v>5</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="K794" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L794" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M794" t="n">
-        <v>7778</v>
+        <v>6239</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E795" t="n">
         <v>5</v>
@@ -57593,24 +57593,24 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>4800</v>
+        <v>50</v>
       </c>
       <c r="K795" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L795" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="M795" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
@@ -57619,10 +57619,10 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>125</v>
+        <v>306</v>
       </c>
       <c r="Q795" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R795" t="inlineStr">
         <is>
@@ -57660,25 +57660,25 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K796" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L796" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M796" t="n">
-        <v>6000</v>
+        <v>8738</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>333</v>
+        <v>485</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57732,41 +57732,41 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>4700</v>
+        <v>80</v>
       </c>
       <c r="K797" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L797" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M797" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="Q797" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57809,36 +57809,36 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>4000</v>
+        <v>176</v>
       </c>
       <c r="K798" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="L798" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="M798" t="n">
-        <v>1500</v>
+        <v>7778</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="Q798" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R798" t="inlineStr">
         <is>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E799" t="n">
         <v>5</v>
@@ -57876,41 +57876,41 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>165</v>
+        <v>4800</v>
       </c>
       <c r="K799" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L799" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="M799" t="n">
-        <v>7258</v>
+        <v>2500</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>403</v>
+        <v>125</v>
       </c>
       <c r="Q799" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R799" t="inlineStr">
         <is>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E800" t="n">
         <v>5</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K800" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L800" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M800" t="n">
-        <v>4633</v>
+        <v>6000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E801" t="n">
         <v>5</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>8500</v>
+        <v>4700</v>
       </c>
       <c r="K801" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L801" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M801" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E802" t="n">
         <v>5</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>8800</v>
+        <v>4000</v>
       </c>
       <c r="K802" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L802" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M802" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,12 +58123,300 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
       </c>
       <c r="R802" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>3</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D803" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E803" t="n">
+        <v>5</v>
+      </c>
+      <c r="F803" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J803" t="n">
+        <v>165</v>
+      </c>
+      <c r="K803" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L803" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M803" t="n">
+        <v>7258</v>
+      </c>
+      <c r="N803" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O803" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P803" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q803" t="n">
+        <v>18</v>
+      </c>
+      <c r="R803" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>3</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D804" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E804" t="n">
+        <v>5</v>
+      </c>
+      <c r="F804" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J804" t="n">
+        <v>135</v>
+      </c>
+      <c r="K804" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L804" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M804" t="n">
+        <v>4633</v>
+      </c>
+      <c r="N804" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O804" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P804" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q804" t="n">
+        <v>18</v>
+      </c>
+      <c r="R804" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>3</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D805" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E805" t="n">
+        <v>5</v>
+      </c>
+      <c r="F805" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J805" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K805" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L805" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M805" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N805" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O805" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P805" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q805" t="n">
+        <v>20</v>
+      </c>
+      <c r="R805" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>3</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D806" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E806" t="n">
+        <v>5</v>
+      </c>
+      <c r="F806" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J806" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K806" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L806" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M806" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N806" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O806" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P806" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q806" t="n">
+        <v>20</v>
+      </c>
+      <c r="R806" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R814"/>
+  <dimension ref="A1:R817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K765" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L765" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M765" t="n">
-        <v>8750</v>
+        <v>5738</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K766" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L766" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="M766" t="n">
-        <v>6000</v>
+        <v>4596</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>333</v>
+        <v>255</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55572,25 +55572,25 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K767" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L767" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M767" t="n">
-        <v>8761</v>
+        <v>4000</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>487</v>
+        <v>222</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E768" t="n">
         <v>5</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K768" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L768" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M768" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -55725,16 +55725,16 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K769" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L769" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M769" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E770" t="n">
         <v>5</v>
@@ -55797,16 +55797,16 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K770" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L770" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M770" t="n">
-        <v>7227</v>
+        <v>8761</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>402</v>
+        <v>487</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E771" t="n">
         <v>5</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K771" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L771" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M771" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55937,24 +55937,24 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J772" t="n">
+        <v>110</v>
+      </c>
+      <c r="K772" t="n">
         <v>6500</v>
       </c>
-      <c r="K772" t="n">
-        <v>3000</v>
-      </c>
       <c r="L772" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M772" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
@@ -55963,10 +55963,10 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="Q772" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -56004,41 +56004,41 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>6500</v>
+        <v>110</v>
       </c>
       <c r="K773" t="n">
-        <v>2200</v>
+        <v>7000</v>
       </c>
       <c r="L773" t="n">
-        <v>2200</v>
+        <v>7500</v>
       </c>
       <c r="M773" t="n">
-        <v>2200</v>
+        <v>7227</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>110</v>
+        <v>402</v>
       </c>
       <c r="Q773" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56076,41 +56076,41 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>6800</v>
+        <v>65</v>
       </c>
       <c r="K774" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="L774" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="M774" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="Q774" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56153,36 +56153,36 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K775" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L775" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M775" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>361</v>
+        <v>150</v>
       </c>
       <c r="Q775" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -56220,41 +56220,41 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K776" t="n">
-        <v>6000</v>
+        <v>2200</v>
       </c>
       <c r="L776" t="n">
-        <v>6000</v>
+        <v>2200</v>
       </c>
       <c r="M776" t="n">
-        <v>6000</v>
+        <v>2200</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="Q776" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -56297,24 +56297,24 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>130</v>
+        <v>6800</v>
       </c>
       <c r="K777" t="n">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="L777" t="n">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="M777" t="n">
-        <v>4592</v>
+        <v>1500</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
@@ -56323,10 +56323,10 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="Q777" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E778" t="n">
         <v>5</v>
@@ -56369,36 +56369,36 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>14700</v>
+        <v>80</v>
       </c>
       <c r="K778" t="n">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="L778" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="M778" t="n">
-        <v>2398</v>
+        <v>6500</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>120</v>
+        <v>361</v>
       </c>
       <c r="Q778" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56436,41 +56436,41 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="K779" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="L779" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="M779" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>75</v>
+        <v>333</v>
       </c>
       <c r="Q779" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E780" t="n">
         <v>5</v>
@@ -56508,25 +56508,25 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K780" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L780" t="n">
-        <v>8500</v>
+        <v>4700</v>
       </c>
       <c r="M780" t="n">
-        <v>8262</v>
+        <v>4592</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>459</v>
+        <v>255</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E781" t="n">
         <v>5</v>
@@ -56585,36 +56585,36 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>145</v>
+        <v>14700</v>
       </c>
       <c r="K781" t="n">
-        <v>4800</v>
+        <v>2300</v>
       </c>
       <c r="L781" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M781" t="n">
-        <v>4897</v>
+        <v>2398</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="Q781" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
@@ -56657,36 +56657,36 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>60</v>
+        <v>7500</v>
       </c>
       <c r="K782" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L782" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M782" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Q782" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R782" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E783" t="n">
         <v>5</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K783" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L783" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M783" t="n">
-        <v>6808</v>
+        <v>8262</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>378</v>
+        <v>459</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E784" t="n">
         <v>5</v>
@@ -56808,13 +56808,13 @@
         <v>145</v>
       </c>
       <c r="K784" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="L784" t="n">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="M784" t="n">
-        <v>4603</v>
+        <v>4897</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E785" t="n">
         <v>5</v>
@@ -56877,7 +56877,7 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K785" t="n">
         <v>4000</v>
@@ -56895,7 +56895,7 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P785" t="n">
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E786" t="n">
         <v>5</v>
@@ -56949,16 +56949,16 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K786" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L786" t="n">
         <v>7000</v>
       </c>
       <c r="M786" t="n">
-        <v>7000</v>
+        <v>6808</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E787" t="n">
         <v>5</v>
@@ -57012,25 +57012,25 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K787" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L787" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="M787" t="n">
-        <v>6000</v>
+        <v>4603</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E788" t="n">
         <v>5</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K788" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L788" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M788" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57156,41 +57156,41 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>11000</v>
+        <v>45</v>
       </c>
       <c r="K789" t="n">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="L789" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M789" t="n">
-        <v>2950</v>
+        <v>7000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>148</v>
+        <v>389</v>
       </c>
       <c r="Q789" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57228,41 +57228,41 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J790" t="n">
+        <v>50</v>
+      </c>
+      <c r="K790" t="n">
         <v>6000</v>
       </c>
-      <c r="K790" t="n">
-        <v>2100</v>
-      </c>
       <c r="L790" t="n">
-        <v>2100</v>
+        <v>6000</v>
       </c>
       <c r="M790" t="n">
-        <v>2100</v>
+        <v>6000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="Q790" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K791" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L791" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M791" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E792" t="n">
         <v>5</v>
@@ -57372,41 +57372,41 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>128</v>
+        <v>11000</v>
       </c>
       <c r="K792" t="n">
-        <v>8500</v>
+        <v>2900</v>
       </c>
       <c r="L792" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M792" t="n">
-        <v>8734</v>
+        <v>2950</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>485</v>
+        <v>148</v>
       </c>
       <c r="Q792" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R792" t="inlineStr">
         <is>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E793" t="n">
         <v>5</v>
@@ -57449,24 +57449,24 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>170</v>
+        <v>6000</v>
       </c>
       <c r="K793" t="n">
-        <v>5500</v>
+        <v>2100</v>
       </c>
       <c r="L793" t="n">
-        <v>5800</v>
+        <v>2100</v>
       </c>
       <c r="M793" t="n">
-        <v>5641</v>
+        <v>2100</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
@@ -57475,10 +57475,10 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="Q793" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E794" t="n">
         <v>5</v>
@@ -57516,7 +57516,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K794" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L794" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M794" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E795" t="n">
         <v>5</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="K795" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L795" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M795" t="n">
-        <v>7000</v>
+        <v>8734</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E796" t="n">
         <v>5</v>
@@ -57669,16 +57669,16 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="K796" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L796" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="M796" t="n">
-        <v>6279</v>
+        <v>5641</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57732,25 +57732,25 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="K797" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L797" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M797" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q797" t="n">
         <v>18</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E798" t="n">
         <v>5</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K798" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L798" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M798" t="n">
-        <v>8261</v>
+        <v>7000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E799" t="n">
         <v>5</v>
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="K799" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L799" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M799" t="n">
-        <v>4650</v>
+        <v>6279</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>258</v>
+        <v>349</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E800" t="n">
         <v>5</v>
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="K800" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L800" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M800" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E801" t="n">
         <v>5</v>
@@ -58032,13 +58032,13 @@
         <v>115</v>
       </c>
       <c r="K801" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L801" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M801" t="n">
-        <v>9261</v>
+        <v>8261</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E802" t="n">
         <v>5</v>
@@ -58101,16 +58101,16 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K802" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L802" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M802" t="n">
-        <v>6239</v>
+        <v>4650</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E803" t="n">
         <v>5</v>
@@ -58176,13 +58176,13 @@
         <v>50</v>
       </c>
       <c r="K803" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L803" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M803" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E804" t="n">
         <v>5</v>
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="K804" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L804" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M804" t="n">
-        <v>8738</v>
+        <v>9261</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E805" t="n">
         <v>5</v>
@@ -58308,25 +58308,25 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K805" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L805" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M805" t="n">
-        <v>7000</v>
+        <v>6239</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E806" t="n">
         <v>5</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="K806" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L806" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M806" t="n">
-        <v>7778</v>
+        <v>5500</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58452,41 +58452,41 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>4800</v>
+        <v>143</v>
       </c>
       <c r="K807" t="n">
-        <v>2500</v>
+        <v>8500</v>
       </c>
       <c r="L807" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="M807" t="n">
-        <v>2500</v>
+        <v>8738</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>125</v>
+        <v>485</v>
       </c>
       <c r="Q807" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58524,25 +58524,25 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K808" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L808" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M808" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58601,36 +58601,36 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>4700</v>
+        <v>176</v>
       </c>
       <c r="K809" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L809" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M809" t="n">
-        <v>2000</v>
+        <v>7778</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>100</v>
+        <v>432</v>
       </c>
       <c r="Q809" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="K810" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L810" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M810" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E811" t="n">
         <v>5</v>
@@ -58740,25 +58740,25 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="K811" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L811" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M811" t="n">
-        <v>7258</v>
+        <v>6000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E812" t="n">
         <v>5</v>
@@ -58817,24 +58817,24 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>135</v>
+        <v>4700</v>
       </c>
       <c r="K812" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L812" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M812" t="n">
-        <v>4633</v>
+        <v>2000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O812" t="inlineStr">
@@ -58843,10 +58843,10 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="Q812" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R812" t="inlineStr">
         <is>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E813" t="n">
         <v>5</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="K813" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L813" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M813" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58956,43 +58956,259 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J814" t="n">
+        <v>165</v>
+      </c>
+      <c r="K814" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L814" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M814" t="n">
+        <v>7258</v>
+      </c>
+      <c r="N814" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O814" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P814" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q814" t="n">
+        <v>18</v>
+      </c>
+      <c r="R814" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>3</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D815" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E815" t="n">
+        <v>5</v>
+      </c>
+      <c r="F815" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I814" t="inlineStr">
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J815" t="n">
+        <v>135</v>
+      </c>
+      <c r="K815" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L815" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M815" t="n">
+        <v>4633</v>
+      </c>
+      <c r="N815" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O815" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P815" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q815" t="n">
+        <v>18</v>
+      </c>
+      <c r="R815" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>3</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D816" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E816" t="n">
+        <v>5</v>
+      </c>
+      <c r="F816" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J816" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K816" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L816" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M816" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N816" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O816" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P816" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>20</v>
+      </c>
+      <c r="R816" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>3</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D817" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E817" t="n">
+        <v>5</v>
+      </c>
+      <c r="F817" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
         <is>
           <t>2a nueva(o)</t>
         </is>
       </c>
-      <c r="J814" t="n">
+      <c r="J817" t="n">
         <v>8800</v>
       </c>
-      <c r="K814" t="n">
+      <c r="K817" t="n">
         <v>2000</v>
       </c>
-      <c r="L814" t="n">
+      <c r="L817" t="n">
         <v>2000</v>
       </c>
-      <c r="M814" t="n">
+      <c r="M817" t="n">
         <v>2000</v>
       </c>
-      <c r="N814" t="inlineStr">
+      <c r="N817" t="inlineStr">
         <is>
           <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O814" t="inlineStr">
+      <c r="O817" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P814" t="n">
+      <c r="P817" t="n">
         <v>100</v>
       </c>
-      <c r="Q814" t="n">
+      <c r="Q817" t="n">
         <v>20</v>
       </c>
-      <c r="R814" t="inlineStr">
+      <c r="R817" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R828"/>
+  <dimension ref="A1:R831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="K700" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L700" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M700" t="n">
-        <v>7238</v>
+        <v>6235</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="K701" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L701" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="M701" t="n">
-        <v>7000</v>
+        <v>4597</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>389</v>
+        <v>255</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50901,32 +50901,32 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>5800</v>
+        <v>185</v>
       </c>
       <c r="K702" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L702" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M702" t="n">
-        <v>3000</v>
+        <v>4257</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="Q702" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50964,41 +50964,41 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>11100</v>
+        <v>105</v>
       </c>
       <c r="K703" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L703" t="n">
-        <v>2100</v>
+        <v>7500</v>
       </c>
       <c r="M703" t="n">
-        <v>2050</v>
+        <v>7238</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>102</v>
+        <v>402</v>
       </c>
       <c r="Q703" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51041,24 +51041,24 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>5400</v>
+        <v>50</v>
       </c>
       <c r="K704" t="n">
-        <v>1300</v>
+        <v>7000</v>
       </c>
       <c r="L704" t="n">
-        <v>1300</v>
+        <v>7000</v>
       </c>
       <c r="M704" t="n">
-        <v>1300</v>
+        <v>7000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
@@ -51067,10 +51067,10 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>65</v>
+        <v>389</v>
       </c>
       <c r="Q704" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51113,36 +51113,36 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>120</v>
+        <v>5800</v>
       </c>
       <c r="K705" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L705" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M705" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>389</v>
+        <v>150</v>
       </c>
       <c r="Q705" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51180,41 +51180,41 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>165</v>
+        <v>11100</v>
       </c>
       <c r="K706" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="L706" t="n">
-        <v>7500</v>
+        <v>2100</v>
       </c>
       <c r="M706" t="n">
-        <v>7258</v>
+        <v>2050</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>403</v>
+        <v>102</v>
       </c>
       <c r="Q706" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E707" t="n">
         <v>5</v>
@@ -51257,24 +51257,24 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>135</v>
+        <v>5400</v>
       </c>
       <c r="K707" t="n">
-        <v>4500</v>
+        <v>1300</v>
       </c>
       <c r="L707" t="n">
-        <v>4800</v>
+        <v>1300</v>
       </c>
       <c r="M707" t="n">
-        <v>4633</v>
+        <v>1300</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
@@ -51283,10 +51283,10 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="Q707" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E708" t="n">
         <v>5</v>
@@ -51329,36 +51329,36 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>8500</v>
+        <v>120</v>
       </c>
       <c r="K708" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L708" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M708" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="Q708" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51396,41 +51396,41 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>8800</v>
+        <v>165</v>
       </c>
       <c r="K709" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L709" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M709" t="n">
-        <v>2000</v>
+        <v>7258</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="Q709" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E710" t="n">
         <v>5</v>
@@ -51468,25 +51468,25 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="K710" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L710" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="M710" t="n">
-        <v>8265</v>
+        <v>4633</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>459</v>
+        <v>257</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51545,24 +51545,24 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>215</v>
+        <v>8500</v>
       </c>
       <c r="K711" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L711" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M711" t="n">
-        <v>6012</v>
+        <v>3000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
@@ -51571,10 +51571,10 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>334</v>
+        <v>150</v>
       </c>
       <c r="Q711" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51612,41 +51612,41 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>125</v>
+        <v>8800</v>
       </c>
       <c r="K712" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L712" t="n">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="M712" t="n">
-        <v>9260</v>
+        <v>2000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>514</v>
+        <v>100</v>
       </c>
       <c r="Q712" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="K713" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L713" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M713" t="n">
-        <v>6233</v>
+        <v>8265</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>346</v>
+        <v>459</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="K714" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L714" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M714" t="n">
-        <v>5000</v>
+        <v>6012</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51828,41 +51828,41 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>3500</v>
+        <v>125</v>
       </c>
       <c r="K715" t="n">
-        <v>2700</v>
+        <v>9000</v>
       </c>
       <c r="L715" t="n">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="M715" t="n">
-        <v>2854</v>
+        <v>9260</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>143</v>
+        <v>514</v>
       </c>
       <c r="Q715" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51905,24 +51905,24 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>2500</v>
+        <v>150</v>
       </c>
       <c r="K716" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L716" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="M716" t="n">
-        <v>2000</v>
+        <v>6233</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
@@ -51931,10 +51931,10 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="Q716" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51977,20 +51977,20 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K717" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L717" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M717" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>472</v>
+        <v>278</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52044,41 +52044,41 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>98</v>
+        <v>3500</v>
       </c>
       <c r="K718" t="n">
-        <v>7000</v>
+        <v>2700</v>
       </c>
       <c r="L718" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M718" t="n">
-        <v>7000</v>
+        <v>2854</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>389</v>
+        <v>143</v>
       </c>
       <c r="Q718" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -52121,24 +52121,24 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>125</v>
+        <v>2500</v>
       </c>
       <c r="K719" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="L719" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M719" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
@@ -52147,10 +52147,10 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>389</v>
+        <v>100</v>
       </c>
       <c r="Q719" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -52193,36 +52193,36 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>2700</v>
+        <v>90</v>
       </c>
       <c r="K720" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="L720" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="M720" t="n">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>150</v>
+        <v>472</v>
       </c>
       <c r="Q720" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52260,25 +52260,25 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="K721" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L721" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M721" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52337,24 +52337,24 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>2400</v>
+        <v>125</v>
       </c>
       <c r="K722" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L722" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M722" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
@@ -52363,10 +52363,10 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>125</v>
+        <v>389</v>
       </c>
       <c r="Q722" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52409,20 +52409,20 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="K723" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L723" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M723" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="Q723" t="n">
         <v>20</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K724" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L724" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M724" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E725" t="n">
         <v>5</v>
@@ -52548,41 +52548,41 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>130</v>
+        <v>2400</v>
       </c>
       <c r="K725" t="n">
-        <v>8500</v>
+        <v>2500</v>
       </c>
       <c r="L725" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="M725" t="n">
-        <v>8808</v>
+        <v>2500</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>489</v>
+        <v>125</v>
       </c>
       <c r="Q725" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E726" t="n">
         <v>5</v>
@@ -52625,36 +52625,36 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>280</v>
+        <v>2000</v>
       </c>
       <c r="K726" t="n">
-        <v>4800</v>
+        <v>1700</v>
       </c>
       <c r="L726" t="n">
-        <v>5000</v>
+        <v>1700</v>
       </c>
       <c r="M726" t="n">
-        <v>4914</v>
+        <v>1700</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>273</v>
+        <v>85</v>
       </c>
       <c r="Q726" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E727" t="n">
         <v>5</v>
@@ -52697,36 +52697,36 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>6500</v>
+        <v>98</v>
       </c>
       <c r="K727" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L727" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M727" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>225</v>
+        <v>389</v>
       </c>
       <c r="Q727" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
         <v>130</v>
       </c>
       <c r="K728" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L728" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M728" t="n">
-        <v>4000</v>
+        <v>8808</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>222</v>
+        <v>489</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52841,36 +52841,36 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>6800</v>
+        <v>280</v>
       </c>
       <c r="K729" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="L729" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M729" t="n">
-        <v>3500</v>
+        <v>4914</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="Q729" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E730" t="n">
         <v>5</v>
@@ -52908,41 +52908,41 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>115</v>
+        <v>6500</v>
       </c>
       <c r="K730" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L730" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M730" t="n">
-        <v>8761</v>
+        <v>4500</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>487</v>
+        <v>225</v>
       </c>
       <c r="Q730" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R730" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E731" t="n">
         <v>5</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="K731" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L731" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M731" t="n">
-        <v>4646</v>
+        <v>4000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -53057,24 +53057,24 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>90</v>
+        <v>6800</v>
       </c>
       <c r="K732" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L732" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M732" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
@@ -53083,10 +53083,10 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="Q732" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -53133,16 +53133,16 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K733" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L733" t="n">
         <v>9000</v>
       </c>
       <c r="M733" t="n">
-        <v>9000</v>
+        <v>8761</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -53205,16 +53205,16 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="K734" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L734" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M734" t="n">
-        <v>5500</v>
+        <v>4646</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -53277,16 +53277,16 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K735" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L735" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M735" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -53349,16 +53349,16 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K736" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L736" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M736" t="n">
-        <v>6727</v>
+        <v>9000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K737" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L737" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M737" t="n">
-        <v>4767</v>
+        <v>5500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -53484,25 +53484,25 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K738" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L738" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M738" t="n">
-        <v>8769</v>
+        <v>4500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53511,11 +53511,11 @@
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>487</v>
+        <v>250</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -53556,25 +53556,25 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K739" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L739" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M739" t="n">
-        <v>6000</v>
+        <v>6727</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K740" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L740" t="n">
         <v>5000</v>
       </c>
       <c r="M740" t="n">
-        <v>5000</v>
+        <v>4767</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E741" t="n">
         <v>5</v>
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K741" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L741" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M741" t="n">
-        <v>6000</v>
+        <v>8769</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>333</v>
+        <v>487</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E742" t="n">
         <v>5</v>
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K742" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L742" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="M742" t="n">
-        <v>4548</v>
+        <v>6000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E743" t="n">
         <v>5</v>
@@ -53849,36 +53849,36 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>6500</v>
+        <v>70</v>
       </c>
       <c r="K743" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L743" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M743" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="Q743" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53916,25 +53916,25 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J744" t="n">
         <v>60</v>
       </c>
       <c r="K744" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L744" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M744" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53993,24 +53993,24 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>6660</v>
+        <v>125</v>
       </c>
       <c r="K745" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L745" t="n">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="M745" t="n">
-        <v>2000</v>
+        <v>4548</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
@@ -54019,10 +54019,10 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="Q745" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E746" t="n">
         <v>5</v>
@@ -54060,41 +54060,41 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>95</v>
+        <v>6500</v>
       </c>
       <c r="K746" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L746" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M746" t="n">
-        <v>7737</v>
+        <v>3000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="Q746" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E747" t="n">
         <v>5</v>
@@ -54137,36 +54137,36 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>11400</v>
+        <v>60</v>
       </c>
       <c r="K747" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="L747" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M747" t="n">
-        <v>2951</v>
+        <v>4000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="Q747" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E748" t="n">
         <v>5</v>
@@ -54213,7 +54213,7 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>5500</v>
+        <v>6660</v>
       </c>
       <c r="K748" t="n">
         <v>2000</v>
@@ -54231,7 +54231,7 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P748" t="n">
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54285,16 +54285,16 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K749" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L749" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M749" t="n">
-        <v>7000</v>
+        <v>7737</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -54348,41 +54348,41 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>105</v>
+        <v>11400</v>
       </c>
       <c r="K750" t="n">
-        <v>8000</v>
+        <v>2900</v>
       </c>
       <c r="L750" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="M750" t="n">
-        <v>8238</v>
+        <v>2951</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>458</v>
+        <v>148</v>
       </c>
       <c r="Q750" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -54425,24 +54425,24 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>110</v>
+        <v>5500</v>
       </c>
       <c r="K751" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L751" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="M751" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
@@ -54451,10 +54451,10 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="Q751" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J752" t="n">
         <v>80</v>
       </c>
       <c r="K752" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L752" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M752" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>250</v>
+        <v>389</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E753" t="n">
         <v>5</v>
@@ -54569,20 +54569,20 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K753" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L753" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M753" t="n">
-        <v>6500</v>
+        <v>8238</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K754" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L754" t="n">
-        <v>4700</v>
+        <v>5500</v>
       </c>
       <c r="M754" t="n">
-        <v>4592</v>
+        <v>5500</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E755" t="n">
         <v>5</v>
@@ -54713,24 +54713,24 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K755" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L755" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M755" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O755" t="inlineStr">
@@ -54739,10 +54739,10 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="Q755" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R755" t="inlineStr">
         <is>
@@ -54780,41 +54780,41 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J756" t="n">
         <v>60</v>
       </c>
       <c r="K756" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="L756" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="M756" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="Q756" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E757" t="n">
         <v>5</v>
@@ -54861,20 +54861,20 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>15500</v>
+        <v>130</v>
       </c>
       <c r="K757" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L757" t="n">
-        <v>2600</v>
+        <v>4700</v>
       </c>
       <c r="M757" t="n">
-        <v>2552</v>
+        <v>4592</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
@@ -54883,10 +54883,10 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="Q757" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E758" t="n">
         <v>5</v>
@@ -54929,20 +54929,20 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>7500</v>
+        <v>60</v>
       </c>
       <c r="K758" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L758" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M758" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q758" t="n">
         <v>20</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>8500</v>
+        <v>60</v>
       </c>
       <c r="K759" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L759" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M759" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q759" t="n">
         <v>20</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -55068,41 +55068,41 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>150</v>
+        <v>15500</v>
       </c>
       <c r="K760" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="L760" t="n">
-        <v>8000</v>
+        <v>2600</v>
       </c>
       <c r="M760" t="n">
-        <v>7733</v>
+        <v>2552</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>430</v>
+        <v>128</v>
       </c>
       <c r="Q760" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E761" t="n">
         <v>5</v>
@@ -55145,36 +55145,36 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>140</v>
+        <v>7500</v>
       </c>
       <c r="K761" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="L761" t="n">
-        <v>4800</v>
+        <v>1900</v>
       </c>
       <c r="M761" t="n">
-        <v>4650</v>
+        <v>1900</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="Q761" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E762" t="n">
         <v>5</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="K762" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L762" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="M762" t="n">
-        <v>3750</v>
+        <v>1400</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="Q762" t="n">
         <v>20</v>
@@ -55284,25 +55284,25 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K763" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L763" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M763" t="n">
-        <v>4000</v>
+        <v>7733</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55361,36 +55361,36 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>5900</v>
+        <v>140</v>
       </c>
       <c r="K764" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L764" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="M764" t="n">
-        <v>2500</v>
+        <v>4650</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="Q764" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -55428,7 +55428,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -55437,32 +55437,32 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>105</v>
+        <v>11000</v>
       </c>
       <c r="K765" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L765" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M765" t="n">
-        <v>5762</v>
+        <v>3750</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="Q765" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K766" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L766" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M766" t="n">
-        <v>4660</v>
+        <v>4000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55577,36 +55577,36 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>50</v>
+        <v>5900</v>
       </c>
       <c r="K767" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L767" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M767" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="Q767" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,32 +55653,32 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>13000</v>
+        <v>105</v>
       </c>
       <c r="K768" t="n">
-        <v>2300</v>
+        <v>5500</v>
       </c>
       <c r="L768" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="M768" t="n">
-        <v>2400</v>
+        <v>5762</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="Q768" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55721,24 +55721,24 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>6800</v>
+        <v>150</v>
       </c>
       <c r="K769" t="n">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="L769" t="n">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="M769" t="n">
-        <v>1500</v>
+        <v>4660</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
@@ -55747,10 +55747,10 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="Q769" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E770" t="n">
         <v>5</v>
@@ -55788,25 +55788,25 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K770" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L770" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M770" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>431</v>
+        <v>222</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E771" t="n">
         <v>5</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>9300</v>
+        <v>13000</v>
       </c>
       <c r="K771" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L771" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M771" t="n">
-        <v>2897</v>
+        <v>2400</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="Q771" t="n">
         <v>20</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>4500</v>
+        <v>6800</v>
       </c>
       <c r="K772" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L772" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M772" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q772" t="n">
         <v>20</v>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K773" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L773" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M773" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -56076,41 +56076,41 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>105</v>
+        <v>9300</v>
       </c>
       <c r="K774" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="L774" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M774" t="n">
-        <v>6738</v>
+        <v>2897</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>374</v>
+        <v>145</v>
       </c>
       <c r="Q774" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -56153,36 +56153,36 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>120</v>
+        <v>4500</v>
       </c>
       <c r="K775" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L775" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="M775" t="n">
-        <v>4650</v>
+        <v>2000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="Q775" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -56220,7 +56220,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="K776" t="n">
         <v>7000</v>
       </c>
       <c r="L776" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M776" t="n">
-        <v>7227</v>
+        <v>7000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -56292,25 +56292,25 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K777" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L777" t="n">
         <v>7000</v>
       </c>
-      <c r="L777" t="n">
-        <v>7500</v>
-      </c>
       <c r="M777" t="n">
-        <v>7240</v>
+        <v>6738</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E778" t="n">
         <v>5</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K778" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L778" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M778" t="n">
-        <v>6000</v>
+        <v>4650</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56391,11 +56391,11 @@
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56436,7 +56436,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -56445,16 +56445,16 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K779" t="n">
         <v>7000</v>
       </c>
       <c r="L779" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M779" t="n">
-        <v>7000</v>
+        <v>7227</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E780" t="n">
         <v>5</v>
@@ -56508,25 +56508,25 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="K780" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L780" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M780" t="n">
-        <v>6762</v>
+        <v>7240</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E781" t="n">
         <v>5</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="K781" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L781" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M781" t="n">
-        <v>4763</v>
+        <v>6000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="K782" t="n">
-        <v>3700</v>
+        <v>7000</v>
       </c>
       <c r="L782" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M782" t="n">
-        <v>3888</v>
+        <v>7000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E783" t="n">
         <v>5</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="K783" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L783" t="n">
         <v>7000</v>
       </c>
-      <c r="L783" t="n">
-        <v>7500</v>
-      </c>
       <c r="M783" t="n">
-        <v>7235</v>
+        <v>6762</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E784" t="n">
         <v>5</v>
@@ -56801,24 +56801,24 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>10800</v>
+        <v>380</v>
       </c>
       <c r="K784" t="n">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="L784" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M784" t="n">
-        <v>2954</v>
+        <v>4763</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
@@ -56827,10 +56827,10 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="Q784" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E785" t="n">
         <v>5</v>
@@ -56873,24 +56873,24 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>6000</v>
+        <v>320</v>
       </c>
       <c r="K785" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="L785" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M785" t="n">
-        <v>2000</v>
+        <v>3888</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
@@ -56899,10 +56899,10 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="Q785" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56940,41 +56940,41 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>5500</v>
+        <v>170</v>
       </c>
       <c r="K786" t="n">
-        <v>1200</v>
+        <v>7000</v>
       </c>
       <c r="L786" t="n">
-        <v>1200</v>
+        <v>7500</v>
       </c>
       <c r="M786" t="n">
-        <v>1200</v>
+        <v>7235</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="Q786" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R786" t="inlineStr">
         <is>
@@ -57017,36 +57017,36 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>80</v>
+        <v>10800</v>
       </c>
       <c r="K787" t="n">
-        <v>6500</v>
+        <v>2900</v>
       </c>
       <c r="L787" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M787" t="n">
-        <v>6500</v>
+        <v>2954</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="Q787" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R787" t="inlineStr">
         <is>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E788" t="n">
         <v>5</v>
@@ -57089,24 +57089,24 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>98</v>
+        <v>6000</v>
       </c>
       <c r="K788" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L788" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M788" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
@@ -57115,10 +57115,10 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>278</v>
+        <v>100</v>
       </c>
       <c r="Q788" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E789" t="n">
         <v>5</v>
@@ -57161,24 +57161,24 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>89</v>
+        <v>5500</v>
       </c>
       <c r="K789" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="L789" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="M789" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
@@ -57187,10 +57187,10 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="Q789" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E790" t="n">
         <v>5</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K790" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L790" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M790" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E791" t="n">
         <v>5</v>
@@ -57300,25 +57300,25 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K791" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L791" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M791" t="n">
-        <v>6262</v>
+        <v>5000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E792" t="n">
         <v>5</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K792" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L792" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M792" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E793" t="n">
         <v>5</v>
@@ -57449,24 +57449,24 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K793" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L793" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M793" t="n">
-        <v>2386</v>
+        <v>3000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
@@ -57475,10 +57475,10 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="Q793" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57516,41 +57516,41 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K794" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="L794" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="M794" t="n">
-        <v>1500</v>
+        <v>6262</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="Q794" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R794" t="inlineStr">
         <is>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E795" t="n">
         <v>5</v>
@@ -57588,25 +57588,25 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K795" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L795" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M795" t="n">
-        <v>7214</v>
+        <v>4500</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>401</v>
+        <v>250</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E796" t="n">
         <v>5</v>
@@ -57665,24 +57665,24 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="K796" t="n">
-        <v>5000</v>
+        <v>2300</v>
       </c>
       <c r="L796" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="M796" t="n">
-        <v>5214</v>
+        <v>2386</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
@@ -57691,10 +57691,10 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="Q796" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E797" t="n">
         <v>5</v>
@@ -57732,41 +57732,41 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J797" t="n">
         <v>130</v>
       </c>
       <c r="K797" t="n">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="L797" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="M797" t="n">
-        <v>8269</v>
+        <v>1500</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>459</v>
+        <v>75</v>
       </c>
       <c r="Q797" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E798" t="n">
         <v>5</v>
@@ -57804,25 +57804,25 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="K798" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L798" t="n">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="M798" t="n">
-        <v>4657</v>
+        <v>7214</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>259</v>
+        <v>401</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E799" t="n">
         <v>5</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K799" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L799" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M799" t="n">
-        <v>4000</v>
+        <v>5214</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E800" t="n">
         <v>5</v>
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K800" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L800" t="n">
         <v>8500</v>
       </c>
       <c r="M800" t="n">
-        <v>8500</v>
+        <v>8269</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E801" t="n">
         <v>5</v>
@@ -58025,24 +58025,24 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>13000</v>
+        <v>230</v>
       </c>
       <c r="K801" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="L801" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="M801" t="n">
-        <v>2900</v>
+        <v>4657</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
@@ -58051,10 +58051,10 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="Q801" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E802" t="n">
         <v>5</v>
@@ -58097,24 +58097,24 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>12300</v>
+        <v>120</v>
       </c>
       <c r="K802" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L802" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="M802" t="n">
-        <v>2134</v>
+        <v>4000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O802" t="inlineStr">
@@ -58123,10 +58123,10 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="Q802" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R802" t="inlineStr">
         <is>
@@ -58164,41 +58164,41 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>6500</v>
+        <v>80</v>
       </c>
       <c r="K803" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="L803" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="M803" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>75</v>
+        <v>472</v>
       </c>
       <c r="Q803" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R803" t="inlineStr">
         <is>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E804" t="n">
         <v>5</v>
@@ -58236,41 +58236,41 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>110</v>
+        <v>13000</v>
       </c>
       <c r="K804" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="L804" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="M804" t="n">
-        <v>8273</v>
+        <v>2900</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>460</v>
+        <v>145</v>
       </c>
       <c r="Q804" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R804" t="inlineStr">
         <is>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E805" t="n">
         <v>5</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>17500</v>
+        <v>12300</v>
       </c>
       <c r="K805" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L805" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M805" t="n">
-        <v>2897</v>
+        <v>2134</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E806" t="n">
         <v>5</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="K806" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L806" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="M806" t="n">
-        <v>2097</v>
+        <v>1500</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E807" t="n">
         <v>5</v>
@@ -58461,7 +58461,7 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="K807" t="n">
         <v>8000</v>
@@ -58470,7 +58470,7 @@
         <v>8500</v>
       </c>
       <c r="M807" t="n">
-        <v>8257</v>
+        <v>8273</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E808" t="n">
         <v>5</v>
@@ -58529,24 +58529,24 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>200</v>
+        <v>17500</v>
       </c>
       <c r="K808" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="L808" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M808" t="n">
-        <v>6775</v>
+        <v>2897</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O808" t="inlineStr">
@@ -58555,10 +58555,10 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>376</v>
+        <v>145</v>
       </c>
       <c r="Q808" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R808" t="inlineStr">
         <is>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E809" t="n">
         <v>5</v>
@@ -58601,36 +58601,36 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>80</v>
+        <v>17500</v>
       </c>
       <c r="K809" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L809" t="n">
-        <v>6000</v>
+        <v>2200</v>
       </c>
       <c r="M809" t="n">
-        <v>6000</v>
+        <v>2097</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="Q809" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E810" t="n">
         <v>5</v>
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="K810" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L810" t="n">
         <v>8500</v>
       </c>
-      <c r="L810" t="n">
-        <v>9000</v>
-      </c>
       <c r="M810" t="n">
-        <v>8734</v>
+        <v>8257</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E811" t="n">
         <v>5</v>
@@ -58749,16 +58749,16 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K811" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L811" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="M811" t="n">
-        <v>5641</v>
+        <v>6775</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E812" t="n">
         <v>5</v>
@@ -58812,7 +58812,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -58821,16 +58821,16 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K812" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L812" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M812" t="n">
-        <v>8269</v>
+        <v>6000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E813" t="n">
         <v>5</v>
@@ -58884,25 +58884,25 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="K813" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L813" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M813" t="n">
-        <v>4674</v>
+        <v>8734</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>260</v>
+        <v>485</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E814" t="n">
         <v>5</v>
@@ -58961,24 +58961,24 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>7500</v>
+        <v>170</v>
       </c>
       <c r="K814" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L814" t="n">
-        <v>4500</v>
+        <v>5800</v>
       </c>
       <c r="M814" t="n">
-        <v>4500</v>
+        <v>5641</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O814" t="inlineStr">
@@ -58987,10 +58987,10 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="Q814" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R814" t="inlineStr">
         <is>
@@ -59028,25 +59028,25 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K815" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L815" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M815" t="n">
-        <v>4000</v>
+        <v>8269</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59105,24 +59105,24 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>7500</v>
+        <v>155</v>
       </c>
       <c r="K816" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L816" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="M816" t="n">
-        <v>3500</v>
+        <v>4674</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O816" t="inlineStr">
@@ -59131,10 +59131,10 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="Q816" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R816" t="inlineStr">
         <is>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E817" t="n">
         <v>5</v>
@@ -59172,41 +59172,41 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>105</v>
+        <v>7500</v>
       </c>
       <c r="K817" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L817" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M817" t="n">
-        <v>8762</v>
+        <v>4500</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>487</v>
+        <v>225</v>
       </c>
       <c r="Q817" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R817" t="inlineStr">
         <is>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E818" t="n">
         <v>5</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="K818" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L818" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M818" t="n">
-        <v>5747</v>
+        <v>4000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E819" t="n">
         <v>5</v>
@@ -59321,24 +59321,24 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="K819" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L819" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M819" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
@@ -59347,10 +59347,10 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="Q819" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E820" t="n">
         <v>5</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K820" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L820" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M820" t="n">
-        <v>6000</v>
+        <v>8762</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>333</v>
+        <v>487</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E821" t="n">
         <v>5</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K821" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L821" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M821" t="n">
-        <v>4240</v>
+        <v>5747</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E822" t="n">
         <v>5</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K822" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L822" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M822" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59604,7 +59604,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
@@ -59613,32 +59613,32 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>11100</v>
+        <v>60</v>
       </c>
       <c r="K823" t="n">
-        <v>2300</v>
+        <v>6000</v>
       </c>
       <c r="L823" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="M823" t="n">
-        <v>2399</v>
+        <v>6000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>120</v>
+        <v>333</v>
       </c>
       <c r="Q823" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R823" t="inlineStr">
         <is>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K824" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L824" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M824" t="n">
-        <v>3500</v>
+        <v>4240</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59753,36 +59753,36 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>5500</v>
+        <v>60</v>
       </c>
       <c r="K825" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="L825" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M825" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="Q825" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R825" t="inlineStr">
         <is>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E826" t="n">
         <v>5</v>
@@ -59820,41 +59820,41 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>150</v>
+        <v>11100</v>
       </c>
       <c r="K826" t="n">
-        <v>6500</v>
+        <v>2300</v>
       </c>
       <c r="L826" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="M826" t="n">
-        <v>7200</v>
+        <v>2399</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="Q826" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R826" t="inlineStr">
         <is>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E827" t="n">
         <v>5</v>
@@ -59897,24 +59897,24 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>15300</v>
+        <v>60</v>
       </c>
       <c r="K827" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L827" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M827" t="n">
-        <v>2902</v>
+        <v>3500</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O827" t="inlineStr">
@@ -59923,10 +59923,10 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="Q827" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R827" t="inlineStr">
         <is>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E828" t="n">
         <v>5</v>
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="K828" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L828" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M828" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,12 +59995,228 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q828" t="n">
         <v>20</v>
       </c>
       <c r="R828" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>3</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D829" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E829" t="n">
+        <v>5</v>
+      </c>
+      <c r="F829" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J829" t="n">
+        <v>150</v>
+      </c>
+      <c r="K829" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L829" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M829" t="n">
+        <v>7200</v>
+      </c>
+      <c r="N829" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O829" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P829" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q829" t="n">
+        <v>18</v>
+      </c>
+      <c r="R829" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>3</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D830" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E830" t="n">
+        <v>5</v>
+      </c>
+      <c r="F830" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J830" t="n">
+        <v>15300</v>
+      </c>
+      <c r="K830" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L830" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M830" t="n">
+        <v>2902</v>
+      </c>
+      <c r="N830" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O830" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P830" t="n">
+        <v>145</v>
+      </c>
+      <c r="Q830" t="n">
+        <v>20</v>
+      </c>
+      <c r="R830" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>3</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D831" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E831" t="n">
+        <v>5</v>
+      </c>
+      <c r="F831" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J831" t="n">
+        <v>6500</v>
+      </c>
+      <c r="K831" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L831" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M831" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N831" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O831" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P831" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q831" t="n">
+        <v>20</v>
+      </c>
+      <c r="R831" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R871"/>
+  <dimension ref="A1:R873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="K705" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L705" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M705" t="n">
-        <v>8763</v>
+        <v>5770</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>487</v>
+        <v>321</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="K706" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L706" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="M706" t="n">
-        <v>5645</v>
+        <v>4765</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51252,25 +51252,25 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K707" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L707" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M707" t="n">
-        <v>4500</v>
+        <v>8763</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E708" t="n">
         <v>5</v>
@@ -51324,25 +51324,25 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K708" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L708" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M708" t="n">
-        <v>6727</v>
+        <v>5645</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E709" t="n">
         <v>5</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K709" t="n">
         <v>4500</v>
       </c>
       <c r="L709" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M709" t="n">
-        <v>4638</v>
+        <v>4500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E710" t="n">
         <v>5</v>
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K710" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L710" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M710" t="n">
-        <v>9238</v>
+        <v>6727</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>513</v>
+        <v>374</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51549,16 +51549,16 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="K711" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L711" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M711" t="n">
-        <v>5761</v>
+        <v>4638</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51621,7 +51621,7 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K712" t="n">
         <v>9000</v>
@@ -51630,7 +51630,7 @@
         <v>9500</v>
       </c>
       <c r="M712" t="n">
-        <v>9240</v>
+        <v>9238</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51693,16 +51693,16 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="K713" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L713" t="n">
         <v>6000</v>
       </c>
-      <c r="L713" t="n">
-        <v>6500</v>
-      </c>
       <c r="M713" t="n">
-        <v>6273</v>
+        <v>5761</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="K714" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L714" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M714" t="n">
-        <v>8741</v>
+        <v>9240</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51837,7 +51837,7 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K715" t="n">
         <v>6000</v>
@@ -51846,7 +51846,7 @@
         <v>6500</v>
       </c>
       <c r="M715" t="n">
-        <v>6254</v>
+        <v>6273</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51900,25 +51900,25 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K716" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L716" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M716" t="n">
-        <v>5500</v>
+        <v>8741</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51972,25 +51972,25 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K717" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L717" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M717" t="n">
-        <v>8000</v>
+        <v>6254</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K718" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L718" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M718" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52116,25 +52116,25 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="K719" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L719" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M719" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52188,41 +52188,41 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>5600</v>
+        <v>67</v>
       </c>
       <c r="K720" t="n">
-        <v>2700</v>
+        <v>7000</v>
       </c>
       <c r="L720" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M720" t="n">
-        <v>2871</v>
+        <v>7000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>144</v>
+        <v>389</v>
       </c>
       <c r="Q720" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52265,20 +52265,20 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K721" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L721" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M721" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="K722" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L722" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M722" t="n">
-        <v>2300</v>
+        <v>2871</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="Q722" t="n">
         <v>20</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E723" t="n">
         <v>5</v>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="K723" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L723" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M723" t="n">
-        <v>7267</v>
+        <v>6000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>404</v>
+        <v>333</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E724" t="n">
         <v>5</v>
@@ -52481,24 +52481,24 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>185</v>
+        <v>3700</v>
       </c>
       <c r="K724" t="n">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="L724" t="n">
-        <v>4800</v>
+        <v>2300</v>
       </c>
       <c r="M724" t="n">
-        <v>4654</v>
+        <v>2300</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
@@ -52507,10 +52507,10 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="Q724" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52548,41 +52548,41 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>6000</v>
+        <v>150</v>
       </c>
       <c r="K725" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L725" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="M725" t="n">
-        <v>3500</v>
+        <v>7267</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>175</v>
+        <v>404</v>
       </c>
       <c r="Q725" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="K726" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L726" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M726" t="n">
-        <v>4000</v>
+        <v>4654</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="K727" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L727" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M727" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="Q727" t="n">
         <v>20</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E728" t="n">
         <v>5</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K728" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L728" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M728" t="n">
-        <v>8269</v>
+        <v>4000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>459</v>
+        <v>222</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E729" t="n">
         <v>5</v>
@@ -52841,24 +52841,24 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>170</v>
+        <v>6500</v>
       </c>
       <c r="K729" t="n">
-        <v>4800</v>
+        <v>2500</v>
       </c>
       <c r="L729" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M729" t="n">
-        <v>4906</v>
+        <v>2500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="Q729" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52908,25 +52908,25 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="K730" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L730" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M730" t="n">
-        <v>4000</v>
+        <v>8269</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E731" t="n">
         <v>5</v>
@@ -52980,25 +52980,25 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="K731" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="L731" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M731" t="n">
-        <v>7260</v>
+        <v>4906</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>403</v>
+        <v>273</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K732" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L732" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M732" t="n">
-        <v>5321</v>
+        <v>4000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J733" t="n">
         <v>125</v>
       </c>
       <c r="K733" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L733" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M733" t="n">
-        <v>5240</v>
+        <v>7260</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>291</v>
+        <v>403</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="K734" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L734" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M734" t="n">
-        <v>4646</v>
+        <v>5321</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53268,7 +53268,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -53277,32 +53277,32 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>11300</v>
+        <v>125</v>
       </c>
       <c r="K735" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L735" t="n">
-        <v>2200</v>
+        <v>5500</v>
       </c>
       <c r="M735" t="n">
-        <v>2097</v>
+        <v>5240</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="Q735" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53345,24 +53345,24 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>5500</v>
+        <v>185</v>
       </c>
       <c r="K736" t="n">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="L736" t="n">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="M736" t="n">
-        <v>1500</v>
+        <v>4646</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
@@ -53371,10 +53371,10 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="Q736" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R736" t="inlineStr">
         <is>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -53412,41 +53412,41 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>60</v>
+        <v>11300</v>
       </c>
       <c r="K737" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="L737" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="M737" t="n">
-        <v>8000</v>
+        <v>2097</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>444</v>
+        <v>105</v>
       </c>
       <c r="Q737" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R737" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -53489,24 +53489,24 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>60</v>
+        <v>5500</v>
       </c>
       <c r="K738" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L738" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="M738" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
@@ -53515,10 +53515,10 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="Q738" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R738" t="inlineStr">
         <is>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K739" t="n">
         <v>8000</v>
       </c>
       <c r="L739" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M739" t="n">
-        <v>8269</v>
+        <v>8000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -53637,16 +53637,16 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="K740" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="L740" t="n">
         <v>5000</v>
       </c>
       <c r="M740" t="n">
-        <v>4903</v>
+        <v>5000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53700,41 +53700,41 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J741" t="n">
+        <v>130</v>
+      </c>
+      <c r="K741" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L741" t="n">
         <v>8500</v>
       </c>
-      <c r="K741" t="n">
-        <v>4500</v>
-      </c>
-      <c r="L741" t="n">
-        <v>4500</v>
-      </c>
       <c r="M741" t="n">
-        <v>4500</v>
+        <v>8269</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>225</v>
+        <v>459</v>
       </c>
       <c r="Q741" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="K742" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="L742" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M742" t="n">
-        <v>4000</v>
+        <v>4903</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53849,20 +53849,20 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="K743" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L743" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M743" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="Q743" t="n">
         <v>20</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E744" t="n">
         <v>5</v>
@@ -53916,25 +53916,25 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J744" t="n">
         <v>80</v>
       </c>
       <c r="K744" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L744" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M744" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>431</v>
+        <v>222</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E745" t="n">
         <v>5</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>9300</v>
+        <v>8000</v>
       </c>
       <c r="K745" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L745" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M745" t="n">
-        <v>2897</v>
+        <v>3500</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q745" t="n">
         <v>20</v>
@@ -54060,41 +54060,41 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>4500</v>
+        <v>80</v>
       </c>
       <c r="K746" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L746" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M746" t="n">
-        <v>2000</v>
+        <v>7750</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="Q746" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54137,36 +54137,36 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>55</v>
+        <v>9300</v>
       </c>
       <c r="K747" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="L747" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M747" t="n">
-        <v>7000</v>
+        <v>2897</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>389</v>
+        <v>145</v>
       </c>
       <c r="Q747" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E748" t="n">
         <v>5</v>
@@ -54204,41 +54204,41 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>105</v>
+        <v>4500</v>
       </c>
       <c r="K748" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="L748" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M748" t="n">
-        <v>6738</v>
+        <v>2000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="Q748" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E749" t="n">
         <v>5</v>
@@ -54281,36 +54281,36 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>5800</v>
+        <v>55</v>
       </c>
       <c r="K749" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L749" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M749" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="Q749" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54348,41 +54348,41 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>5500</v>
+        <v>105</v>
       </c>
       <c r="K750" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L750" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M750" t="n">
-        <v>2000</v>
+        <v>6738</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="Q750" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -54420,41 +54420,41 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>50</v>
+        <v>5800</v>
       </c>
       <c r="K751" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L751" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="M751" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>472</v>
+        <v>150</v>
       </c>
       <c r="Q751" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -54497,24 +54497,24 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>115</v>
+        <v>5500</v>
       </c>
       <c r="K752" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="L752" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M752" t="n">
-        <v>4896</v>
+        <v>2000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
@@ -54523,10 +54523,10 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="Q752" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54564,25 +54564,25 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K753" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L753" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M753" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -54636,25 +54636,25 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K754" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="L754" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M754" t="n">
-        <v>8211</v>
+        <v>4896</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E755" t="n">
         <v>5</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K755" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L755" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M755" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>417</v>
+        <v>222</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54780,25 +54780,25 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K756" t="n">
         <v>8000</v>
       </c>
       <c r="L756" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M756" t="n">
-        <v>8000</v>
+        <v>8211</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="Q756" t="n">
         <v>18</v>
@@ -54857,36 +54857,36 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>14050</v>
+        <v>80</v>
       </c>
       <c r="K757" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="L757" t="n">
-        <v>2700</v>
+        <v>7500</v>
       </c>
       <c r="M757" t="n">
-        <v>2607</v>
+        <v>7500</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="Q757" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54929,36 +54929,36 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>7550</v>
+        <v>120</v>
       </c>
       <c r="K758" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L758" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M758" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="Q758" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -54996,41 +54996,41 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>40</v>
+        <v>14050</v>
       </c>
       <c r="K759" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="L759" t="n">
-        <v>9000</v>
+        <v>2700</v>
       </c>
       <c r="M759" t="n">
-        <v>9000</v>
+        <v>2607</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="Q759" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -55073,20 +55073,20 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>13300</v>
+        <v>7550</v>
       </c>
       <c r="K760" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L760" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="M760" t="n">
-        <v>3147</v>
+        <v>2000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="Q760" t="n">
         <v>20</v>
@@ -55140,41 +55140,41 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>6500</v>
+        <v>40</v>
       </c>
       <c r="K761" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="L761" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M761" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q761" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E762" t="n">
         <v>5</v>
@@ -55212,41 +55212,41 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>90</v>
+        <v>13300</v>
       </c>
       <c r="K762" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L762" t="n">
-        <v>8000</v>
+        <v>3300</v>
       </c>
       <c r="M762" t="n">
-        <v>8000</v>
+        <v>3147</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>444</v>
+        <v>157</v>
       </c>
       <c r="Q762" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E763" t="n">
         <v>5</v>
@@ -55284,41 +55284,41 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>80</v>
+        <v>6500</v>
       </c>
       <c r="K763" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="L763" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M763" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>361</v>
+        <v>100</v>
       </c>
       <c r="Q763" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R763" t="inlineStr">
         <is>
@@ -55356,41 +55356,41 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>14000</v>
+        <v>90</v>
       </c>
       <c r="K764" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L764" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="M764" t="n">
-        <v>3093</v>
+        <v>8000</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>155</v>
+        <v>444</v>
       </c>
       <c r="Q764" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55428,41 +55428,41 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="K765" t="n">
-        <v>2200</v>
+        <v>6500</v>
       </c>
       <c r="L765" t="n">
-        <v>2200</v>
+        <v>6500</v>
       </c>
       <c r="M765" t="n">
-        <v>2200</v>
+        <v>6500</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>110</v>
+        <v>361</v>
       </c>
       <c r="Q765" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55505,36 +55505,36 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>80</v>
+        <v>14000</v>
       </c>
       <c r="K766" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L766" t="n">
-        <v>7000</v>
+        <v>3200</v>
       </c>
       <c r="M766" t="n">
-        <v>7000</v>
+        <v>3093</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>389</v>
+        <v>155</v>
       </c>
       <c r="Q766" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55572,29 +55572,29 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>130</v>
+        <v>7500</v>
       </c>
       <c r="K767" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="L767" t="n">
-        <v>8500</v>
+        <v>2200</v>
       </c>
       <c r="M767" t="n">
-        <v>8231</v>
+        <v>2200</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
@@ -55603,10 +55603,10 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="Q767" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E768" t="n">
         <v>5</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K768" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L768" t="n">
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="M768" t="n">
-        <v>4612</v>
+        <v>7000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>256</v>
+        <v>389</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55716,29 +55716,29 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>13300</v>
+        <v>130</v>
       </c>
       <c r="K769" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L769" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M769" t="n">
-        <v>4256</v>
+        <v>8231</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
@@ -55747,10 +55747,10 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>213</v>
+        <v>457</v>
       </c>
       <c r="Q769" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K770" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L770" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="M770" t="n">
-        <v>4000</v>
+        <v>4612</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>6800</v>
+        <v>13300</v>
       </c>
       <c r="K771" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L771" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M771" t="n">
-        <v>3000</v>
+        <v>4256</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="Q771" t="n">
         <v>20</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55937,24 +55937,24 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>9000</v>
+        <v>80</v>
       </c>
       <c r="K772" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L772" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M772" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
@@ -55963,10 +55963,10 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="Q772" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>8800</v>
+        <v>6800</v>
       </c>
       <c r="K773" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L773" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M773" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q773" t="n">
         <v>20</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -56076,41 +56076,41 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>175</v>
+        <v>9000</v>
       </c>
       <c r="K774" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L774" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M774" t="n">
-        <v>7243</v>
+        <v>3000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>402</v>
+        <v>150</v>
       </c>
       <c r="Q774" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -56148,41 +56148,41 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>80</v>
+        <v>8800</v>
       </c>
       <c r="K775" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L775" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M775" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>333</v>
+        <v>100</v>
       </c>
       <c r="Q775" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56220,41 +56220,41 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>10700</v>
+        <v>175</v>
       </c>
       <c r="K776" t="n">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="L776" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="M776" t="n">
-        <v>2950</v>
+        <v>7243</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>148</v>
+        <v>402</v>
       </c>
       <c r="Q776" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56292,41 +56292,41 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>5500</v>
+        <v>80</v>
       </c>
       <c r="K777" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L777" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M777" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="Q777" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>3500</v>
+        <v>10700</v>
       </c>
       <c r="K778" t="n">
-        <v>1200</v>
+        <v>2900</v>
       </c>
       <c r="L778" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M778" t="n">
-        <v>1200</v>
+        <v>2950</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="Q778" t="n">
         <v>20</v>
@@ -56441,36 +56441,36 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>120</v>
+        <v>5500</v>
       </c>
       <c r="K779" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L779" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="M779" t="n">
-        <v>6229</v>
+        <v>2000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="Q779" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E780" t="n">
         <v>5</v>
@@ -56508,41 +56508,41 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>80</v>
+        <v>3500</v>
       </c>
       <c r="K780" t="n">
-        <v>8500</v>
+        <v>1200</v>
       </c>
       <c r="L780" t="n">
-        <v>9000</v>
+        <v>1200</v>
       </c>
       <c r="M780" t="n">
-        <v>8750</v>
+        <v>1200</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>486</v>
+        <v>60</v>
       </c>
       <c r="Q780" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E781" t="n">
         <v>5</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K781" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L781" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M781" t="n">
-        <v>5765</v>
+        <v>6229</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
@@ -56661,16 +56661,16 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K782" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L782" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M782" t="n">
-        <v>8269</v>
+        <v>8750</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E783" t="n">
         <v>5</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K783" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L783" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M783" t="n">
-        <v>4657</v>
+        <v>5765</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56796,25 +56796,25 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K784" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L784" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M784" t="n">
-        <v>4000</v>
+        <v>8269</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E785" t="n">
         <v>5</v>
@@ -56868,25 +56868,25 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="K785" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L785" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="M785" t="n">
-        <v>8240</v>
+        <v>4657</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>458</v>
+        <v>259</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E786" t="n">
         <v>5</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="K786" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L786" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="M786" t="n">
-        <v>4646</v>
+        <v>4000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -57012,25 +57012,25 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K787" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L787" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M787" t="n">
-        <v>4000</v>
+        <v>8240</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>222</v>
+        <v>458</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E788" t="n">
         <v>5</v>
@@ -57093,16 +57093,16 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="K788" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L788" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M788" t="n">
-        <v>5000</v>
+        <v>4646</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E789" t="n">
         <v>5</v>
@@ -57165,7 +57165,7 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K789" t="n">
         <v>4000</v>
@@ -57183,7 +57183,7 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P789" t="n">
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K790" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L790" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M790" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E791" t="n">
         <v>5</v>
@@ -57300,25 +57300,25 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K791" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L791" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M791" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E792" t="n">
         <v>5</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="K792" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L792" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M792" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>389</v>
+        <v>167</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57444,41 +57444,41 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>5150</v>
+        <v>98</v>
       </c>
       <c r="K793" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L793" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M793" t="n">
-        <v>2907</v>
+        <v>7000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="Q793" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K794" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L794" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M794" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="K795" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L795" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M795" t="n">
-        <v>2200</v>
+        <v>2907</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="Q795" t="n">
         <v>20</v>
@@ -57665,24 +57665,24 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>1800</v>
+        <v>80</v>
       </c>
       <c r="K796" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="L796" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="M796" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
@@ -57691,10 +57691,10 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="Q796" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57737,36 +57737,36 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>85</v>
+        <v>2500</v>
       </c>
       <c r="K797" t="n">
-        <v>7000</v>
+        <v>2200</v>
       </c>
       <c r="L797" t="n">
-        <v>7000</v>
+        <v>2200</v>
       </c>
       <c r="M797" t="n">
-        <v>7000</v>
+        <v>2200</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>389</v>
+        <v>110</v>
       </c>
       <c r="Q797" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E798" t="n">
         <v>5</v>
@@ -57809,24 +57809,24 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>170</v>
+        <v>1800</v>
       </c>
       <c r="K798" t="n">
-        <v>5300</v>
+        <v>1800</v>
       </c>
       <c r="L798" t="n">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="M798" t="n">
-        <v>5406</v>
+        <v>1800</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O798" t="inlineStr">
@@ -57835,10 +57835,10 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="Q798" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R798" t="inlineStr">
         <is>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44452</v>
+        <v>44224</v>
       </c>
       <c r="E799" t="n">
         <v>5</v>
@@ -57876,7 +57876,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="K799" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L799" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M799" t="n">
-        <v>8767</v>
+        <v>7000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E800" t="n">
         <v>5</v>
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K800" t="n">
-        <v>4700</v>
+        <v>5300</v>
       </c>
       <c r="L800" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M800" t="n">
-        <v>4820</v>
+        <v>5406</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58020,41 +58020,41 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>12000</v>
+        <v>150</v>
       </c>
       <c r="K801" t="n">
-        <v>4300</v>
+        <v>8500</v>
       </c>
       <c r="L801" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M801" t="n">
-        <v>4408</v>
+        <v>8767</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>220</v>
+        <v>487</v>
       </c>
       <c r="Q801" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K802" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="L802" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M802" t="n">
-        <v>4000</v>
+        <v>4820</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>5800</v>
+        <v>12000</v>
       </c>
       <c r="K803" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="L803" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M803" t="n">
-        <v>3500</v>
+        <v>4408</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E804" t="n">
         <v>5</v>
@@ -58236,25 +58236,25 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K804" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L804" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M804" t="n">
-        <v>8750</v>
+        <v>4000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>486</v>
+        <v>222</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E805" t="n">
         <v>5</v>
@@ -58313,24 +58313,24 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>130</v>
+        <v>5800</v>
       </c>
       <c r="K805" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L805" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M805" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O805" t="inlineStr">
@@ -58339,10 +58339,10 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>333</v>
+        <v>175</v>
       </c>
       <c r="Q805" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R805" t="inlineStr">
         <is>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E806" t="n">
         <v>5</v>
@@ -58380,41 +58380,41 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>18500</v>
+        <v>100</v>
       </c>
       <c r="K806" t="n">
-        <v>3300</v>
+        <v>8500</v>
       </c>
       <c r="L806" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="M806" t="n">
-        <v>3403</v>
+        <v>8750</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>170</v>
+        <v>486</v>
       </c>
       <c r="Q806" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R806" t="inlineStr">
         <is>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E807" t="n">
         <v>5</v>
@@ -58457,24 +58457,24 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>8500</v>
+        <v>130</v>
       </c>
       <c r="K807" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="L807" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="M807" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
@@ -58483,10 +58483,10 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>125</v>
+        <v>333</v>
       </c>
       <c r="Q807" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58529,36 +58529,36 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>115</v>
+        <v>18500</v>
       </c>
       <c r="K808" t="n">
-        <v>9500</v>
+        <v>3300</v>
       </c>
       <c r="L808" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="M808" t="n">
-        <v>9739</v>
+        <v>3403</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>541</v>
+        <v>170</v>
       </c>
       <c r="Q808" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R808" t="inlineStr">
         <is>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E809" t="n">
         <v>5</v>
@@ -58596,41 +58596,41 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>110</v>
+        <v>8500</v>
       </c>
       <c r="K809" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="L809" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="M809" t="n">
-        <v>7727</v>
+        <v>2500</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>429</v>
+        <v>125</v>
       </c>
       <c r="Q809" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E810" t="n">
         <v>5</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K810" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L810" t="n">
-        <v>4800</v>
+        <v>10000</v>
       </c>
       <c r="M810" t="n">
-        <v>4638</v>
+        <v>9739</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>258</v>
+        <v>541</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58740,41 +58740,41 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>11100</v>
+        <v>110</v>
       </c>
       <c r="K811" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L811" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M811" t="n">
-        <v>3748</v>
+        <v>7727</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>187</v>
+        <v>429</v>
       </c>
       <c r="Q811" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R811" t="inlineStr">
         <is>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K812" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L812" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M812" t="n">
-        <v>4000</v>
+        <v>4638</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>5500</v>
+        <v>11100</v>
       </c>
       <c r="K813" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L813" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M813" t="n">
-        <v>2000</v>
+        <v>3748</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E814" t="n">
         <v>5</v>
@@ -58956,25 +58956,25 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K814" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L814" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M814" t="n">
-        <v>8769</v>
+        <v>4000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>487</v>
+        <v>222</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E815" t="n">
         <v>5</v>
@@ -59033,24 +59033,24 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>170</v>
+        <v>5500</v>
       </c>
       <c r="K815" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="L815" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M815" t="n">
-        <v>4906</v>
+        <v>2000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O815" t="inlineStr">
@@ -59059,10 +59059,10 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c r="Q815" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R815" t="inlineStr">
         <is>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E816" t="n">
         <v>5</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K816" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L816" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M816" t="n">
-        <v>6250</v>
+        <v>8769</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>347</v>
+        <v>487</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E817" t="n">
         <v>5</v>
@@ -59172,25 +59172,25 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K817" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="L817" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M817" t="n">
-        <v>4500</v>
+        <v>4906</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="K818" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L818" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M818" t="n">
-        <v>4764</v>
+        <v>6250</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59316,29 +59316,29 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>4800</v>
+        <v>70</v>
       </c>
       <c r="K819" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L819" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M819" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
@@ -59347,10 +59347,10 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="Q819" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="K820" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L820" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M820" t="n">
-        <v>3500</v>
+        <v>4764</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="K821" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L821" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M821" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E822" t="n">
         <v>5</v>
@@ -59532,25 +59532,25 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="K822" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L822" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="M822" t="n">
-        <v>9261</v>
+        <v>3500</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>514</v>
+        <v>194</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E823" t="n">
         <v>5</v>
@@ -59609,24 +59609,24 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>115</v>
+        <v>3000</v>
       </c>
       <c r="K823" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="L823" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="M823" t="n">
-        <v>6239</v>
+        <v>1500</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O823" t="inlineStr">
@@ -59635,10 +59635,10 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>347</v>
+        <v>75</v>
       </c>
       <c r="Q823" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R823" t="inlineStr">
         <is>
@@ -59676,25 +59676,25 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K824" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L824" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="M824" t="n">
-        <v>5500</v>
+        <v>9261</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>306</v>
+        <v>514</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E825" t="n">
         <v>5</v>
@@ -59748,16 +59748,16 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="K825" t="n">
         <v>6000</v>
@@ -59766,7 +59766,7 @@
         <v>6500</v>
       </c>
       <c r="M825" t="n">
-        <v>6267</v>
+        <v>6239</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E826" t="n">
         <v>5</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K826" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L826" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M826" t="n">
-        <v>4643</v>
+        <v>5500</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -59901,32 +59901,32 @@
         </is>
       </c>
       <c r="J827" t="n">
+        <v>150</v>
+      </c>
+      <c r="K827" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L827" t="n">
         <v>6500</v>
       </c>
-      <c r="K827" t="n">
-        <v>2500</v>
-      </c>
-      <c r="L827" t="n">
-        <v>2500</v>
-      </c>
       <c r="M827" t="n">
-        <v>2500</v>
+        <v>6267</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>125</v>
+        <v>348</v>
       </c>
       <c r="Q827" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R827" t="inlineStr">
         <is>
@@ -59969,36 +59969,36 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>7500</v>
+        <v>115</v>
       </c>
       <c r="K828" t="n">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="L828" t="n">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="M828" t="n">
-        <v>1500</v>
+        <v>4643</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="Q828" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R828" t="inlineStr">
         <is>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E829" t="n">
         <v>5</v>
@@ -60036,41 +60036,41 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>115</v>
+        <v>6500</v>
       </c>
       <c r="K829" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="L829" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="M829" t="n">
-        <v>7239</v>
+        <v>2500</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>402</v>
+        <v>125</v>
       </c>
       <c r="Q829" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R829" t="inlineStr">
         <is>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E830" t="n">
         <v>5</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>11520</v>
+        <v>7500</v>
       </c>
       <c r="K830" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="L830" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M830" t="n">
-        <v>2951</v>
+        <v>1500</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60180,41 +60180,41 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>5700</v>
+        <v>115</v>
       </c>
       <c r="K831" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L831" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M831" t="n">
-        <v>2000</v>
+        <v>7239</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>100</v>
+        <v>402</v>
       </c>
       <c r="Q831" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R831" t="inlineStr">
         <is>
@@ -60257,36 +60257,36 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>80</v>
+        <v>11520</v>
       </c>
       <c r="K832" t="n">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="L832" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M832" t="n">
-        <v>7000</v>
+        <v>2951</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>389</v>
+        <v>148</v>
       </c>
       <c r="Q832" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R832" t="inlineStr">
         <is>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E833" t="n">
         <v>5</v>
@@ -60324,41 +60324,41 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>140</v>
+        <v>5700</v>
       </c>
       <c r="K833" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="L833" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="M833" t="n">
-        <v>8786</v>
+        <v>2000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>488</v>
+        <v>100</v>
       </c>
       <c r="Q833" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R833" t="inlineStr">
         <is>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E834" t="n">
         <v>5</v>
@@ -60396,25 +60396,25 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K834" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L834" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M834" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60468,25 +60468,25 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K835" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L835" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M835" t="n">
-        <v>5261</v>
+        <v>8786</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>292</v>
+        <v>488</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E836" t="n">
         <v>5</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K836" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L836" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M836" t="n">
-        <v>8727</v>
+        <v>7500</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E837" t="n">
         <v>5</v>
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K837" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L837" t="n">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="M837" t="n">
-        <v>4548</v>
+        <v>5261</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60684,41 +60684,41 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>13100</v>
+        <v>110</v>
       </c>
       <c r="K838" t="n">
-        <v>4300</v>
+        <v>8500</v>
       </c>
       <c r="L838" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M838" t="n">
-        <v>4399</v>
+        <v>8727</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>220</v>
+        <v>485</v>
       </c>
       <c r="Q838" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60761,24 +60761,24 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>6500</v>
+        <v>125</v>
       </c>
       <c r="K839" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L839" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="M839" t="n">
-        <v>3500</v>
+        <v>4548</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
@@ -60787,10 +60787,10 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="Q839" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E840" t="n">
         <v>5</v>
@@ -60828,41 +60828,41 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>160</v>
+        <v>13100</v>
       </c>
       <c r="K840" t="n">
-        <v>8000</v>
+        <v>4300</v>
       </c>
       <c r="L840" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M840" t="n">
-        <v>8219</v>
+        <v>4399</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>457</v>
+        <v>220</v>
       </c>
       <c r="Q840" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E841" t="n">
         <v>5</v>
@@ -60905,36 +60905,36 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>135</v>
+        <v>6500</v>
       </c>
       <c r="K841" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L841" t="n">
-        <v>4700</v>
+        <v>3500</v>
       </c>
       <c r="M841" t="n">
-        <v>4604</v>
+        <v>3500</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="Q841" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60972,41 +60972,41 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>6500</v>
+        <v>160</v>
       </c>
       <c r="K842" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L842" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M842" t="n">
-        <v>4000</v>
+        <v>8219</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>200</v>
+        <v>457</v>
       </c>
       <c r="Q842" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61049,36 +61049,36 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>6500</v>
+        <v>135</v>
       </c>
       <c r="K843" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L843" t="n">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="M843" t="n">
-        <v>3000</v>
+        <v>4604</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="Q843" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E844" t="n">
         <v>5</v>
@@ -61116,41 +61116,41 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>110</v>
+        <v>6500</v>
       </c>
       <c r="K844" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L844" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M844" t="n">
-        <v>6773</v>
+        <v>4000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>376</v>
+        <v>200</v>
       </c>
       <c r="Q844" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R844" t="inlineStr">
         <is>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E845" t="n">
         <v>5</v>
@@ -61193,24 +61193,24 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>170</v>
+        <v>6500</v>
       </c>
       <c r="K845" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L845" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M845" t="n">
-        <v>4750</v>
+        <v>3000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
@@ -61219,10 +61219,10 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="Q845" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E846" t="n">
         <v>5</v>
@@ -61260,25 +61260,25 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="K846" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L846" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M846" t="n">
-        <v>4739</v>
+        <v>6773</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>263</v>
+        <v>376</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E847" t="n">
         <v>5</v>
@@ -61332,25 +61332,25 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K847" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L847" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M847" t="n">
-        <v>7243</v>
+        <v>4750</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E848" t="n">
         <v>5</v>
@@ -61413,7 +61413,7 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="K848" t="n">
         <v>4500</v>
@@ -61422,7 +61422,7 @@
         <v>5000</v>
       </c>
       <c r="M848" t="n">
-        <v>4733</v>
+        <v>4739</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,7 +61431,7 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P848" t="n">
@@ -61476,41 +61476,41 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>8800</v>
+        <v>185</v>
       </c>
       <c r="K849" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L849" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M849" t="n">
-        <v>5000</v>
+        <v>7243</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>250</v>
+        <v>402</v>
       </c>
       <c r="Q849" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="K850" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L850" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M850" t="n">
-        <v>4000</v>
+        <v>4733</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J851" t="n">
         <v>8800</v>
       </c>
       <c r="K851" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L851" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M851" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q851" t="n">
         <v>20</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E852" t="n">
         <v>5</v>
@@ -61692,25 +61692,25 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="K852" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L852" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M852" t="n">
-        <v>8783</v>
+        <v>4000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>488</v>
+        <v>222</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E853" t="n">
         <v>5</v>
@@ -61769,36 +61769,36 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>135</v>
+        <v>8800</v>
       </c>
       <c r="K853" t="n">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="L853" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M853" t="n">
-        <v>4881</v>
+        <v>3500</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="Q853" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R853" t="inlineStr">
         <is>
@@ -61836,41 +61836,41 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>12000</v>
+        <v>150</v>
       </c>
       <c r="K854" t="n">
-        <v>4300</v>
+        <v>8500</v>
       </c>
       <c r="L854" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M854" t="n">
-        <v>4408</v>
+        <v>8783</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>220</v>
+        <v>488</v>
       </c>
       <c r="Q854" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K855" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="L855" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M855" t="n">
-        <v>4000</v>
+        <v>4881</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>5800</v>
+        <v>12000</v>
       </c>
       <c r="K856" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="L856" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M856" t="n">
-        <v>3500</v>
+        <v>4408</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E857" t="n">
         <v>5</v>
@@ -62052,25 +62052,25 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K857" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L857" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M857" t="n">
-        <v>8273</v>
+        <v>4000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>460</v>
+        <v>222</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E858" t="n">
         <v>5</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>17500</v>
+        <v>5800</v>
       </c>
       <c r="K858" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L858" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M858" t="n">
-        <v>2897</v>
+        <v>3500</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62196,41 +62196,41 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>17500</v>
+        <v>110</v>
       </c>
       <c r="K859" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L859" t="n">
-        <v>2200</v>
+        <v>8500</v>
       </c>
       <c r="M859" t="n">
-        <v>2097</v>
+        <v>8273</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>105</v>
+        <v>460</v>
       </c>
       <c r="Q859" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E860" t="n">
         <v>5</v>
@@ -62268,41 +62268,41 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>60</v>
+        <v>17500</v>
       </c>
       <c r="K860" t="n">
-        <v>9000</v>
+        <v>2800</v>
       </c>
       <c r="L860" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M860" t="n">
-        <v>9000</v>
+        <v>2897</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>500</v>
+        <v>145</v>
       </c>
       <c r="Q860" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E861" t="n">
         <v>5</v>
@@ -62345,24 +62345,24 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>70</v>
+        <v>17500</v>
       </c>
       <c r="K861" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L861" t="n">
-        <v>5500</v>
+        <v>2200</v>
       </c>
       <c r="M861" t="n">
-        <v>5500</v>
+        <v>2097</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
@@ -62371,10 +62371,10 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>306</v>
+        <v>105</v>
       </c>
       <c r="Q861" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62412,25 +62412,25 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J862" t="n">
         <v>60</v>
       </c>
       <c r="K862" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L862" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M862" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E863" t="n">
         <v>5</v>
@@ -62484,25 +62484,25 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="K863" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L863" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M863" t="n">
-        <v>6278</v>
+        <v>5500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E864" t="n">
         <v>5</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K864" t="n">
         <v>4500</v>
       </c>
       <c r="L864" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M864" t="n">
-        <v>4638</v>
+        <v>4500</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62628,7 +62628,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="K865" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L865" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M865" t="n">
-        <v>5250</v>
+        <v>6278</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E866" t="n">
         <v>5</v>
@@ -62700,7 +62700,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K866" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L866" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M866" t="n">
-        <v>6267</v>
+        <v>4638</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="K867" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L867" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M867" t="n">
-        <v>4742</v>
+        <v>5250</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,32 +62853,32 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K868" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L868" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="M868" t="n">
-        <v>2000</v>
+        <v>6267</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="Q868" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62921,24 +62921,24 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="K869" t="n">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="L869" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="M869" t="n">
-        <v>1500</v>
+        <v>4742</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
@@ -62947,10 +62947,10 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="Q869" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -62988,41 +62988,41 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="K870" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="L870" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="M870" t="n">
-        <v>8265</v>
+        <v>2000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>459</v>
+        <v>100</v>
       </c>
       <c r="Q870" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63045,58 +63045,202 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E871" t="n">
+        <v>5</v>
+      </c>
+      <c r="F871" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J871" t="n">
+        <v>70</v>
+      </c>
+      <c r="K871" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L871" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M871" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O871" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P871" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>20</v>
+      </c>
+      <c r="R871" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>3</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D872" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E871" t="n">
-        <v>5</v>
-      </c>
-      <c r="F871" t="n">
-        <v>100112004</v>
-      </c>
-      <c r="G871" t="inlineStr">
-        <is>
-          <t>Cebolla</t>
-        </is>
-      </c>
-      <c r="H871" t="inlineStr">
+      <c r="E872" t="n">
+        <v>5</v>
+      </c>
+      <c r="F872" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>Morada(o)</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J872" t="n">
+        <v>85</v>
+      </c>
+      <c r="K872" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L872" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M872" t="n">
+        <v>8265</v>
+      </c>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="O872" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P872" t="n">
+        <v>459</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>18</v>
+      </c>
+      <c r="R872" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>3</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D873" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E873" t="n">
+        <v>5</v>
+      </c>
+      <c r="F873" t="n">
+        <v>100112004</v>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I871" t="inlineStr">
+      <c r="I873" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J871" t="n">
+      <c r="J873" t="n">
         <v>215</v>
       </c>
-      <c r="K871" t="n">
+      <c r="K873" t="n">
         <v>5500</v>
       </c>
-      <c r="L871" t="n">
+      <c r="L873" t="n">
         <v>6500</v>
       </c>
-      <c r="M871" t="n">
+      <c r="M873" t="n">
         <v>6012</v>
       </c>
-      <c r="N871" t="inlineStr">
+      <c r="N873" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
         </is>
       </c>
-      <c r="O871" t="inlineStr">
+      <c r="O873" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P871" t="n">
+      <c r="P873" t="n">
         <v>334</v>
       </c>
-      <c r="Q871" t="n">
+      <c r="Q873" t="n">
         <v>18</v>
       </c>
-      <c r="R871" t="inlineStr">
+      <c r="R873" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Cebolla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R892"/>
+  <dimension ref="A1:R895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K711" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L711" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M711" t="n">
-        <v>6737</v>
+        <v>5733</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="K712" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L712" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M712" t="n">
-        <v>4643</v>
+        <v>5250</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K713" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L713" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M713" t="n">
-        <v>6238</v>
+        <v>4500</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>347</v>
+        <v>250</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K714" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L714" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M714" t="n">
-        <v>4630</v>
+        <v>6737</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>257</v>
+        <v>374</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51833,20 +51833,20 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K715" t="n">
         <v>4500</v>
       </c>
       <c r="L715" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M715" t="n">
-        <v>4500</v>
+        <v>4643</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="K716" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L716" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M716" t="n">
-        <v>8250</v>
+        <v>6238</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>458</v>
+        <v>347</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51977,20 +51977,20 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="K717" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L717" t="n">
         <v>4800</v>
       </c>
-      <c r="L717" t="n">
-        <v>5000</v>
-      </c>
       <c r="M717" t="n">
-        <v>4900</v>
+        <v>4630</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52049,20 +52049,20 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J718" t="n">
         <v>60</v>
       </c>
       <c r="K718" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L718" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M718" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -52125,16 +52125,16 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="K719" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L719" t="n">
         <v>8500</v>
       </c>
       <c r="M719" t="n">
-        <v>8500</v>
+        <v>8250</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -52197,7 +52197,7 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K720" t="n">
         <v>4800</v>
@@ -52206,7 +52206,7 @@
         <v>5000</v>
       </c>
       <c r="M720" t="n">
-        <v>4897</v>
+        <v>4900</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,7 +52215,7 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P720" t="n">
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E721" t="n">
         <v>5</v>
@@ -52265,24 +52265,24 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>6500</v>
+        <v>60</v>
       </c>
       <c r="K721" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L721" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M721" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
@@ -52291,10 +52291,10 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q721" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52332,25 +52332,25 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K722" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L722" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M722" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52409,36 +52409,36 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>6800</v>
+        <v>370</v>
       </c>
       <c r="K723" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="L723" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M723" t="n">
-        <v>3500</v>
+        <v>4897</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="Q723" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E724" t="n">
         <v>5</v>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,32 +52485,32 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>233</v>
+        <v>6500</v>
       </c>
       <c r="K724" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L724" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M724" t="n">
-        <v>5770</v>
+        <v>4500</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="Q724" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44543</v>
+        <v>44414</v>
       </c>
       <c r="E725" t="n">
         <v>5</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K725" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L725" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M725" t="n">
-        <v>4765</v>
+        <v>4000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E726" t="n">
         <v>5</v>
@@ -52620,41 +52620,41 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>95</v>
+        <v>6800</v>
       </c>
       <c r="K726" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L726" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M726" t="n">
-        <v>8763</v>
+        <v>3500</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>487</v>
+        <v>175</v>
       </c>
       <c r="Q726" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E727" t="n">
         <v>5</v>
@@ -52692,25 +52692,25 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="K727" t="n">
         <v>5500</v>
       </c>
       <c r="L727" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="M727" t="n">
-        <v>5645</v>
+        <v>5770</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E728" t="n">
         <v>5</v>
@@ -52769,20 +52769,20 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K728" t="n">
         <v>4500</v>
       </c>
       <c r="L728" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M728" t="n">
-        <v>4500</v>
+        <v>4765</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E729" t="n">
         <v>5</v>
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K729" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L729" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M729" t="n">
-        <v>6727</v>
+        <v>8763</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>374</v>
+        <v>487</v>
       </c>
       <c r="Q729" t="n">
         <v>18</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E730" t="n">
         <v>5</v>
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K730" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L730" t="n">
-        <v>4800</v>
+        <v>5800</v>
       </c>
       <c r="M730" t="n">
-        <v>4638</v>
+        <v>5645</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44278</v>
+        <v>44321</v>
       </c>
       <c r="E731" t="n">
         <v>5</v>
@@ -52980,25 +52980,25 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K731" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L731" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M731" t="n">
-        <v>9238</v>
+        <v>4500</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>513</v>
+        <v>250</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -53052,25 +53052,25 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="K732" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L732" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M732" t="n">
-        <v>5761</v>
+        <v>6727</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -53124,25 +53124,25 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K733" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L733" t="n">
-        <v>9500</v>
+        <v>4800</v>
       </c>
       <c r="M733" t="n">
-        <v>9240</v>
+        <v>4638</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -53196,25 +53196,25 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K734" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L734" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M734" t="n">
-        <v>6273</v>
+        <v>9238</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>348</v>
+        <v>513</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -53268,25 +53268,25 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="K735" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L735" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M735" t="n">
-        <v>8741</v>
+        <v>5761</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>486</v>
+        <v>320</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -53340,25 +53340,25 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K736" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L736" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M736" t="n">
-        <v>6254</v>
+        <v>9240</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>347</v>
+        <v>513</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="K737" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L737" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M737" t="n">
-        <v>5500</v>
+        <v>6273</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="K738" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L738" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M738" t="n">
-        <v>8000</v>
+        <v>8741</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -53556,25 +53556,25 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="K739" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L739" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M739" t="n">
-        <v>7000</v>
+        <v>6254</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="K740" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L740" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M740" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53700,41 +53700,41 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>5600</v>
+        <v>58</v>
       </c>
       <c r="K741" t="n">
-        <v>2700</v>
+        <v>8000</v>
       </c>
       <c r="L741" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M741" t="n">
-        <v>2871</v>
+        <v>8000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>144</v>
+        <v>444</v>
       </c>
       <c r="Q741" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53772,25 +53772,25 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K742" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L742" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M742" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53849,24 +53849,24 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>3700</v>
+        <v>89</v>
       </c>
       <c r="K743" t="n">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="L743" t="n">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="M743" t="n">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
@@ -53875,10 +53875,10 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>115</v>
+        <v>389</v>
       </c>
       <c r="Q743" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E744" t="n">
         <v>5</v>
@@ -53916,41 +53916,41 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="K744" t="n">
-        <v>7000</v>
+        <v>2700</v>
       </c>
       <c r="L744" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M744" t="n">
-        <v>7267</v>
+        <v>2871</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>404</v>
+        <v>144</v>
       </c>
       <c r="Q744" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E745" t="n">
         <v>5</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="K745" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L745" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M745" t="n">
-        <v>4654</v>
+        <v>6000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E746" t="n">
         <v>5</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>6000</v>
+        <v>3700</v>
       </c>
       <c r="K746" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L746" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M746" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="Q746" t="n">
         <v>20</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K747" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L747" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M747" t="n">
-        <v>4000</v>
+        <v>7267</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>222</v>
+        <v>404</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54209,24 +54209,24 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>6500</v>
+        <v>185</v>
       </c>
       <c r="K748" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="L748" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="M748" t="n">
-        <v>2500</v>
+        <v>4654</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
@@ -54235,10 +54235,10 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="Q748" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E749" t="n">
         <v>5</v>
@@ -54276,41 +54276,41 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>130</v>
+        <v>6000</v>
       </c>
       <c r="K749" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L749" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="M749" t="n">
-        <v>8269</v>
+        <v>3500</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>459</v>
+        <v>175</v>
       </c>
       <c r="Q749" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K750" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="L750" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M750" t="n">
-        <v>4906</v>
+        <v>4000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="Q750" t="n">
         <v>18</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -54425,24 +54425,24 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>90</v>
+        <v>6500</v>
       </c>
       <c r="K751" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L751" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M751" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
@@ -54451,10 +54451,10 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="Q751" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K752" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L752" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M752" t="n">
-        <v>7260</v>
+        <v>8269</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E753" t="n">
         <v>5</v>
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K753" t="n">
+        <v>4800</v>
+      </c>
+      <c r="L753" t="n">
         <v>5000</v>
       </c>
-      <c r="L753" t="n">
-        <v>5500</v>
-      </c>
       <c r="M753" t="n">
-        <v>5321</v>
+        <v>4906</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44529</v>
+        <v>44446</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -54636,25 +54636,25 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K754" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L754" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M754" t="n">
-        <v>5240</v>
+        <v>4000</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E755" t="n">
         <v>5</v>
@@ -54708,25 +54708,25 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="K755" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L755" t="n">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="M755" t="n">
-        <v>4646</v>
+        <v>7260</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>258</v>
+        <v>403</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E756" t="n">
         <v>5</v>
@@ -54785,24 +54785,24 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>11300</v>
+        <v>140</v>
       </c>
       <c r="K756" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L756" t="n">
-        <v>2200</v>
+        <v>5500</v>
       </c>
       <c r="M756" t="n">
-        <v>2097</v>
+        <v>5321</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
@@ -54811,10 +54811,10 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="Q756" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54852,41 +54852,41 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J757" t="n">
+        <v>125</v>
+      </c>
+      <c r="K757" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L757" t="n">
         <v>5500</v>
       </c>
-      <c r="K757" t="n">
-        <v>1500</v>
-      </c>
-      <c r="L757" t="n">
-        <v>1500</v>
-      </c>
       <c r="M757" t="n">
-        <v>1500</v>
+        <v>5240</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Q757" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E758" t="n">
         <v>5</v>
@@ -54924,25 +54924,25 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="K758" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L758" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="M758" t="n">
-        <v>8000</v>
+        <v>4646</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>444</v>
+        <v>258</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -55001,24 +55001,24 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>60</v>
+        <v>11300</v>
       </c>
       <c r="K759" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L759" t="n">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="M759" t="n">
-        <v>5000</v>
+        <v>2097</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
@@ -55027,10 +55027,10 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="Q759" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -55068,41 +55068,41 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>130</v>
+        <v>5500</v>
       </c>
       <c r="K760" t="n">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="L760" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="M760" t="n">
-        <v>8269</v>
+        <v>1500</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>459</v>
+        <v>75</v>
       </c>
       <c r="Q760" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E761" t="n">
         <v>5</v>
@@ -55140,25 +55140,25 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="K761" t="n">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="L761" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M761" t="n">
-        <v>4903</v>
+        <v>8000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>272</v>
+        <v>444</v>
       </c>
       <c r="Q761" t="n">
         <v>18</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E762" t="n">
         <v>5</v>
@@ -55217,24 +55217,24 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>8500</v>
+        <v>60</v>
       </c>
       <c r="K762" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L762" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M762" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
@@ -55243,10 +55243,10 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="Q762" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55284,25 +55284,25 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K763" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L763" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M763" t="n">
-        <v>4000</v>
+        <v>8269</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55361,24 +55361,24 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>8000</v>
+        <v>175</v>
       </c>
       <c r="K764" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="L764" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M764" t="n">
-        <v>3500</v>
+        <v>4903</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
@@ -55387,10 +55387,10 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="Q764" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -55428,41 +55428,41 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>80</v>
+        <v>8500</v>
       </c>
       <c r="K765" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L765" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M765" t="n">
-        <v>7750</v>
+        <v>4500</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>431</v>
+        <v>225</v>
       </c>
       <c r="Q765" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -55505,24 +55505,24 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>9300</v>
+        <v>80</v>
       </c>
       <c r="K766" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="L766" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M766" t="n">
-        <v>2897</v>
+        <v>4000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
@@ -55531,10 +55531,10 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="Q766" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55581,16 +55581,16 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="K767" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L767" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M767" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="Q767" t="n">
         <v>20</v>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,16 +55653,16 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K768" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L768" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M768" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="Q768" t="n">
         <v>18</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -55716,41 +55716,41 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>105</v>
+        <v>9300</v>
       </c>
       <c r="K769" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="L769" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M769" t="n">
-        <v>6738</v>
+        <v>2897</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>374</v>
+        <v>145</v>
       </c>
       <c r="Q769" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E770" t="n">
         <v>5</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="K770" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L770" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M770" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q770" t="n">
         <v>20</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E771" t="n">
         <v>5</v>
@@ -55865,36 +55865,36 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>5500</v>
+        <v>55</v>
       </c>
       <c r="K771" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L771" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M771" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="Q771" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R771" t="inlineStr">
         <is>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K772" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L772" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M772" t="n">
-        <v>8500</v>
+        <v>6738</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>472</v>
+        <v>374</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -56009,24 +56009,24 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>115</v>
+        <v>5800</v>
       </c>
       <c r="K773" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="L773" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M773" t="n">
-        <v>4896</v>
+        <v>3000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
@@ -56035,10 +56035,10 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="Q773" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -56081,24 +56081,24 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>60</v>
+        <v>5500</v>
       </c>
       <c r="K774" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L774" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M774" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
@@ -56107,10 +56107,10 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="Q774" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K775" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L775" t="n">
         <v>8500</v>
       </c>
       <c r="M775" t="n">
-        <v>8211</v>
+        <v>8500</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K776" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="L776" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M776" t="n">
-        <v>7500</v>
+        <v>4896</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>417</v>
+        <v>272</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K777" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L777" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M777" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56364,41 +56364,41 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>14050</v>
+        <v>95</v>
       </c>
       <c r="K778" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="L778" t="n">
-        <v>2700</v>
+        <v>8500</v>
       </c>
       <c r="M778" t="n">
-        <v>2607</v>
+        <v>8211</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>130</v>
+        <v>456</v>
       </c>
       <c r="Q778" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56441,36 +56441,36 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>7550</v>
+        <v>80</v>
       </c>
       <c r="K779" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L779" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M779" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>100</v>
+        <v>417</v>
       </c>
       <c r="Q779" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E780" t="n">
         <v>5</v>
@@ -56508,25 +56508,25 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K780" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L780" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M780" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E781" t="n">
         <v>5</v>
@@ -56589,16 +56589,16 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>13300</v>
+        <v>14050</v>
       </c>
       <c r="K781" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L781" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="M781" t="n">
-        <v>3147</v>
+        <v>2607</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="Q781" t="n">
         <v>20</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
@@ -56661,7 +56661,7 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>6500</v>
+        <v>7550</v>
       </c>
       <c r="K782" t="n">
         <v>2000</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E783" t="n">
         <v>5</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K783" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L783" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M783" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E784" t="n">
         <v>5</v>
@@ -56796,41 +56796,41 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>80</v>
+        <v>13300</v>
       </c>
       <c r="K784" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L784" t="n">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="M784" t="n">
-        <v>6500</v>
+        <v>3147</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>361</v>
+        <v>157</v>
       </c>
       <c r="Q784" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E785" t="n">
         <v>5</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="K785" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L785" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="M785" t="n">
-        <v>3093</v>
+        <v>2000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="Q785" t="n">
         <v>20</v>
@@ -56940,41 +56940,41 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>7500</v>
+        <v>90</v>
       </c>
       <c r="K786" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="L786" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="M786" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>110</v>
+        <v>444</v>
       </c>
       <c r="Q786" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R786" t="inlineStr">
         <is>
@@ -57012,25 +57012,25 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J787" t="n">
         <v>80</v>
       </c>
       <c r="K787" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L787" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M787" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E788" t="n">
         <v>5</v>
@@ -57084,29 +57084,29 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>130</v>
+        <v>14000</v>
       </c>
       <c r="K788" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L788" t="n">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="M788" t="n">
-        <v>8231</v>
+        <v>3093</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
@@ -57115,10 +57115,10 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>457</v>
+        <v>155</v>
       </c>
       <c r="Q788" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E789" t="n">
         <v>5</v>
@@ -57161,24 +57161,24 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>160</v>
+        <v>7500</v>
       </c>
       <c r="K789" t="n">
-        <v>4500</v>
+        <v>2200</v>
       </c>
       <c r="L789" t="n">
-        <v>4700</v>
+        <v>2200</v>
       </c>
       <c r="M789" t="n">
-        <v>4612</v>
+        <v>2200</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
@@ -57187,10 +57187,10 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="Q789" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E790" t="n">
         <v>5</v>
@@ -57233,36 +57233,36 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>13300</v>
+        <v>80</v>
       </c>
       <c r="K790" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L790" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M790" t="n">
-        <v>4256</v>
+        <v>7000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>213</v>
+        <v>389</v>
       </c>
       <c r="Q790" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57300,25 +57300,25 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K791" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L791" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M791" t="n">
-        <v>4000</v>
+        <v>8231</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>222</v>
+        <v>457</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57377,24 +57377,24 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>6800</v>
+        <v>160</v>
       </c>
       <c r="K792" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L792" t="n">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="M792" t="n">
-        <v>3000</v>
+        <v>4612</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O792" t="inlineStr">
@@ -57403,10 +57403,10 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="Q792" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R792" t="inlineStr">
         <is>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E793" t="n">
         <v>5</v>
@@ -57453,16 +57453,16 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>9000</v>
+        <v>13300</v>
       </c>
       <c r="K793" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L793" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M793" t="n">
-        <v>3000</v>
+        <v>4256</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E794" t="n">
         <v>5</v>
@@ -57521,24 +57521,24 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>8800</v>
+        <v>80</v>
       </c>
       <c r="K794" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L794" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M794" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O794" t="inlineStr">
@@ -57547,10 +57547,10 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="Q794" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R794" t="inlineStr">
         <is>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E795" t="n">
         <v>5</v>
@@ -57588,41 +57588,41 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>175</v>
+        <v>6800</v>
       </c>
       <c r="K795" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L795" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M795" t="n">
-        <v>7243</v>
+        <v>3000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>402</v>
+        <v>150</v>
       </c>
       <c r="Q795" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R795" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E796" t="n">
         <v>5</v>
@@ -57660,41 +57660,41 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>80</v>
+        <v>9000</v>
       </c>
       <c r="K796" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L796" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M796" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="Q796" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E797" t="n">
         <v>5</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>10700</v>
+        <v>8800</v>
       </c>
       <c r="K797" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L797" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M797" t="n">
-        <v>2950</v>
+        <v>2000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="Q797" t="n">
         <v>20</v>
@@ -57804,41 +57804,41 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>5500</v>
+        <v>175</v>
       </c>
       <c r="K798" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L798" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="M798" t="n">
-        <v>2000</v>
+        <v>7243</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>100</v>
+        <v>402</v>
       </c>
       <c r="Q798" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R798" t="inlineStr">
         <is>
@@ -57876,41 +57876,41 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>3500</v>
+        <v>80</v>
       </c>
       <c r="K799" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="L799" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="M799" t="n">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>60</v>
+        <v>333</v>
       </c>
       <c r="Q799" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R799" t="inlineStr">
         <is>
@@ -57953,36 +57953,36 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>120</v>
+        <v>10700</v>
       </c>
       <c r="K800" t="n">
-        <v>6000</v>
+        <v>2900</v>
       </c>
       <c r="L800" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M800" t="n">
-        <v>6229</v>
+        <v>2950</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>346</v>
+        <v>148</v>
       </c>
       <c r="Q800" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R800" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E801" t="n">
         <v>5</v>
@@ -58020,41 +58020,41 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>80</v>
+        <v>5500</v>
       </c>
       <c r="K801" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="L801" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="M801" t="n">
-        <v>8750</v>
+        <v>2000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>486</v>
+        <v>100</v>
       </c>
       <c r="Q801" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E802" t="n">
         <v>5</v>
@@ -58097,24 +58097,24 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>170</v>
+        <v>3500</v>
       </c>
       <c r="K802" t="n">
-        <v>5500</v>
+        <v>1200</v>
       </c>
       <c r="L802" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="M802" t="n">
-        <v>5765</v>
+        <v>1200</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/paquete 20 unidades (volumen en unidades)</t>
         </is>
       </c>
       <c r="O802" t="inlineStr">
@@ -58123,10 +58123,10 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="Q802" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R802" t="inlineStr">
         <is>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44432</v>
+        <v>44258</v>
       </c>
       <c r="E803" t="n">
         <v>5</v>
@@ -58164,7 +58164,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K803" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L803" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M803" t="n">
-        <v>8269</v>
+        <v>6229</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>459</v>
+        <v>346</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E804" t="n">
         <v>5</v>
@@ -58236,25 +58236,25 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K804" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L804" t="n">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="M804" t="n">
-        <v>4657</v>
+        <v>8750</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>259</v>
+        <v>486</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E805" t="n">
         <v>5</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K805" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L805" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M805" t="n">
-        <v>4000</v>
+        <v>5765</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>222</v>
+        <v>320</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E806" t="n">
         <v>5</v>
@@ -58389,7 +58389,7 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K806" t="n">
         <v>8000</v>
@@ -58398,7 +58398,7 @@
         <v>8500</v>
       </c>
       <c r="M806" t="n">
-        <v>8240</v>
+        <v>8269</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E807" t="n">
         <v>5</v>
@@ -58461,7 +58461,7 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="K807" t="n">
         <v>4500</v>
@@ -58470,7 +58470,7 @@
         <v>4800</v>
       </c>
       <c r="M807" t="n">
-        <v>4646</v>
+        <v>4657</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E808" t="n">
         <v>5</v>
@@ -58533,7 +58533,7 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K808" t="n">
         <v>4000</v>
@@ -58551,7 +58551,7 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P808" t="n">
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E809" t="n">
         <v>5</v>
@@ -58596,25 +58596,25 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K809" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L809" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M809" t="n">
-        <v>5000</v>
+        <v>8240</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>278</v>
+        <v>458</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E810" t="n">
         <v>5</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="K810" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L810" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="M810" t="n">
-        <v>4000</v>
+        <v>4646</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E811" t="n">
         <v>5</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K811" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L811" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M811" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E812" t="n">
         <v>5</v>
@@ -58812,25 +58812,25 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Morada(o)</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J812" t="n">
         <v>98</v>
       </c>
       <c r="K812" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L812" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M812" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E813" t="n">
         <v>5</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="K813" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L813" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M813" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E814" t="n">
         <v>5</v>
@@ -58961,24 +58961,24 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>5150</v>
+        <v>87</v>
       </c>
       <c r="K814" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L814" t="n">
         <v>3000</v>
       </c>
       <c r="M814" t="n">
-        <v>2907</v>
+        <v>3000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O814" t="inlineStr">
@@ -58987,10 +58987,10 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="Q814" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R814" t="inlineStr">
         <is>
@@ -59028,25 +59028,25 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Morada(o)</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K815" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L815" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M815" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59105,24 +59105,24 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>2500</v>
+        <v>125</v>
       </c>
       <c r="K816" t="n">
-        <v>2200</v>
+        <v>7000</v>
       </c>
       <c r="L816" t="n">
-        <v>2200</v>
+        <v>7000</v>
       </c>
       <c r="M816" t="n">
-        <v>2200</v>
+        <v>7000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
-          <t>$/paquete 20 unidades (volumen en unidades)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="O816" t="inlineStr">
@@ -59131,10 +59131,10 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>110</v>
+        <v>389</v>
       </c>
       <c r="Q816" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R816" t="inlineStr">
         <is>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>1800</v>
+        <v>5150</v>
       </c>
       <c r="K817" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L817" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M817" t="n">
-        <v>1800</v>
+        <v>2907</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="Q817" t="n">
         <v>20</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr"